--- a/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
+++ b/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
@@ -680,7 +680,7 @@
         <v>-0.03733512203077081</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.03747302642548043</v>
+        <v>-0.03650556</v>
       </c>
       <c r="W3" t="n">
         <v>0.015654990053559296</v>
@@ -820,7 +820,7 @@
         <v>-0.030874005992294874</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.031160085490057037</v>
+        <v>-0.03133789</v>
       </c>
       <c r="W4" t="n">
         <v>0.01385699320678163</v>

--- a/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
+++ b/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="98">
   <si>
     <t>outcome</t>
   </si>
@@ -164,6 +164,9 @@
     <t>down</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>weekly</t>
   </si>
   <si>
@@ -179,6 +182,12 @@
     <t>xgboost</t>
   </si>
   <si>
+    <t>randomforests</t>
+  </si>
+  <si>
+    <t>postlasso</t>
+  </si>
+  <si>
     <t>0.01</t>
   </si>
   <si>
@@ -188,15 +197,12 @@
     <t>min-max</t>
   </si>
   <si>
+    <t>no_lags</t>
+  </si>
+  <si>
     <t>no_treatment_outcome_lags</t>
   </si>
   <si>
-    <t>no_lags</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>no_yes</t>
   </si>
   <si>
@@ -212,12 +218,6 @@
     <t>APO_1</t>
   </si>
   <si>
-    <t>2.04929691500134 hours</t>
-  </si>
-  <si>
-    <t>2.04929711421331 hours</t>
-  </si>
-  <si>
     <t>1.57713684837023 hours</t>
   </si>
   <si>
@@ -257,7 +257,16 @@
     <t>7.39961677220133 hours</t>
   </si>
   <si>
-    <t>2023-03-29 14:25:59</t>
+    <t>3.13795075443056 hours</t>
+  </si>
+  <si>
+    <t>2.27675026529365 hours</t>
+  </si>
+  <si>
+    <t>25.6455256274674 hours</t>
+  </si>
+  <si>
+    <t>32.0113890408145 hours</t>
   </si>
   <si>
     <t>2023-03-29 16:35:53</t>
@@ -285,6 +294,18 @@
   </si>
   <si>
     <t>2023-03-31 01:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-31 15:35:59</t>
+  </si>
+  <si>
+    <t>2023-03-31 18:43:56</t>
+  </si>
+  <si>
+    <t>2023-04-01 21:10:23</t>
+  </si>
+  <si>
+    <t>2023-04-03 06:55:58</t>
   </si>
 </sst>
 </file>
@@ -486,16 +507,16 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" t="n">
         <v>4.0</v>
@@ -507,13 +528,13 @@
         <v>5.0</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="n">
         <v>11122.0</v>
@@ -522,97 +543,97 @@
         <v>11122.0</v>
       </c>
       <c r="P2" t="n">
-        <v>17.23</v>
+        <v>15.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>67.46</v>
+        <v>62.43</v>
       </c>
       <c r="R2" t="n">
-        <v>36.64</v>
+        <v>34.32</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006371435288440104</v>
+        <v>0.005832690850431894</v>
       </c>
       <c r="V2" t="n">
-        <v>0.006349894673082725</v>
+        <v>0.0058268579722310625</v>
       </c>
       <c r="W2" t="n">
-        <v>0.008835421602773464</v>
+        <v>0.00882558430836701</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0066260381684915</v>
+        <v>0.006589097433323732</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7995771009416214</v>
+        <v>0.7351724910117774</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.023521169658376</v>
+        <v>0.9457777717627935</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4446816879036029</v>
+        <v>0.48117986912246413</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.32623529519779904</v>
+        <v>0.3624424200154632</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.006344697117192867</v>
+        <v>0.005805982449270826</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006398173459687341</v>
+        <v>0.005859399251592962</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0063298426426075475</v>
+        <v>0.005806917733557943</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0063699467035579025</v>
+        <v>0.005846798210904182</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8184351350689008</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.17934929768512978</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.563328041307992</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7330168105727285</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4948745410074332</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5215542339314313</v>
       </c>
       <c r="AM2" t="n">
-        <v>249.24099106839657</v>
+        <v>249.17077966058682</v>
       </c>
       <c r="AN2" t="n">
-        <v>267.0579899256722</v>
+        <v>263.73604896183525</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.41788646224573095</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.45719378802087923</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6462790963565238</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.675554653221059</v>
       </c>
       <c r="AS2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -626,16 +647,16 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" t="n">
         <v>4.0</v>
@@ -647,13 +668,13 @@
         <v>5.0</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" t="n">
         <v>11122.0</v>
@@ -662,97 +683,97 @@
         <v>11122.0</v>
       </c>
       <c r="P3" t="n">
-        <v>17.23</v>
+        <v>15.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.46</v>
+        <v>62.43</v>
       </c>
       <c r="R3" t="n">
-        <v>36.64</v>
+        <v>34.32</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.03733512203077081</v>
+        <v>-0.03385233168600036</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.03650556</v>
+        <v>-0.034034348220350334</v>
       </c>
       <c r="W3" t="n">
-        <v>0.015654990053559296</v>
+        <v>0.015768109705291338</v>
       </c>
       <c r="X3" t="n">
-        <v>0.015625567218425913</v>
+        <v>0.015745021802686207</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.3847454032099997</v>
+        <v>-2.146812789652255</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.3981319471116085</v>
+        <v>-2.161610494018583</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0177729119837947</v>
+        <v>0.03198644118630213</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.017036398963200656</v>
+        <v>0.03087308298047379</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.03738249790299794</v>
+        <v>-0.033900049886274236</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.037287746158543675</v>
+        <v>-0.033804613485726484</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.037520313256930594</v>
+        <v>-0.03408199655092004</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.03742573959403026</v>
+        <v>-0.033986699889780626</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8184351350689008</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.17934929768512978</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.563328041307992</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7330168105727285</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4948745410074332</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5215542339314313</v>
       </c>
       <c r="AM3" t="n">
-        <v>249.24099106839657</v>
+        <v>249.17077966058682</v>
       </c>
       <c r="AN3" t="n">
-        <v>267.0579899256722</v>
+        <v>263.73604896183525</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.41788646224573095</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.45719378802087923</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6462790963565238</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.675554653221059</v>
       </c>
       <c r="AS3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -766,16 +787,16 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
         <v>4.0</v>
@@ -787,13 +808,13 @@
         <v>5.0</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" t="n">
         <v>11122.0</v>
@@ -802,97 +823,97 @@
         <v>11122.0</v>
       </c>
       <c r="P4" t="n">
-        <v>17.23</v>
+        <v>15.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.46</v>
+        <v>62.43</v>
       </c>
       <c r="R4" t="n">
-        <v>36.64</v>
+        <v>34.32</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.030874005992294874</v>
+        <v>-0.027192513935194628</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.03133789</v>
+        <v>-0.027551139960406253</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01385699320678163</v>
+        <v>0.013899449291046487</v>
       </c>
       <c r="X4" t="n">
-        <v>0.013831512477596113</v>
+        <v>0.013867550715516241</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.228087244209481</v>
+        <v>-1.9564554187057988</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2.25279544157427</v>
+        <v>-1.9867617198318368</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.027429220165683138</v>
+        <v>0.05202690463486131</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.025664921309845868</v>
+        <v>0.04848955846660342</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.030915940681321873</v>
+        <v>-0.027234577106834294</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.030832071303267875</v>
+        <v>-0.027150450763554962</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.03120194306809476</v>
+        <v>-0.027593106599066126</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.031118227912019316</v>
+        <v>-0.02750917332174638</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8184351350689008</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.17934929768512978</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.563328041307992</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7330168105727285</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4948745410074332</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5215542339314313</v>
       </c>
       <c r="AM4" t="n">
-        <v>249.24099106839657</v>
+        <v>249.17077966058682</v>
       </c>
       <c r="AN4" t="n">
-        <v>267.0579899256722</v>
+        <v>263.73604896183525</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.41788646224573095</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.45719378802087923</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6462790963565238</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.675554653221059</v>
       </c>
       <c r="AS4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -906,16 +927,16 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" t="n">
         <v>4.0</v>
@@ -927,13 +948,13 @@
         <v>5.0</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" t="n">
         <v>11122.0</v>
@@ -942,97 +963,97 @@
         <v>11122.0</v>
       </c>
       <c r="P5" t="n">
-        <v>17.23</v>
+        <v>15.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.46</v>
+        <v>62.43</v>
       </c>
       <c r="R5" t="n">
-        <v>36.64</v>
+        <v>34.32</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.030963686742330708</v>
+        <v>-0.028019640835568464</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.031253618093149735</v>
+        <v>-0.028136966407011927</v>
       </c>
       <c r="W5" t="n">
-        <v>0.013067226751887328</v>
+        <v>0.013060113315478043</v>
       </c>
       <c r="X5" t="n">
-        <v>0.010576719607734986</v>
+        <v>0.010660798097622682</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.707815198793029</v>
+        <v>-2.470407111362454</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.100592402759909</v>
+        <v>-2.7882752326751805</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.033546761656183324</v>
+        <v>0.0528005059536538</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.005817863903513691</v>
+        <v>0.014720274746167602</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.03100323140271327</v>
+        <v>-0.028059163968932915</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.030924142081948144</v>
+        <v>-0.027980117702204012</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.03128562586287709</v>
+        <v>-0.028169228619046832</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.031221610323422383</v>
+        <v>-0.028104704194977022</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8184351350689008</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.17934929768512978</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.563328041307992</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7330168105727285</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4948745410074332</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5215542339314313</v>
       </c>
       <c r="AM5" t="n">
-        <v>249.24099106839657</v>
+        <v>249.17077966058682</v>
       </c>
       <c r="AN5" t="n">
-        <v>267.0579899256722</v>
+        <v>263.73604896183525</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.41788646224573095</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.45719378802087923</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6462790963565238</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.675554653221059</v>
       </c>
       <c r="AS5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AT5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1046,16 +1067,16 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6" t="n">
         <v>4.0</v>
@@ -1067,112 +1088,112 @@
         <v>5.0</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N6" t="n">
         <v>11122.0</v>
       </c>
       <c r="O6" t="n">
-        <v>11122.0</v>
+        <v>11088.0</v>
       </c>
       <c r="P6" t="n">
-        <v>15.08</v>
+        <v>33.49</v>
       </c>
       <c r="Q6" t="n">
-        <v>62.43</v>
+        <v>47.24</v>
       </c>
       <c r="R6" t="n">
-        <v>34.32</v>
+        <v>21.86</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005832690850431894</v>
+        <v>0.005247929056464411</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0058268579722310625</v>
+        <v>0.005322603960302271</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00882558430836701</v>
+        <v>0.009867316091064398</v>
       </c>
       <c r="X6" t="n">
-        <v>0.006589097433323732</v>
+        <v>0.007446054709696034</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7351724910117774</v>
+        <v>0.568048223077399</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.9457777717627935</v>
+        <v>0.7537195248992825</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.48117986912246413</v>
+        <v>0.588820644588917</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3624424200154632</v>
+        <v>0.4800867814067185</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.005805982449270826</v>
+        <v>0.005218068117252334</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.005859399251592962</v>
+        <v>0.005277789995676489</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.005806917733557943</v>
+        <v>0.005300070356939003</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.005846798210904182</v>
+        <v>0.005345137563665539</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.8184351350689008</v>
+        <v>0.8824345855562</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.17934929768512978</v>
+        <v>0.6109062749414165</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.563328041307992</v>
+        <v>0.7946749269714927</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.7330168105727285</v>
+        <v>0.8857922252643137</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.4948745410074332</v>
+        <v>0.3549263629691934</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5215542339314313</v>
+        <v>0.3683095449321544</v>
       </c>
       <c r="AM6" t="n">
-        <v>249.17077966058682</v>
+        <v>193.67089657381942</v>
       </c>
       <c r="AN6" t="n">
-        <v>263.73604896183525</v>
+        <v>212.30201718536335</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.41788646224573095</v>
+        <v>0.23687124987366356</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.45719378802087923</v>
+        <v>0.25184750360403224</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6462790963565238</v>
+        <v>0.4865495708744976</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.675554653221059</v>
+        <v>0.5014762781089889</v>
       </c>
       <c r="AS6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AT6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1186,16 +1207,16 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="n">
         <v>4.0</v>
@@ -1207,112 +1228,112 @@
         <v>5.0</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N7" t="n">
         <v>11122.0</v>
       </c>
       <c r="O7" t="n">
-        <v>11122.0</v>
+        <v>11088.0</v>
       </c>
       <c r="P7" t="n">
-        <v>15.08</v>
+        <v>33.49</v>
       </c>
       <c r="Q7" t="n">
-        <v>62.43</v>
+        <v>47.24</v>
       </c>
       <c r="R7" t="n">
-        <v>34.32</v>
+        <v>21.86</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.03385233168600036</v>
+        <v>-0.009324060171217513</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.034034348220350334</v>
+        <v>-0.009867773897208863</v>
       </c>
       <c r="W7" t="n">
-        <v>0.015768109705291338</v>
+        <v>0.016210930835594585</v>
       </c>
       <c r="X7" t="n">
-        <v>0.015745021802686207</v>
+        <v>0.016091066033356954</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.146812789652255</v>
+        <v>-0.5798493556383328</v>
       </c>
       <c r="Z7" t="n">
-        <v>-2.161610494018583</v>
+        <v>-0.6177911258197919</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03198644118630213</v>
+        <v>0.572181416221084</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.03087308298047379</v>
+        <v>0.5486242855857475</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.033900049886274236</v>
+        <v>-0.009373118457765285</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.033804613485726484</v>
+        <v>-0.00927500188466974</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.03408199655092004</v>
+        <v>-0.009916469443216022</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.033986699889780626</v>
+        <v>-0.009819078351201703</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.8184351350689008</v>
+        <v>0.8824345855562</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.17934929768512978</v>
+        <v>0.6109062749414165</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.563328041307992</v>
+        <v>0.7946749269714927</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7330168105727285</v>
+        <v>0.8857922252643137</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4948745410074332</v>
+        <v>0.3549263629691934</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5215542339314313</v>
+        <v>0.3683095449321544</v>
       </c>
       <c r="AM7" t="n">
-        <v>249.17077966058682</v>
+        <v>193.67089657381942</v>
       </c>
       <c r="AN7" t="n">
-        <v>263.73604896183525</v>
+        <v>212.30201718536335</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.41788646224573095</v>
+        <v>0.23687124987366356</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.45719378802087923</v>
+        <v>0.25184750360403224</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6462790963565238</v>
+        <v>0.4865495708744976</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.675554653221059</v>
+        <v>0.5014762781089889</v>
       </c>
       <c r="AS7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AT7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1326,16 +1347,16 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" t="n">
         <v>4.0</v>
@@ -1347,112 +1368,112 @@
         <v>5.0</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N8" t="n">
         <v>11122.0</v>
       </c>
       <c r="O8" t="n">
-        <v>11122.0</v>
+        <v>11088.0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.08</v>
+        <v>33.49</v>
       </c>
       <c r="Q8" t="n">
-        <v>62.43</v>
+        <v>47.24</v>
       </c>
       <c r="R8" t="n">
-        <v>34.32</v>
+        <v>21.86</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.027192513935194628</v>
+        <v>-0.013264603995431975</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.027551139960406253</v>
+        <v>-0.013285063481734782</v>
       </c>
       <c r="W8" t="n">
-        <v>0.013899449291046487</v>
+        <v>0.010445432658217669</v>
       </c>
       <c r="X8" t="n">
-        <v>0.013867550715516241</v>
+        <v>0.010441120705587923</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.9564554187057988</v>
+        <v>-1.2696659344470165</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1.9867617198318368</v>
+        <v>-1.2722016122332496</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05202690463486131</v>
+        <v>0.2104328751659309</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04848955846660342</v>
+        <v>0.2101310198123791</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.027234577106834294</v>
+        <v>-0.013296214458375727</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.027150450763554962</v>
+        <v>-0.013232993532488222</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.027593106599066126</v>
+        <v>-0.013316660895643298</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.02750917332174638</v>
+        <v>-0.013253466067826266</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.8184351350689008</v>
+        <v>0.8824345855562</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.17934929768512978</v>
+        <v>0.6109062749414165</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.563328041307992</v>
+        <v>0.7946749269714927</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.7330168105727285</v>
+        <v>0.8857922252643137</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.4948745410074332</v>
+        <v>0.3549263629691934</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.5215542339314313</v>
+        <v>0.3683095449321544</v>
       </c>
       <c r="AM8" t="n">
-        <v>249.17077966058682</v>
+        <v>193.67089657381942</v>
       </c>
       <c r="AN8" t="n">
-        <v>263.73604896183525</v>
+        <v>212.30201718536335</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.41788646224573095</v>
+        <v>0.23687124987366356</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.45719378802087923</v>
+        <v>0.25184750360403224</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6462790963565238</v>
+        <v>0.4865495708744976</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.675554653221059</v>
+        <v>0.5014762781089889</v>
       </c>
       <c r="AS8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AT8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1466,16 +1487,16 @@
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" t="n">
         <v>4.0</v>
@@ -1487,112 +1508,112 @@
         <v>5.0</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" t="n">
         <v>11122.0</v>
       </c>
       <c r="O9" t="n">
-        <v>11122.0</v>
+        <v>11088.0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.08</v>
+        <v>33.49</v>
       </c>
       <c r="Q9" t="n">
-        <v>62.43</v>
+        <v>47.24</v>
       </c>
       <c r="R9" t="n">
-        <v>34.32</v>
+        <v>21.86</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.028019640835568464</v>
+        <v>-0.004076131114753102</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.028136966407011927</v>
+        <v>-0.004567641620287106</v>
       </c>
       <c r="W9" t="n">
-        <v>0.013060113315478043</v>
+        <v>0.011892707880906362</v>
       </c>
       <c r="X9" t="n">
-        <v>0.010660798097622682</v>
+        <v>0.009458981425111533</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.470407111362454</v>
+        <v>-0.3996298806788078</v>
       </c>
       <c r="Z9" t="n">
-        <v>-2.7882752326751805</v>
+        <v>-0.5379484930919762</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0528005059536538</v>
+        <v>0.7012443161584002</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.014720274746167602</v>
+        <v>0.6209508109263084</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.028059163968932915</v>
+        <v>-0.004112121390510088</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.027980117702204012</v>
+        <v>-0.004040140838996117</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.028169228619046832</v>
+        <v>-0.004596266837796781</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.028104704194977022</v>
+        <v>-0.004539016402777432</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.8184351350689008</v>
+        <v>0.8824345855562</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.17934929768512978</v>
+        <v>0.6109062749414165</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.563328041307992</v>
+        <v>0.7946749269714927</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.7330168105727285</v>
+        <v>0.8857922252643137</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.4948745410074332</v>
+        <v>0.3549263629691934</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.5215542339314313</v>
+        <v>0.3683095449321544</v>
       </c>
       <c r="AM9" t="n">
-        <v>249.17077966058682</v>
+        <v>193.67089657381942</v>
       </c>
       <c r="AN9" t="n">
-        <v>263.73604896183525</v>
+        <v>212.30201718536335</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.41788646224573095</v>
+        <v>0.23687124987366356</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.45719378802087923</v>
+        <v>0.25184750360403224</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.6462790963565238</v>
+        <v>0.4865495708744976</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.675554653221059</v>
+        <v>0.5014762781089889</v>
       </c>
       <c r="AS9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AT9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1606,16 +1627,16 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -1627,112 +1648,112 @@
         <v>5.0</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" t="n">
         <v>11122.0</v>
       </c>
       <c r="O10" t="n">
-        <v>11088.0</v>
+        <v>9299.0</v>
       </c>
       <c r="P10" t="n">
-        <v>33.49</v>
+        <v>17.23</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.24</v>
+        <v>67.46</v>
       </c>
       <c r="R10" t="n">
-        <v>21.86</v>
+        <v>36.64</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005247929056464411</v>
+        <v>-0.008467487913246119</v>
       </c>
       <c r="V10" t="n">
-        <v>0.005322603960302271</v>
+        <v>-0.00829223202838383</v>
       </c>
       <c r="W10" t="n">
-        <v>0.009867316091064398</v>
+        <v>0.009238392899106789</v>
       </c>
       <c r="X10" t="n">
-        <v>0.007446054709696034</v>
+        <v>0.00729841223696844</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.568048223077399</v>
+        <v>-1.054253888092195</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7537195248992825</v>
+        <v>-1.2024194107712283</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.588820644588917</v>
+        <v>0.3282707237058004</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.4800867814067185</v>
+        <v>0.25597296375547696</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.005218068117252334</v>
+        <v>-0.008495445575312639</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.005277789995676489</v>
+        <v>-0.008439530251179599</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.005300070356939003</v>
+        <v>-0.008314318829104663</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.005345137563665539</v>
+        <v>-0.008270145227662997</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.8824345855562</v>
+        <v>0.7961694618493935</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6109062749414165</v>
+        <v>0.17449472092892415</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7946749269714927</v>
+        <v>0.5630541605670425</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.8857922252643137</v>
+        <v>0.7055701627725113</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.3549263629691934</v>
+        <v>0.49370863039776125</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.3683095449321544</v>
+        <v>0.5209502276059537</v>
       </c>
       <c r="AM10" t="n">
-        <v>193.67089657381942</v>
+        <v>243.75557476916404</v>
       </c>
       <c r="AN10" t="n">
-        <v>212.30201718536335</v>
+        <v>265.49564755732445</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.23687124987366356</v>
+        <v>0.41803097914736204</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.25184750360403224</v>
+        <v>0.45526474613901624</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4865495708744976</v>
+        <v>0.6463615642765225</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.5014762781089889</v>
+        <v>0.6740919460659516</v>
       </c>
       <c r="AS10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AT10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -1746,16 +1767,16 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
@@ -1767,112 +1788,112 @@
         <v>5.0</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N11" t="n">
         <v>11122.0</v>
       </c>
       <c r="O11" t="n">
-        <v>11088.0</v>
+        <v>9299.0</v>
       </c>
       <c r="P11" t="n">
-        <v>33.49</v>
+        <v>17.23</v>
       </c>
       <c r="Q11" t="n">
-        <v>47.24</v>
+        <v>67.46</v>
       </c>
       <c r="R11" t="n">
-        <v>21.86</v>
+        <v>36.64</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.009324060171217513</v>
+        <v>-0.034600194856639746</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.009867773897208863</v>
+        <v>-0.03434339678796565</v>
       </c>
       <c r="W11" t="n">
-        <v>0.016210930835594585</v>
+        <v>0.015467439730822834</v>
       </c>
       <c r="X11" t="n">
-        <v>0.016091066033356954</v>
+        <v>0.015454172769788548</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.5798493556383328</v>
+        <v>-2.236601519810264</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.6177911258197919</v>
+        <v>-2.2220801428292654</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.572181416221084</v>
+        <v>0.02660365524828004</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5486242855857475</v>
+        <v>0.027842330721951133</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.009373118457765285</v>
+        <v>-0.03464700315519895</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.00927500188466974</v>
+        <v>-0.034553386558080545</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.009916469443216022</v>
+        <v>-0.03439016493741913</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.009819078351201703</v>
+        <v>-0.03429662863851217</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.8824345855562</v>
+        <v>0.7961694618493935</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6109062749414165</v>
+        <v>0.17449472092892415</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7946749269714927</v>
+        <v>0.5630541605670425</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.8857922252643137</v>
+        <v>0.7055701627725113</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.3549263629691934</v>
+        <v>0.49370863039776125</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.3683095449321544</v>
+        <v>0.5209502276059537</v>
       </c>
       <c r="AM11" t="n">
-        <v>193.67089657381942</v>
+        <v>243.75557476916404</v>
       </c>
       <c r="AN11" t="n">
-        <v>212.30201718536335</v>
+        <v>265.49564755732445</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.23687124987366356</v>
+        <v>0.41803097914736204</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.25184750360403224</v>
+        <v>0.45526474613901624</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.4865495708744976</v>
+        <v>0.6463615642765225</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.5014762781089889</v>
+        <v>0.6740919460659516</v>
       </c>
       <c r="AS11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1886,16 +1907,16 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
@@ -1907,112 +1928,112 @@
         <v>5.0</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N12" t="n">
         <v>11122.0</v>
       </c>
       <c r="O12" t="n">
-        <v>11088.0</v>
+        <v>9299.0</v>
       </c>
       <c r="P12" t="n">
-        <v>33.49</v>
+        <v>17.23</v>
       </c>
       <c r="Q12" t="n">
-        <v>47.24</v>
+        <v>67.46</v>
       </c>
       <c r="R12" t="n">
-        <v>21.86</v>
+        <v>36.64</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.013264603995431975</v>
+        <v>-0.02715275149711332</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.013285063481734782</v>
+        <v>-0.02735709005617017</v>
       </c>
       <c r="W12" t="n">
-        <v>0.010445432658217669</v>
+        <v>0.013051078974746656</v>
       </c>
       <c r="X12" t="n">
-        <v>0.010441120705587923</v>
+        <v>0.013030900092727029</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.2696659344470165</v>
+        <v>-2.081191243123191</v>
       </c>
       <c r="Z12" t="n">
-        <v>-1.2722016122332496</v>
+        <v>-2.100121284681445</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2104328751659309</v>
+        <v>0.039696750510969415</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2101310198123791</v>
+        <v>0.03785656328450378</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.013296214458375727</v>
+        <v>-0.027192247290328035</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.013232993532488222</v>
+        <v>-0.027113255703898602</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.013316660895643298</v>
+        <v>-0.02739652478309657</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.013253466067826266</v>
+        <v>-0.02731765532924377</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.8824345855562</v>
+        <v>0.7961694618493935</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.6109062749414165</v>
+        <v>0.17449472092892415</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.7946749269714927</v>
+        <v>0.5630541605670425</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.8857922252643137</v>
+        <v>0.7055701627725113</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.3549263629691934</v>
+        <v>0.49370863039776125</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.3683095449321544</v>
+        <v>0.5209502276059537</v>
       </c>
       <c r="AM12" t="n">
-        <v>193.67089657381942</v>
+        <v>243.75557476916404</v>
       </c>
       <c r="AN12" t="n">
-        <v>212.30201718536335</v>
+        <v>265.49564755732445</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.23687124987366356</v>
+        <v>0.41803097914736204</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.25184750360403224</v>
+        <v>0.45526474613901624</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.4865495708744976</v>
+        <v>0.6463615642765225</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.5014762781089889</v>
+        <v>0.6740919460659516</v>
       </c>
       <c r="AS12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -2026,16 +2047,16 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
@@ -2047,112 +2068,112 @@
         <v>5.0</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N13" t="n">
         <v>11122.0</v>
       </c>
       <c r="O13" t="n">
-        <v>11088.0</v>
+        <v>9299.0</v>
       </c>
       <c r="P13" t="n">
-        <v>33.49</v>
+        <v>17.23</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.24</v>
+        <v>67.46</v>
       </c>
       <c r="R13" t="n">
-        <v>21.86</v>
+        <v>36.64</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.004076131114753102</v>
+        <v>-0.043067682769885866</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.004567641620287106</v>
+        <v>-0.04279644515656444</v>
       </c>
       <c r="W13" t="n">
-        <v>0.011892707880906362</v>
+        <v>0.014411194165242546</v>
       </c>
       <c r="X13" t="n">
-        <v>0.009458981425111533</v>
+        <v>0.010977532853551988</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.3996298806788078</v>
+        <v>-3.5305243830244315</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.5379484930919762</v>
+        <v>-4.268060122884944</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.7012443161584002</v>
+        <v>0.0142331434532666</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.6209508109263084</v>
+        <v>9.546260615853475E-4</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.004112121390510088</v>
+        <v>-0.04311129460809701</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.004040140838996117</v>
+        <v>-0.04302407093167472</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.004596266837796781</v>
+        <v>-0.042829665886316405</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.004539016402777432</v>
+        <v>-0.04276322442681247</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.8824345855562</v>
+        <v>0.7961694618493935</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.6109062749414165</v>
+        <v>0.17449472092892415</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.7946749269714927</v>
+        <v>0.5630541605670425</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.8857922252643137</v>
+        <v>0.7055701627725113</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.3549263629691934</v>
+        <v>0.49370863039776125</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.3683095449321544</v>
+        <v>0.5209502276059537</v>
       </c>
       <c r="AM13" t="n">
-        <v>193.67089657381942</v>
+        <v>243.75557476916404</v>
       </c>
       <c r="AN13" t="n">
-        <v>212.30201718536335</v>
+        <v>265.49564755732445</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.23687124987366356</v>
+        <v>0.41803097914736204</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.25184750360403224</v>
+        <v>0.45526474613901624</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.4865495708744976</v>
+        <v>0.6463615642765225</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.5014762781089889</v>
+        <v>0.6740919460659516</v>
       </c>
       <c r="AS13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -2166,16 +2187,16 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="n">
         <v>4.0</v>
@@ -2187,19 +2208,19 @@
         <v>5.0</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N14" t="n">
         <v>11122.0</v>
       </c>
       <c r="O14" t="n">
-        <v>9299.0</v>
+        <v>10764.0</v>
       </c>
       <c r="P14" t="n">
         <v>17.23</v>
@@ -2211,88 +2232,88 @@
         <v>36.64</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.008467487913246119</v>
+        <v>0.004147217231207019</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.00829223202838383</v>
+        <v>0.0040886174146166476</v>
       </c>
       <c r="W14" t="n">
-        <v>0.009238392899106789</v>
+        <v>0.009151683082675846</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00729841223696844</v>
+        <v>0.006759802995600045</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.054253888092195</v>
+        <v>0.5249068867255935</v>
       </c>
       <c r="Z14" t="n">
-        <v>-1.2024194107712283</v>
+        <v>0.6773756799768949</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3282707237058004</v>
+        <v>0.6183926264602085</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.25597296375547696</v>
+        <v>0.5249848584130985</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.008495445575312639</v>
+        <v>0.004119521974493042</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.008439530251179599</v>
+        <v>0.0041749124879209955</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.008314318829104663</v>
+        <v>0.004068160578687369</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.008270145227662997</v>
+        <v>0.004109074250545926</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.7961694618493935</v>
+        <v>0.8144467914229961</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.17449472092892415</v>
+        <v>0.17070199966950558</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.5630541605670425</v>
+        <v>0.560237598528876</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.7055701627725113</v>
+        <v>0.7268993718317436</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.49370863039776125</v>
+        <v>0.49280447783040227</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.5209502276059537</v>
+        <v>0.5201033218559471</v>
       </c>
       <c r="AM14" t="n">
-        <v>243.75557476916404</v>
+        <v>249.0673089156489</v>
       </c>
       <c r="AN14" t="n">
-        <v>265.49564755732445</v>
+        <v>268.1603803075627</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.41803097914736204</v>
+        <v>0.4152023085594718</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.45526474613901624</v>
+        <v>0.4545372282967826</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.6463615642765225</v>
+        <v>0.6442004587225809</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.6740919460659516</v>
+        <v>0.6735897805707362</v>
       </c>
       <c r="AS14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -2306,16 +2327,16 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="n">
         <v>4.0</v>
@@ -2327,19 +2348,19 @@
         <v>5.0</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N15" t="n">
         <v>11122.0</v>
       </c>
       <c r="O15" t="n">
-        <v>9299.0</v>
+        <v>10764.0</v>
       </c>
       <c r="P15" t="n">
         <v>17.23</v>
@@ -2351,88 +2372,88 @@
         <v>36.64</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.034600194856639746</v>
+        <v>-0.03866499439980746</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.03434339678796565</v>
+        <v>-0.03866611435928283</v>
       </c>
       <c r="W15" t="n">
-        <v>0.015467439730822834</v>
+        <v>0.01579363798028167</v>
       </c>
       <c r="X15" t="n">
-        <v>0.015454172769788548</v>
+        <v>0.015764473807381142</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.236601519810264</v>
+        <v>-2.4477997185712814</v>
       </c>
       <c r="Z15" t="n">
-        <v>-2.2220801428292654</v>
+        <v>-2.452512680940116</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02660365524828004</v>
+        <v>0.014946338130591812</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.027842330721951133</v>
+        <v>0.014763078615988912</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.03464700315519895</v>
+        <v>-0.03871278985495598</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.034553386558080545</v>
+        <v>-0.03861719894465894</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.03439016493741913</v>
+        <v>-0.03871382155643027</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.03429662863851217</v>
+        <v>-0.03861840716213538</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.7961694618493935</v>
+        <v>0.8144467914229961</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.17449472092892415</v>
+        <v>0.17070199966950558</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.5630541605670425</v>
+        <v>0.560237598528876</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.7055701627725113</v>
+        <v>0.7268993718317436</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.49370863039776125</v>
+        <v>0.49280447783040227</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.5209502276059537</v>
+        <v>0.5201033218559471</v>
       </c>
       <c r="AM15" t="n">
-        <v>243.75557476916404</v>
+        <v>249.0673089156489</v>
       </c>
       <c r="AN15" t="n">
-        <v>265.49564755732445</v>
+        <v>268.1603803075627</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.41803097914736204</v>
+        <v>0.4152023085594718</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.45526474613901624</v>
+        <v>0.4545372282967826</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.6463615642765225</v>
+        <v>0.6442004587225809</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.6740919460659516</v>
+        <v>0.6735897805707362</v>
       </c>
       <c r="AS15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -2446,16 +2467,16 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="n">
         <v>4.0</v>
@@ -2467,19 +2488,19 @@
         <v>5.0</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N16" t="n">
         <v>11122.0</v>
       </c>
       <c r="O16" t="n">
-        <v>9299.0</v>
+        <v>10764.0</v>
       </c>
       <c r="P16" t="n">
         <v>17.23</v>
@@ -2491,88 +2512,88 @@
         <v>36.64</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.02715275149711332</v>
+        <v>-0.03013897938869867</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.02735709005617017</v>
+        <v>-0.030429894864363292</v>
       </c>
       <c r="W16" t="n">
-        <v>0.013051078974746656</v>
+        <v>0.01374187330467774</v>
       </c>
       <c r="X16" t="n">
-        <v>0.013030900092727029</v>
+        <v>0.0137148649183729</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.081191243123191</v>
+        <v>-2.1933372522744934</v>
       </c>
       <c r="Z16" t="n">
-        <v>-2.100121284681445</v>
+        <v>-2.218812895417635</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.039696750510969415</v>
+        <v>0.030058091089666228</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03785656328450378</v>
+        <v>0.028213440091353376</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.027192247290328035</v>
+        <v>-0.03018056569642653</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.027113255703898602</v>
+        <v>-0.03009739308097081</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.02739652478309657</v>
+        <v>-0.030471399438033557</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.02731765532924377</v>
+        <v>-0.030388390290693026</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.7961694618493935</v>
+        <v>0.8144467914229961</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.17449472092892415</v>
+        <v>0.17070199966950558</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.5630541605670425</v>
+        <v>0.560237598528876</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.7055701627725113</v>
+        <v>0.7268993718317436</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.49370863039776125</v>
+        <v>0.49280447783040227</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.5209502276059537</v>
+        <v>0.5201033218559471</v>
       </c>
       <c r="AM16" t="n">
-        <v>243.75557476916404</v>
+        <v>249.0673089156489</v>
       </c>
       <c r="AN16" t="n">
-        <v>265.49564755732445</v>
+        <v>268.1603803075627</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.41803097914736204</v>
+        <v>0.4152023085594718</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.45526474613901624</v>
+        <v>0.4545372282967826</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.6463615642765225</v>
+        <v>0.6442004587225809</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.6740919460659516</v>
+        <v>0.6735897805707362</v>
       </c>
       <c r="AS16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -2586,16 +2607,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" t="n">
         <v>4.0</v>
@@ -2607,19 +2628,19 @@
         <v>5.0</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N17" t="n">
         <v>11122.0</v>
       </c>
       <c r="O17" t="n">
-        <v>9299.0</v>
+        <v>10764.0</v>
       </c>
       <c r="P17" t="n">
         <v>17.23</v>
@@ -2631,88 +2652,88 @@
         <v>36.64</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.043067682769885866</v>
+        <v>-0.034517777168600446</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.04279644515656444</v>
+        <v>-0.034666032086308876</v>
       </c>
       <c r="W17" t="n">
-        <v>0.014411194165242546</v>
+        <v>0.013433828534040466</v>
       </c>
       <c r="X17" t="n">
-        <v>0.010977532853551988</v>
+        <v>0.010833873900566107</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.5305243830244315</v>
+        <v>-2.907277736022785</v>
       </c>
       <c r="Z17" t="n">
-        <v>-4.268060122884944</v>
+        <v>-3.360612995977355</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0142331434532666</v>
+        <v>0.02272114822088567</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.546260615853475E-4</v>
+        <v>0.003044908212786026</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.04311129460809701</v>
+        <v>-0.03455843125665624</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.04302407093167472</v>
+        <v>-0.03447712308054465</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.042829665886316405</v>
+        <v>-0.03469881806853449</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.04276322442681247</v>
+        <v>-0.03463324610408326</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.7961694618493935</v>
+        <v>0.8144467914229961</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.17449472092892415</v>
+        <v>0.17070199966950558</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.5630541605670425</v>
+        <v>0.560237598528876</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.7055701627725113</v>
+        <v>0.7268993718317436</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.49370863039776125</v>
+        <v>0.49280447783040227</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.5209502276059537</v>
+        <v>0.5201033218559471</v>
       </c>
       <c r="AM17" t="n">
-        <v>243.75557476916404</v>
+        <v>249.0673089156489</v>
       </c>
       <c r="AN17" t="n">
-        <v>265.49564755732445</v>
+        <v>268.1603803075627</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.41803097914736204</v>
+        <v>0.4152023085594718</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.45526474613901624</v>
+        <v>0.4545372282967826</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.6463615642765225</v>
+        <v>0.6442004587225809</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.6740919460659516</v>
+        <v>0.6735897805707362</v>
       </c>
       <c r="AS17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -2726,16 +2747,16 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H18" t="n">
         <v>4.0</v>
@@ -2747,112 +2768,112 @@
         <v>5.0</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N18" t="n">
         <v>11122.0</v>
       </c>
       <c r="O18" t="n">
-        <v>10764.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.23</v>
+        <v>503.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>67.46</v>
+        <v>503.0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.64</v>
+        <v>503.0</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004147217231207019</v>
+        <v>0.007265956359590852</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0040886174146166476</v>
+        <v>0.007265603265574789</v>
       </c>
       <c r="W18" t="n">
-        <v>0.009151683082675846</v>
+        <v>0.008464622702830231</v>
       </c>
       <c r="X18" t="n">
-        <v>0.006759802995600045</v>
+        <v>0.007097908530392786</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.5249068867255935</v>
+        <v>0.9417761392393852</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.6773756799768949</v>
+        <v>1.0730867409046763</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6183926264602085</v>
+        <v>0.36309571450025974</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.5249848584130985</v>
+        <v>0.2971851510870752</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.004119521974493042</v>
+        <v>0.0072403403175334505</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0041749124879209955</v>
+        <v>0.007291572401648254</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.004068160578687369</v>
+        <v>0.007244123238665457</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.004109074250545926</v>
+        <v>0.007287083292484122</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.8144467914229961</v>
+        <v>0.8388831121704364</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.17070199966950558</v>
+        <v>0.2989617620020015</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.560237598528876</v>
+        <v>0.6098995853173019</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.7268993718317436</v>
+        <v>0.7464864220505205</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.49280447783040227</v>
+        <v>0.5234266349191851</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.5201033218559471</v>
+        <v>0.5376956708922177</v>
       </c>
       <c r="AM18" t="n">
-        <v>249.0673089156489</v>
+        <v>249.32719847196938</v>
       </c>
       <c r="AN18" t="n">
-        <v>268.1603803075627</v>
+        <v>281.0184876878724</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.4152023085594718</v>
+        <v>0.46162469935080175</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.4545372282967826</v>
+        <v>0.4824715860833063</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6442004587225809</v>
+        <v>0.6792972089564834</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.6735897805707362</v>
+        <v>0.6938770444779193</v>
       </c>
       <c r="AS18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -2866,16 +2887,16 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H19" t="n">
         <v>4.0</v>
@@ -2887,112 +2908,112 @@
         <v>5.0</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N19" t="n">
         <v>11122.0</v>
       </c>
       <c r="O19" t="n">
-        <v>10764.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P19" t="n">
-        <v>17.23</v>
+        <v>503.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.46</v>
+        <v>503.0</v>
       </c>
       <c r="R19" t="n">
-        <v>36.64</v>
+        <v>503.0</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.03866499439980746</v>
+        <v>-0.044527378940143136</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.03866611435928283</v>
+        <v>-0.04406046472085469</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01579363798028167</v>
+        <v>0.01686779047655072</v>
       </c>
       <c r="X19" t="n">
-        <v>0.015764473807381142</v>
+        <v>0.016717409251445485</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.4477997185712814</v>
+        <v>-2.638946046954927</v>
       </c>
       <c r="Z19" t="n">
-        <v>-2.452512680940116</v>
+        <v>-2.6358448927677385</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.014946338130591812</v>
+        <v>0.009592441257260057</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.014763078615988912</v>
+        <v>0.009315636586698489</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.03871278985495598</v>
+        <v>-0.04457842504644133</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.03861719894465894</v>
+        <v>-0.044476332833844945</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.03871382155643027</v>
+        <v>-0.04411105573636831</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.03861840716213538</v>
+        <v>-0.04400987370534107</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.8144467914229961</v>
+        <v>0.8388831121704364</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.17070199966950558</v>
+        <v>0.2989617620020015</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.560237598528876</v>
+        <v>0.6098995853173019</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.7268993718317436</v>
+        <v>0.7464864220505205</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.49280447783040227</v>
+        <v>0.5234266349191851</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.5201033218559471</v>
+        <v>0.5376956708922177</v>
       </c>
       <c r="AM19" t="n">
-        <v>249.0673089156489</v>
+        <v>249.32719847196938</v>
       </c>
       <c r="AN19" t="n">
-        <v>268.1603803075627</v>
+        <v>281.0184876878724</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.4152023085594718</v>
+        <v>0.46162469935080175</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.4545372282967826</v>
+        <v>0.4824715860833063</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6442004587225809</v>
+        <v>0.6792972089564834</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.6735897805707362</v>
+        <v>0.6938770444779193</v>
       </c>
       <c r="AS19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -3006,16 +3027,16 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" t="n">
         <v>4.0</v>
@@ -3027,112 +3048,112 @@
         <v>5.0</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N20" t="n">
         <v>11122.0</v>
       </c>
       <c r="O20" t="n">
-        <v>10764.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P20" t="n">
-        <v>17.23</v>
+        <v>503.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.46</v>
+        <v>503.0</v>
       </c>
       <c r="R20" t="n">
-        <v>36.64</v>
+        <v>503.0</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.03013897938869867</v>
+        <v>-0.05366051909442953</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.030429894864363292</v>
+        <v>-0.05357656834275938</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01374187330467774</v>
+        <v>0.014597276930108727</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0137148649183729</v>
+        <v>0.014499424423669152</v>
       </c>
       <c r="Y20" t="n">
-        <v>-2.1933372522744934</v>
+        <v>-3.6767241723853807</v>
       </c>
       <c r="Z20" t="n">
-        <v>-2.218812895417635</v>
+        <v>-3.695047071440695</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.030058091089666228</v>
+        <v>2.840946091963267E-4</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.028213440091353376</v>
+        <v>2.406302457323735E-4</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.03018056569642653</v>
+        <v>-0.05370469406511549</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.03009739308097081</v>
+        <v>-0.053616344123743574</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.030471399438033557</v>
+        <v>-0.05362044718755664</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.030388390290693026</v>
+        <v>-0.053532689497962124</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.8144467914229961</v>
+        <v>0.8388831121704364</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.17070199966950558</v>
+        <v>0.2989617620020015</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.560237598528876</v>
+        <v>0.6098995853173019</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.7268993718317436</v>
+        <v>0.7464864220505205</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.49280447783040227</v>
+        <v>0.5234266349191851</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.5201033218559471</v>
+        <v>0.5376956708922177</v>
       </c>
       <c r="AM20" t="n">
-        <v>249.0673089156489</v>
+        <v>249.32719847196938</v>
       </c>
       <c r="AN20" t="n">
-        <v>268.1603803075627</v>
+        <v>281.0184876878724</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.4152023085594718</v>
+        <v>0.46162469935080175</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.4545372282967826</v>
+        <v>0.4824715860833063</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.6442004587225809</v>
+        <v>0.6792972089564834</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.6735897805707362</v>
+        <v>0.6938770444779193</v>
       </c>
       <c r="AS20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -3146,16 +3167,16 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H21" t="n">
         <v>4.0</v>
@@ -3167,112 +3188,112 @@
         <v>5.0</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N21" t="n">
         <v>11122.0</v>
       </c>
       <c r="O21" t="n">
-        <v>10764.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P21" t="n">
-        <v>17.23</v>
+        <v>503.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>67.46</v>
+        <v>503.0</v>
       </c>
       <c r="R21" t="n">
-        <v>36.64</v>
+        <v>503.0</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.034517777168600446</v>
+        <v>-0.03726142258055229</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.034666032086308876</v>
+        <v>-0.03667204175774002</v>
       </c>
       <c r="W21" t="n">
-        <v>0.013433828534040466</v>
+        <v>0.012774226085947128</v>
       </c>
       <c r="X21" t="n">
-        <v>0.010833873900566107</v>
+        <v>0.010091526830639444</v>
       </c>
       <c r="Y21" t="n">
-        <v>-2.907277736022785</v>
+        <v>-3.0240934595909055</v>
       </c>
       <c r="Z21" t="n">
-        <v>-3.360612995977355</v>
+        <v>-3.7524057392697823</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02272114822088567</v>
+        <v>0.005040080911998949</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.003044908212786026</v>
+        <v>5.669632231858349E-4</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.03455843125665624</v>
+        <v>-0.03730008054844482</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.03447712308054465</v>
+        <v>-0.03722276461265976</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.03469881806853449</v>
+        <v>-0.036702581214109485</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.03463324610408326</v>
+        <v>-0.03664150230137055</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.8144467914229961</v>
+        <v>0.8388831121704364</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.17070199966950558</v>
+        <v>0.2989617620020015</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.560237598528876</v>
+        <v>0.6098995853173019</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.7268993718317436</v>
+        <v>0.7464864220505205</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.49280447783040227</v>
+        <v>0.5234266349191851</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.5201033218559471</v>
+        <v>0.5376956708922177</v>
       </c>
       <c r="AM21" t="n">
-        <v>249.0673089156489</v>
+        <v>249.32719847196938</v>
       </c>
       <c r="AN21" t="n">
-        <v>268.1603803075627</v>
+        <v>281.0184876878724</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.4152023085594718</v>
+        <v>0.46162469935080175</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.4545372282967826</v>
+        <v>0.4824715860833063</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.6442004587225809</v>
+        <v>0.6792972089564834</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.6735897805707362</v>
+        <v>0.6938770444779193</v>
       </c>
       <c r="AS21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -3286,13 +3307,13 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
       </c>
       <c r="G22" t="s">
         <v>54</v>
@@ -3307,112 +3328,112 @@
         <v>5.0</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N22" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O22" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P22" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R22" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U22" t="n">
-        <v>0.007265956359590852</v>
+        <v>0.009959434591466974</v>
       </c>
       <c r="V22" t="n">
-        <v>0.007265603265574789</v>
+        <v>0.01008066321876806</v>
       </c>
       <c r="W22" t="n">
-        <v>0.008464622702830231</v>
+        <v>0.009337200323702284</v>
       </c>
       <c r="X22" t="n">
-        <v>0.007097908530392786</v>
+        <v>0.00744536669866714</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9417761392393852</v>
+        <v>1.1702981167534114</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.0730867409046763</v>
+        <v>1.3986766442515342</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.36309571450025974</v>
+        <v>0.2721963450486084</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.2971851510870752</v>
+        <v>0.17714718523178571</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0072403403175334505</v>
+        <v>0.009931805394029389</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.007291572401648254</v>
+        <v>0.009987063788904559</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.007244123238665457</v>
+        <v>0.010058632042464547</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.007287083292484122</v>
+        <v>0.010102694395071572</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM22" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN22" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AT22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -3426,13 +3447,13 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
         <v>52</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>54</v>
@@ -3447,112 +3468,112 @@
         <v>5.0</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N23" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O23" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P23" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R23" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.044527378940143136</v>
+        <v>-0.034043430492341</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.04406046472085469</v>
+        <v>-0.03402371271890677</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01686779047655072</v>
+        <v>0.012877491688555492</v>
       </c>
       <c r="X23" t="n">
-        <v>0.016717409251445485</v>
+        <v>0.012855374856798378</v>
       </c>
       <c r="Y23" t="n">
-        <v>-2.638946046954927</v>
+        <v>-2.6435941753533303</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2.6358448927677385</v>
+        <v>-2.646668770221295</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.009592441257260057</v>
+        <v>0.008259851306343659</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.009315636586698489</v>
+        <v>0.008184490733128574</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.04457842504644133</v>
+        <v>-0.03408153557181121</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.044476332833844945</v>
+        <v>-0.03400532541287079</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.04411105573636831</v>
+        <v>-0.03406175235367299</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.04400987370534107</v>
+        <v>-0.03398567308414056</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM23" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN23" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -3566,13 +3587,13 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
         <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
       </c>
       <c r="G24" t="s">
         <v>54</v>
@@ -3587,112 +3608,112 @@
         <v>5.0</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N24" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O24" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P24" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R24" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.05366051909442953</v>
+        <v>-0.031557234879080784</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.05357656834275938</v>
+        <v>-0.03150651124045617</v>
       </c>
       <c r="W24" t="n">
-        <v>0.014597276930108727</v>
+        <v>0.00870191157178809</v>
       </c>
       <c r="X24" t="n">
-        <v>0.014499424423669152</v>
+        <v>0.008661946679615921</v>
       </c>
       <c r="Y24" t="n">
-        <v>-3.6767241723853807</v>
+        <v>-3.626810659922851</v>
       </c>
       <c r="Z24" t="n">
-        <v>-3.695047071440695</v>
+        <v>-3.637472496125699</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.840946091963267E-4</v>
+        <v>3.0384197757426476E-4</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.406302457323735E-4</v>
+        <v>2.926700388296849E-4</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.05370469406511549</v>
+        <v>-0.031582984228411014</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.053616344123743574</v>
+        <v>-0.031531485529750554</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.05362044718755664</v>
+        <v>-0.0315321423318656</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.053532689497962124</v>
+        <v>-0.03148088014904674</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM24" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN24" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -3706,13 +3727,13 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
         <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
       </c>
       <c r="G25" t="s">
         <v>54</v>
@@ -3727,112 +3748,112 @@
         <v>5.0</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N25" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O25" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P25" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R25" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.03726142258055229</v>
+        <v>-0.02408399590087403</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.03667204175774002</v>
+        <v>-0.02414951370628158</v>
       </c>
       <c r="W25" t="n">
-        <v>0.012774226085947128</v>
+        <v>0.010641660454505405</v>
       </c>
       <c r="X25" t="n">
-        <v>0.010091526830639444</v>
+        <v>0.008600032694828957</v>
       </c>
       <c r="Y25" t="n">
-        <v>-3.0240934595909055</v>
+        <v>-2.4246282573061935</v>
       </c>
       <c r="Z25" t="n">
-        <v>-3.7524057392697823</v>
+        <v>-2.907328125303643</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.005040080911998949</v>
+        <v>0.03645426280070069</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.669632231858349E-4</v>
+        <v>0.009429785801723012</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.03730008054844482</v>
+        <v>-0.024115485054749725</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.03722276461265976</v>
+        <v>-0.024052506746998333</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.036702581214109485</v>
+        <v>-0.024174961591413906</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.03664150230137055</v>
+        <v>-0.024124065821149253</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM25" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN25" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -3849,13 +3870,13 @@
         <v>51</v>
       </c>
       <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H26" t="n">
         <v>4.0</v>
@@ -3867,112 +3888,112 @@
         <v>5.0</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L26" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O26" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P26" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R26" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U26" t="n">
-        <v>0.009959434591466974</v>
+        <v>0.0045691114269140135</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01008066321876806</v>
+        <v>0.004588742593562097</v>
       </c>
       <c r="W26" t="n">
-        <v>0.009337200323702284</v>
+        <v>0.008758528433001131</v>
       </c>
       <c r="X26" t="n">
-        <v>0.00744536669866714</v>
+        <v>0.0066891459312466975</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.1702981167534114</v>
+        <v>0.6041770762148625</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.3986766442515342</v>
+        <v>0.7436610379770894</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.2721963450486084</v>
+        <v>0.5627598934720724</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.17714718523178571</v>
+        <v>0.46979217368965287</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.009931805394029389</v>
+        <v>0.004542605953418344</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.009987063788904559</v>
+        <v>0.004595616900409683</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.010058632042464547</v>
+        <v>0.0045684995833868616</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.010102694395071572</v>
+        <v>0.004608985603737332</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM26" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN26" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -3989,13 +4010,13 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>52</v>
       </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" t="n">
         <v>4.0</v>
@@ -4007,112 +4028,112 @@
         <v>5.0</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O27" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P27" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R27" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.034043430492341</v>
+        <v>-0.033275250146046605</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.03402371271890677</v>
+        <v>-0.03322751294439183</v>
       </c>
       <c r="W27" t="n">
-        <v>0.012877491688555492</v>
+        <v>0.016518849880508706</v>
       </c>
       <c r="X27" t="n">
-        <v>0.012855374856798378</v>
+        <v>0.016520844821897515</v>
       </c>
       <c r="Y27" t="n">
-        <v>-2.6435941753533303</v>
+        <v>-2.014228485763388</v>
       </c>
       <c r="Z27" t="n">
-        <v>-2.646668770221295</v>
+        <v>-2.011127162817041</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.008259851306343659</v>
+        <v>0.045000447572898325</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.008184490733128574</v>
+        <v>0.04519924571514668</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.03408153557181121</v>
+        <v>-0.033325240271789305</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.03400532541287079</v>
+        <v>-0.033225260020303904</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.03406175235367299</v>
+        <v>-0.033277509107320635</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.03398567308414056</v>
+        <v>-0.03317751678146302</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM27" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN27" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AT27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -4129,13 +4150,13 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H28" t="n">
         <v>4.0</v>
@@ -4147,112 +4168,112 @@
         <v>5.0</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O28" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P28" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R28" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.031557234879080784</v>
+        <v>-0.027620538046187706</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.03150651124045617</v>
+        <v>-0.02794063647908018</v>
       </c>
       <c r="W28" t="n">
-        <v>0.00870191157178809</v>
+        <v>0.014605255020309188</v>
       </c>
       <c r="X28" t="n">
-        <v>0.008661946679615921</v>
+        <v>0.014569971893049777</v>
       </c>
       <c r="Y28" t="n">
-        <v>-3.626810659922851</v>
+        <v>-1.8912854283559757</v>
       </c>
       <c r="Z28" t="n">
-        <v>-3.637472496125699</v>
+        <v>-1.9176570598283758</v>
       </c>
       <c r="AA28" t="n">
-        <v>3.0384197757426476E-4</v>
+        <v>0.059154303691350524</v>
       </c>
       <c r="AB28" t="n">
-        <v>2.926700388296849E-4</v>
+        <v>0.05541205368084771</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.031582984228411014</v>
+        <v>-0.027664737160548025</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.031531485529750554</v>
+        <v>-0.02757633893182739</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.0315321423318656</v>
+        <v>-0.027984728817969984</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.03148088014904674</v>
+        <v>-0.027896544140190375</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM28" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN28" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AT28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -4269,13 +4290,13 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H29" t="n">
         <v>4.0</v>
@@ -4287,112 +4308,112 @@
         <v>5.0</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O29" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P29" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q29" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R29" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02408399590087403</v>
+        <v>-0.028706138719132593</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.02414951370628158</v>
+        <v>-0.0287335821805337</v>
       </c>
       <c r="W29" t="n">
-        <v>0.010641660454505405</v>
+        <v>0.014610901019057604</v>
       </c>
       <c r="X29" t="n">
-        <v>0.008600032694828957</v>
+        <v>0.012005468186579153</v>
       </c>
       <c r="Y29" t="n">
-        <v>-2.4246282573061935</v>
+        <v>-2.227589399436283</v>
       </c>
       <c r="Z29" t="n">
-        <v>-2.907328125303643</v>
+        <v>-2.5881089062707385</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03645426280070069</v>
+        <v>0.06507725071577723</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.009429785801723012</v>
+        <v>0.026214242464699163</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.024115485054749725</v>
+        <v>-0.028750354919681684</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.024052506746998333</v>
+        <v>-0.028661922518583502</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.024174961591413906</v>
+        <v>-0.028769913696867367</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.024124065821149253</v>
+        <v>-0.028697250664200032</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM29" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN29" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AT29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -4400,22 +4421,22 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
         <v>52</v>
       </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H30" t="n">
         <v>4.0</v>
@@ -4427,112 +4448,112 @@
         <v>5.0</v>
       </c>
       <c r="K30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N30" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O30" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P30" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R30" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0045691114269140135</v>
+        <v>0.006907198287352251</v>
       </c>
       <c r="V30" t="n">
-        <v>0.004588742593562097</v>
+        <v>0.006937638467149874</v>
       </c>
       <c r="W30" t="n">
-        <v>0.008758528433001131</v>
+        <v>0.009801278005170772</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0066891459312466975</v>
+        <v>0.009427950498860437</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6041770762148625</v>
+        <v>0.7466303653576637</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.7436610379770894</v>
+        <v>0.774528891271472</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.5627598934720724</v>
+        <v>0.46355385206035155</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.46979217368965287</v>
+        <v>0.44706724318993096</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.004542605953418344</v>
+        <v>0.006859879716974404</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.004595616900409683</v>
+        <v>0.006954516857730099</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0045684995833868616</v>
+        <v>0.006892122245799572</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.004608985603737332</v>
+        <v>0.006983154688500175</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM30" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN30" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AT30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -4540,22 +4561,22 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
         <v>52</v>
       </c>
-      <c r="F31" t="s">
-        <v>51</v>
-      </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" t="n">
         <v>4.0</v>
@@ -4567,112 +4588,112 @@
         <v>5.0</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M31" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N31" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O31" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P31" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R31" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.033275250146046605</v>
+        <v>-0.040185837978559846</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.03322751294439183</v>
+        <v>-0.04045237593028065</v>
       </c>
       <c r="W31" t="n">
-        <v>0.016518849880508706</v>
+        <v>0.026896921535944536</v>
       </c>
       <c r="X31" t="n">
-        <v>0.016520844821897515</v>
+        <v>0.026972234979205197</v>
       </c>
       <c r="Y31" t="n">
-        <v>-2.014228485763388</v>
+        <v>-1.4940610174857263</v>
       </c>
       <c r="Z31" t="n">
-        <v>-2.011127162817041</v>
+        <v>-1.4996350989424896</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.045000447572898325</v>
+        <v>0.13753943826127923</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.04519924571514668</v>
+        <v>0.13642687446364873</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.033325240271789305</v>
+        <v>-0.04031569082774692</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.033225260020303904</v>
+        <v>-0.04005598512937277</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.033277509107320635</v>
+        <v>-0.040582592377405</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.03317751678146302</v>
+        <v>-0.0403221594831563</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM31" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN31" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -4680,22 +4701,22 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
         <v>52</v>
       </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H32" t="n">
         <v>4.0</v>
@@ -4707,112 +4728,112 @@
         <v>5.0</v>
       </c>
       <c r="K32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N32" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O32" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P32" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R32" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.027620538046187706</v>
+        <v>-0.036526365661258206</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.02794063647908018</v>
+        <v>-0.03650479926758489</v>
       </c>
       <c r="W32" t="n">
-        <v>0.014605255020309188</v>
+        <v>0.024047765981561418</v>
       </c>
       <c r="X32" t="n">
-        <v>0.014569971893049777</v>
+        <v>0.02404263890672209</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.8912854283559757</v>
+        <v>-1.5188109357085269</v>
       </c>
       <c r="Z32" t="n">
-        <v>-1.9176570598283758</v>
+        <v>-1.5182698995598243</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.059154303691350524</v>
+        <v>0.13314173987995923</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.05541205368084771</v>
+        <v>0.13254340358877265</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.027664737160548025</v>
+        <v>-0.036642463368764124</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.02757633893182739</v>
+        <v>-0.03641026795375229</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.027984728817969984</v>
+        <v>-0.0366208722226196</v>
       </c>
       <c r="AF32" t="n">
-        <v>-0.027896544140190375</v>
+        <v>-0.036388726312550176</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM32" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN32" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -4820,22 +4841,22 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
         <v>52</v>
       </c>
-      <c r="F33" t="s">
-        <v>51</v>
-      </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H33" t="n">
         <v>4.0</v>
@@ -4847,112 +4868,112 @@
         <v>5.0</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N33" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O33" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P33" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R33" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.028706138719132593</v>
+        <v>-0.0332786396912076</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.0287335821805337</v>
+        <v>-0.03348426509548402</v>
       </c>
       <c r="W33" t="n">
-        <v>0.014610901019057604</v>
+        <v>0.020416679642020215</v>
       </c>
       <c r="X33" t="n">
-        <v>0.012005468186579153</v>
+        <v>0.01719135135992179</v>
       </c>
       <c r="Y33" t="n">
-        <v>-2.227589399436283</v>
+        <v>-1.6614150346150933</v>
       </c>
       <c r="Z33" t="n">
-        <v>-2.5881089062707385</v>
+        <v>-1.994518686478911</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.06507725071577723</v>
+        <v>0.1032841018980499</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.026214242464699163</v>
+        <v>0.05454901648543113</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.028750354919681684</v>
+        <v>-0.03337720725474505</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.028661922518583502</v>
+        <v>-0.03318007212767014</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.028769913696867367</v>
+        <v>-0.03356726143216436</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.028697250664200032</v>
+        <v>-0.033401268758803684</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM33" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN33" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -4960,139 +4981,139 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
         <v>52</v>
       </c>
-      <c r="F34" t="s">
-        <v>51</v>
-      </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" t="n">
         <v>4.0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N34" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O34" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P34" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R34" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U34" t="n">
-        <v>0.006907198287352251</v>
+        <v>0.006402892253971174</v>
       </c>
       <c r="V34" t="n">
-        <v>0.006937638467149874</v>
+        <v>0.0064478191455283685</v>
       </c>
       <c r="W34" t="n">
-        <v>0.009801278005170772</v>
+        <v>0.00896475863804828</v>
       </c>
       <c r="X34" t="n">
-        <v>0.009427950498860437</v>
+        <v>0.00628820407623234</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.7466303653576637</v>
+        <v>0.7489284734631678</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.774528891271472</v>
+        <v>1.0526658822936583</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.46355385206035155</v>
+        <v>0.46032426803260457</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.44706724318993096</v>
+        <v>0.302710914571654</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.006859879716974404</v>
+        <v>0.006375762676863157</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.006954516857730099</v>
+        <v>0.006430021831079192</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.006892122245799572</v>
+        <v>0.006428789484580995</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.006983154688500175</v>
+        <v>0.006466848806475742</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM34" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN34" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -5100,139 +5121,139 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
         <v>52</v>
       </c>
-      <c r="F35" t="s">
-        <v>51</v>
-      </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H35" t="n">
         <v>4.0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N35" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O35" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P35" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R35" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.040185837978559846</v>
+        <v>-0.032598951801901976</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.04045237593028065</v>
+        <v>-0.03278456644324944</v>
       </c>
       <c r="W35" t="n">
-        <v>0.026896921535944536</v>
+        <v>0.016104231414116685</v>
       </c>
       <c r="X35" t="n">
-        <v>0.026972234979205197</v>
+        <v>0.01610210697228039</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.4940610174857263</v>
+        <v>-2.025570701034627</v>
       </c>
       <c r="Z35" t="n">
-        <v>-1.4996350989424896</v>
+        <v>-2.0369065111495157</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.13753943826127923</v>
+        <v>0.04532268994791378</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.13642687446364873</v>
+        <v>0.043587891931810396</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.04031569082774692</v>
+        <v>-0.032647687189607824</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.04005598512937277</v>
+        <v>-0.03255021641419613</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.040582592377405</v>
+        <v>-0.0328332954018688</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.0403221594831563</v>
+        <v>-0.032735837484630076</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM35" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN35" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -5240,139 +5261,139 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
         <v>52</v>
       </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H36" t="n">
         <v>4.0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N36" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O36" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P36" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R36" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.036526365661258206</v>
+        <v>-0.031473475191850966</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.03650479926758489</v>
+        <v>-0.03152995019697693</v>
       </c>
       <c r="W36" t="n">
-        <v>0.024047765981561418</v>
+        <v>0.013793291157698088</v>
       </c>
       <c r="X36" t="n">
-        <v>0.02404263890672209</v>
+        <v>0.013790464766065743</v>
       </c>
       <c r="Y36" t="n">
-        <v>-1.5188109357085269</v>
+        <v>-2.281829623362715</v>
       </c>
       <c r="Z36" t="n">
-        <v>-1.5182698995598243</v>
+        <v>-2.286376584909562</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.13314173987995923</v>
+        <v>0.024261681163777814</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.13254340358877265</v>
+        <v>0.023924471001458683</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.036642463368764124</v>
+        <v>-0.031515217102720476</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.03641026795375229</v>
+        <v>-0.03143173328098146</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.0366208722226196</v>
+        <v>-0.031571683554486245</v>
       </c>
       <c r="AF36" t="n">
-        <v>-0.036388726312550176</v>
+        <v>-0.03148821683946761</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM36" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN36" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -5380,139 +5401,139 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
         <v>52</v>
       </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H37" t="n">
         <v>4.0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N37" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O37" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P37" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R37" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.0332786396912076</v>
+        <v>-0.0261960595479308</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.03348426509548402</v>
+        <v>-0.026325000518083553</v>
       </c>
       <c r="W37" t="n">
-        <v>0.020416679642020215</v>
+        <v>0.010627729792141924</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01719135135992179</v>
+        <v>0.008012749175985219</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.6614150346150933</v>
+        <v>-2.5893798597505544</v>
       </c>
       <c r="Z37" t="n">
-        <v>-1.994518686478911</v>
+        <v>-3.3070063152897364</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1032841018980499</v>
+        <v>0.022309533979415676</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.05454901648543113</v>
+        <v>0.0016643304869490292</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.03337720725474505</v>
+        <v>-0.02622822168709374</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.03318007212767014</v>
+        <v>-0.02616389740876786</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.03356726143216436</v>
+        <v>-0.02634924907907598</v>
       </c>
       <c r="AF37" t="n">
-        <v>-0.033401268758803684</v>
+        <v>-0.026300751957091126</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM37" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN37" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT37" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -5523,136 +5544,136 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
         <v>52</v>
       </c>
-      <c r="F38" t="s">
-        <v>51</v>
-      </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H38" t="n">
         <v>4.0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J38" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N38" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="O38" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="P38" t="n">
-        <v>28.155</v>
+        <v>13.42</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.08</v>
+        <v>54.32</v>
       </c>
       <c r="R38" t="n">
-        <v>50.1</v>
+        <v>28.33</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U38" t="n">
-        <v>0.006402892253971174</v>
+        <v>0.006592383453652403</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0064478191455283685</v>
+        <v>0.006613228780894649</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00896475863804828</v>
+        <v>0.009113038659717115</v>
       </c>
       <c r="X38" t="n">
-        <v>0.00628820407623234</v>
+        <v>0.007837687839968754</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.7489284734631678</v>
+        <v>0.759611047018715</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.0526658822936583</v>
+        <v>0.8561269622903762</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.46032426803260457</v>
+        <v>0.4586652285740924</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.302710914571654</v>
+        <v>0.3977922333659266</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.006375762676863157</v>
+        <v>0.006547474096027906</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.006430021831079192</v>
+        <v>0.0066372928112769</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.006428789484580995</v>
+        <v>0.006574604394529404</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.006466848806475742</v>
+        <v>0.0066518531672598935</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.8186380087919533</v>
+        <v>0.8183817116181736</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.17970514134246485</v>
+        <v>0.12427362968415522</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.563425011882158</v>
+        <v>0.5424106380144268</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.7400341080729079</v>
+        <v>0.7337122180877839</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.4905835797360297</v>
+        <v>0.4819980550433553</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.5171969027757345</v>
+        <v>0.48533208347149925</v>
       </c>
       <c r="AM38" t="n">
-        <v>251.0773713563189</v>
+        <v>99.39814605919887</v>
       </c>
       <c r="AN38" t="n">
-        <v>269.7412884812939</v>
+        <v>102.18115711537703</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.4114946336734677</v>
+        <v>0.3864957875884159</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.44942657371179945</v>
+        <v>0.38333702521173574</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.6413070184300959</v>
+        <v>0.6214857789017387</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.6698731962813447</v>
+        <v>0.6184461308813388</v>
       </c>
       <c r="AS38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -5663,136 +5684,136 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
         <v>52</v>
       </c>
-      <c r="F39" t="s">
-        <v>51</v>
-      </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H39" t="n">
         <v>4.0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J39" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N39" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="O39" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="P39" t="n">
-        <v>28.155</v>
+        <v>13.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.08</v>
+        <v>54.32</v>
       </c>
       <c r="R39" t="n">
-        <v>50.1</v>
+        <v>28.33</v>
       </c>
       <c r="S39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.032598951801901976</v>
+        <v>-0.027848059853140927</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.03278456644324944</v>
+        <v>-0.027843515211317324</v>
       </c>
       <c r="W39" t="n">
-        <v>0.016104231414116685</v>
+        <v>0.024239546930482567</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01610210697228039</v>
+        <v>0.02419563413700848</v>
       </c>
       <c r="Y39" t="n">
-        <v>-2.025570701034627</v>
+        <v>-1.1515928684669687</v>
       </c>
       <c r="Z39" t="n">
-        <v>-2.0369065111495157</v>
+        <v>-1.1525979869810672</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.04532268994791378</v>
+        <v>0.25837343273574764</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.043587891931810396</v>
+        <v>0.2557169790655689</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.032647687189607824</v>
+        <v>-0.027967513146647596</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.03255021641419613</v>
+        <v>-0.02772860655963426</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.0328332954018688</v>
+        <v>-0.027962752101117167</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.032735837484630076</v>
+        <v>-0.02772427832151748</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.8186380087919533</v>
+        <v>0.8183817116181736</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.17970514134246485</v>
+        <v>0.12427362968415522</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.563425011882158</v>
+        <v>0.5424106380144268</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.7400341080729079</v>
+        <v>0.7337122180877839</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.4905835797360297</v>
+        <v>0.4819980550433553</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.5171969027757345</v>
+        <v>0.48533208347149925</v>
       </c>
       <c r="AM39" t="n">
-        <v>251.0773713563189</v>
+        <v>99.39814605919887</v>
       </c>
       <c r="AN39" t="n">
-        <v>269.7412884812939</v>
+        <v>102.18115711537703</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.4114946336734677</v>
+        <v>0.3864957875884159</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.44942657371179945</v>
+        <v>0.38333702521173574</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.6413070184300959</v>
+        <v>0.6214857789017387</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.6698731962813447</v>
+        <v>0.6184461308813388</v>
       </c>
       <c r="AS39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -5803,136 +5824,136 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
         <v>52</v>
       </c>
-      <c r="F40" t="s">
-        <v>51</v>
-      </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H40" t="n">
         <v>4.0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J40" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N40" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="O40" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="P40" t="n">
-        <v>28.155</v>
+        <v>13.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.08</v>
+        <v>54.32</v>
       </c>
       <c r="R40" t="n">
-        <v>50.1</v>
+        <v>28.33</v>
       </c>
       <c r="S40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U40" t="n">
-        <v>-0.031473475191850966</v>
+        <v>-0.0436300697133663</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.03152995019697693</v>
+        <v>-0.0434389358077089</v>
       </c>
       <c r="W40" t="n">
-        <v>0.013793291157698088</v>
+        <v>0.021199174689552357</v>
       </c>
       <c r="X40" t="n">
-        <v>0.013790464766065743</v>
+        <v>0.021181214674089555</v>
       </c>
       <c r="Y40" t="n">
-        <v>-2.281829623362715</v>
+        <v>-2.0581901903948023</v>
       </c>
       <c r="Z40" t="n">
-        <v>-2.286376584909562</v>
+        <v>-2.0508583647733296</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.024261681163777814</v>
+        <v>0.03986488370973715</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.023924471001458683</v>
+        <v>0.040561218186088197</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.031515217102720476</v>
+        <v>-0.04373453995134363</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.03143173328098146</v>
+        <v>-0.04352559947538896</v>
       </c>
       <c r="AE40" t="n">
-        <v>-0.031571683554486245</v>
+        <v>-0.04354331753813266</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.03148821683946761</v>
+        <v>-0.043334554077285134</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.8186380087919533</v>
+        <v>0.8183817116181736</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.17970514134246485</v>
+        <v>0.12427362968415522</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.563425011882158</v>
+        <v>0.5424106380144268</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.7400341080729079</v>
+        <v>0.7337122180877839</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.4905835797360297</v>
+        <v>0.4819980550433553</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.5171969027757345</v>
+        <v>0.48533208347149925</v>
       </c>
       <c r="AM40" t="n">
-        <v>251.0773713563189</v>
+        <v>99.39814605919887</v>
       </c>
       <c r="AN40" t="n">
-        <v>269.7412884812939</v>
+        <v>102.18115711537703</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.4114946336734677</v>
+        <v>0.3864957875884159</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.44942657371179945</v>
+        <v>0.38333702521173574</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.6413070184300959</v>
+        <v>0.6214857789017387</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.6698731962813447</v>
+        <v>0.6184461308813388</v>
       </c>
       <c r="AS40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -5943,136 +5964,1816 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
         <v>52</v>
       </c>
-      <c r="F41" t="s">
-        <v>51</v>
-      </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H41" t="n">
         <v>4.0</v>
       </c>
       <c r="I41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4193.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4193.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>54.32</v>
+      </c>
+      <c r="R41" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="S41" t="s">
+        <v>53</v>
+      </c>
+      <c r="T41" t="s">
+        <v>67</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.021255676399488523</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.02119848123063077</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.019033715296637103</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.014953980462166396</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-1.19721980426738</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-1.5007721882086125</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.2772602210796469</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.175606687125676</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.021349475181552075</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-0.02116187761742497</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-0.021272174943733707</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>-0.021124787517527832</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.8183817116181736</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.12427362968415522</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5424106380144268</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.7337122180877839</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.4819980550433553</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.48533208347149925</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>99.39814605919887</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>102.18115711537703</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.3864957875884159</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.38333702521173574</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6214857789017387</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6184461308813388</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.0</v>
       </c>
-      <c r="J41" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="I42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K42" t="s">
         <v>58</v>
       </c>
-      <c r="M41" t="s">
+      <c r="L42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="S42" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42" t="s">
+        <v>64</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.006273251174908525</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.006282484244867992</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.007319986180267236</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.005257858405465702</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.9235751402262876</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.152271156486529</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.3724817757097107</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.24923098871076285</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.0062526963624032796</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.00629380598741377</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.006267719969220202</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.006297248520515782</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.8389259154547759</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.1461786585031948</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.5495220747423102</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.7235502877863144</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.48675989402074776</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.517239534787654</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>123.67347078584189</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>129.73901913922998</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.40478897886914766</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.44876348485497475</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6360799895600582</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6692008653644839</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
         <v>52</v>
       </c>
-      <c r="N41" t="n">
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" t="s">
+        <v>53</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="S43" t="s">
+        <v>63</v>
+      </c>
+      <c r="T43" t="s">
+        <v>65</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-0.041861218827202715</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.042619029637551896</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.015304556098281063</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.015240453842713983</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-2.7348597225546065</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-2.763275997178594</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.006369032467890587</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.005730535495028646</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>-0.04190419462979702</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-0.04181824302460841</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>-0.04266182543846151</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>-0.04257623383664228</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.8389259154547759</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.1461786585031948</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.5495220747423102</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7235502877863144</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.48675989402074776</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.517239534787654</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>123.67347078584189</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>129.73901913922998</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.40478897886914766</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.44876348485497475</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.6360799895600582</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.6692008653644839</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="S44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T44" t="s">
+        <v>66</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-0.034079598322572804</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.03343691814111241</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.013663201974446077</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.013647272140206447</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-2.4943283169065897</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-2.456264722585707</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.012995883462040551</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.014052034130967627</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-0.034117965137466955</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>-0.034041231507678654</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>-0.03347524022439806</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>-0.03339859605782676</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.8389259154547759</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.1461786585031948</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.5495220747423102</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7235502877863144</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.48675989402074776</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.517239534787654</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>123.67347078584189</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>129.73901913922998</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.40478897886914766</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.44876348485497475</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.6360799895600582</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.6692008653644839</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M45" t="s">
+        <v>53</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>12918.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="S45" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" t="s">
+        <v>67</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-0.03558796765229419</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.035952940961922204</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.014709500026765911</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.01012389356374553</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-2.526866929488567</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-3.5452622926738875</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.023629768002823712</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>3.93609565946686E-4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>-0.03562927251375843</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.03554666279082995</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>-0.03598136925794643</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>-0.03592451266589798</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.8389259154547759</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.1461786585031948</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.5495220747423102</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7235502877863144</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.48675989402074776</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.517239534787654</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>123.67347078584189</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>129.73901913922998</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.40478897886914766</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.44876348485497475</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.6360799895600582</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.6692008653644839</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46" t="n">
         <v>11122.0</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O46" t="n">
         <v>11122.0</v>
       </c>
-      <c r="P41" t="n">
-        <v>28.155</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>81.08</v>
-      </c>
-      <c r="R41" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="S41" t="s">
+      <c r="P46" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.006643368970623819</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.006612041775881204</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.009267891193640054</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.006096276457494468</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.8099208358940836</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.1409881360120389</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.43492785055873723</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.2538994270903943</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.006615322039421519</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.00667141590182612</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.006593592935382204</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.006630490616380204</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.8410117626276102</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.33188670971173456</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.6261049351597225</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.7290459399630282</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.525645528101417</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.5450565030637159</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>238.3768368863379</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>276.6365655977487</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.4618580314708739</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0.4944342699172355</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.6794397751207918</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.7024491372642251</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s">
         <v>52</v>
       </c>
-      <c r="T41" t="s">
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M47" t="s">
+        <v>53</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>63</v>
+      </c>
+      <c r="T47" t="s">
         <v>65</v>
       </c>
-      <c r="U41" t="n">
-        <v>-0.0261960595479308</v>
-      </c>
-      <c r="V41" t="n">
-        <v>-0.026325000518083553</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0.010627729792141924</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.008012749175985219</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>-2.5893798597505544</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>-3.3070063152897364</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.022309533979415676</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.0016643304869490292</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>-0.02622822168709374</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>-0.02616389740876786</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>-0.02634924907907598</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>-0.026300751957091126</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0.8186380087919533</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0.17970514134246485</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0.563425011882158</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0.7400341080729079</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0.4905835797360297</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0.5171969027757345</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>251.0773713563189</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>269.7412884812939</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0.4114946336734677</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0.44942657371179945</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0.6413070184300959</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0.6698731962813447</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>90</v>
+      <c r="U47" t="n">
+        <v>-0.05396138039753993</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.05376391842837653</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.016413150855754347</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.01635074964738249</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-3.2881814705501284</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-3.29516995798645</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.001119931889760038</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.866990829861286E-4</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-0.054011050651888645</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-0.05391171014319121</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-0.05381339984123352</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-0.05371443701551954</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.8410117626276102</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.33188670971173456</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.6261049351597225</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.7290459399630282</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.525645528101417</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.5450565030637159</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>238.3768368863379</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>276.6365655977487</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.4618580314708739</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.4944342699172355</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.6794397751207918</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.7024491372642251</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N48" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>63</v>
+      </c>
+      <c r="T48" t="s">
+        <v>66</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.06348215421786263</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.06386917849626826</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.014623993460923612</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.014619510929848409</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-4.341046942682259</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-4.3687630046411225</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1.5309882873918384E-5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.26084502087228E-5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.06352641003937927</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.06343789839634599</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.0639134207525371</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.06382493623999942</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.8410117626276102</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.33188670971173456</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.6261049351597225</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.7290459399630282</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.525645528101417</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.5450565030637159</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>238.3768368863379</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>276.6365655977487</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.4618580314708739</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0.4944342699172355</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.6794397751207918</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.7024491372642251</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" t="s">
+        <v>53</v>
+      </c>
+      <c r="N49" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>53</v>
+      </c>
+      <c r="T49" t="s">
+        <v>67</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.04731801142691611</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.04729120392326516</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.015427860438605563</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.012638445718701262</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-3.208937749571023</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-3.790423911281764</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.0047463216155954014</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.5118461891356803E-4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.047364699948746966</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.04727132290508525</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.047329450986180584</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.04725295686034974</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.8410117626276102</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.33188670971173456</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.6261049351597225</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.7290459399630282</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.525645528101417</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.5450565030637159</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>238.3768368863379</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>276.6365655977487</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.4618580314708739</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.4944342699172355</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.6794397751207918</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.7024491372642251</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" t="s">
+        <v>53</v>
+      </c>
+      <c r="N50" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>10682.0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="R50" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="S50" t="s">
+        <v>50</v>
+      </c>
+      <c r="T50" t="s">
+        <v>64</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.006641604859746193</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.007368443415076613</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.01011918947029459</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.007415662074543893</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.7096680831351422</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.7771439023356911</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.4943342364040892</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.437090403239055</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.006610981689386667</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.00667222803010572</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.007346001787345057</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.00739088504280817</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.8000644791084266</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.19212453286224965</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.5747559504871054</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.6913937512715799</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.5087749624042482</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.5857879477756137</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>270.4463313539914</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>342.9711149954108</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.43892619869604765</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.7253559934293062</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.6623502258341997</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.7847202224574051</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" t="s">
+        <v>62</v>
+      </c>
+      <c r="M51" t="s">
+        <v>53</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>10682.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="R51" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="S51" t="s">
+        <v>63</v>
+      </c>
+      <c r="T51" t="s">
+        <v>65</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.057604298339297824</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.06425505643697137</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.043140359851684955</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.04298784131145686</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-1.3386688770636128</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-1.5427966002553228</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.19628086491956953</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.12290858485625225</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.0577348517391514</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.05747374493944425</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.06438514827799613</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.0641249645959466</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.8000644791084266</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.19212453286224965</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.5747559504871054</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0.6913937512715799</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.5087749624042482</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.5857879477756137</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>270.4463313539914</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>342.9711149954108</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.43892619869604765</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.7253559934293062</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.6623502258341997</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.7847202224574051</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" t="s">
+        <v>62</v>
+      </c>
+      <c r="M52" t="s">
+        <v>53</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10682.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="R52" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="S52" t="s">
+        <v>63</v>
+      </c>
+      <c r="T52" t="s">
+        <v>66</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.03303811524983185</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.03159722573035486</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.014191153614336361</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.014132528602923194</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-2.3289248695118787</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-2.2563349172430467</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.025461092851187486</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.024068998818200616</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.033081061190908034</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.032995169308755665</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.031639994257645375</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.031554457203064344</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.8000644791084266</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0.19212453286224965</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.5747559504871054</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.6913937512715799</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.5087749624042482</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0.5857879477756137</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>270.4463313539914</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>342.9711149954108</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.43892619869604765</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0.7253559934293062</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.6623502258341997</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.7847202224574051</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" t="s">
+        <v>62</v>
+      </c>
+      <c r="M53" t="s">
+        <v>53</v>
+      </c>
+      <c r="N53" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>10682.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="R53" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="S53" t="s">
+        <v>53</v>
+      </c>
+      <c r="T53" t="s">
+        <v>67</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-0.05096269347955163</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-0.05484771610431172</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.03195886552161417</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.023344505351921417</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.6752357064032402</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.9974237298675142</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.13790426103293224</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.045803489007397814</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-0.051059408911774594</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-0.05086597804732867</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-0.05491836235186438</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-0.05477706985675905</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.8000644791084266</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.19212453286224965</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.5747559504871054</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.6913937512715799</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.5087749624042482</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.5857879477756137</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>270.4463313539914</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>342.9711149954108</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.43892619869604765</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.7253559934293062</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.6623502258341997</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.7847202224574051</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
+++ b/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="101">
   <si>
     <t>outcome</t>
   </si>
@@ -269,6 +269,12 @@
     <t>32.0113890408145 hours</t>
   </si>
   <si>
+    <t>16.4780809044176 hours</t>
+  </si>
+  <si>
+    <t>16.4780811536312 hours</t>
+  </si>
+  <si>
     <t>2023-03-29 16:35:53</t>
   </si>
   <si>
@@ -306,6 +312,9 @@
   </si>
   <si>
     <t>2023-04-03 06:55:58</t>
+  </si>
+  <si>
+    <t>2023-04-04 00:46:31</t>
   </si>
 </sst>
 </file>
@@ -633,7 +642,7 @@
         <v>68</v>
       </c>
       <c r="AT2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -773,7 +782,7 @@
         <v>69</v>
       </c>
       <c r="AT3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -913,7 +922,7 @@
         <v>69</v>
       </c>
       <c r="AT4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1053,7 +1062,7 @@
         <v>69</v>
       </c>
       <c r="AT5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -1193,7 +1202,7 @@
         <v>70</v>
       </c>
       <c r="AT6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1333,7 +1342,7 @@
         <v>71</v>
       </c>
       <c r="AT7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1473,7 +1482,7 @@
         <v>71</v>
       </c>
       <c r="AT8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1613,7 +1622,7 @@
         <v>71</v>
       </c>
       <c r="AT9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1762,7 @@
         <v>72</v>
       </c>
       <c r="AT10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -1893,7 +1902,7 @@
         <v>72</v>
       </c>
       <c r="AT11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -2033,7 +2042,7 @@
         <v>72</v>
       </c>
       <c r="AT12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -2173,7 +2182,7 @@
         <v>72</v>
       </c>
       <c r="AT13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -2313,7 +2322,7 @@
         <v>73</v>
       </c>
       <c r="AT14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2453,7 +2462,7 @@
         <v>73</v>
       </c>
       <c r="AT15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -2593,7 +2602,7 @@
         <v>73</v>
       </c>
       <c r="AT16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -2733,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="AT17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2873,7 +2882,7 @@
         <v>74</v>
       </c>
       <c r="AT18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -3013,7 +3022,7 @@
         <v>74</v>
       </c>
       <c r="AT19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -3153,7 +3162,7 @@
         <v>74</v>
       </c>
       <c r="AT20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -3293,7 +3302,7 @@
         <v>74</v>
       </c>
       <c r="AT21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -3433,7 +3442,7 @@
         <v>75</v>
       </c>
       <c r="AT22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -3573,7 +3582,7 @@
         <v>76</v>
       </c>
       <c r="AT23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -3713,7 +3722,7 @@
         <v>76</v>
       </c>
       <c r="AT24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -3853,7 +3862,7 @@
         <v>76</v>
       </c>
       <c r="AT25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -3993,7 +4002,7 @@
         <v>77</v>
       </c>
       <c r="AT26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -4133,7 +4142,7 @@
         <v>78</v>
       </c>
       <c r="AT27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -4273,7 +4282,7 @@
         <v>78</v>
       </c>
       <c r="AT28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -4413,7 +4422,7 @@
         <v>78</v>
       </c>
       <c r="AT29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -4553,7 +4562,7 @@
         <v>79</v>
       </c>
       <c r="AT30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -4693,7 +4702,7 @@
         <v>79</v>
       </c>
       <c r="AT31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -4833,7 +4842,7 @@
         <v>79</v>
       </c>
       <c r="AT32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -4973,7 +4982,7 @@
         <v>79</v>
       </c>
       <c r="AT33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -5113,7 +5122,7 @@
         <v>80</v>
       </c>
       <c r="AT34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -5253,7 +5262,7 @@
         <v>80</v>
       </c>
       <c r="AT35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -5393,7 +5402,7 @@
         <v>80</v>
       </c>
       <c r="AT36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -5533,7 +5542,7 @@
         <v>80</v>
       </c>
       <c r="AT37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -5673,7 +5682,7 @@
         <v>81</v>
       </c>
       <c r="AT38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -5813,7 +5822,7 @@
         <v>81</v>
       </c>
       <c r="AT39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -5953,7 +5962,7 @@
         <v>81</v>
       </c>
       <c r="AT40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -6093,7 +6102,7 @@
         <v>81</v>
       </c>
       <c r="AT41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -6233,7 +6242,7 @@
         <v>82</v>
       </c>
       <c r="AT42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -6373,7 +6382,7 @@
         <v>82</v>
       </c>
       <c r="AT43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
@@ -6513,7 +6522,7 @@
         <v>82</v>
       </c>
       <c r="AT44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -6653,7 +6662,7 @@
         <v>82</v>
       </c>
       <c r="AT45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -6793,7 +6802,7 @@
         <v>83</v>
       </c>
       <c r="AT46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
@@ -6933,7 +6942,7 @@
         <v>83</v>
       </c>
       <c r="AT47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -7073,7 +7082,7 @@
         <v>83</v>
       </c>
       <c r="AT48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -7213,7 +7222,7 @@
         <v>83</v>
       </c>
       <c r="AT49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
@@ -7353,7 +7362,7 @@
         <v>84</v>
       </c>
       <c r="AT50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
@@ -7493,7 +7502,7 @@
         <v>84</v>
       </c>
       <c r="AT51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
@@ -7633,7 +7642,7 @@
         <v>84</v>
       </c>
       <c r="AT52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
@@ -7773,7 +7782,567 @@
         <v>84</v>
       </c>
       <c r="AT53" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" t="s">
+        <v>53</v>
+      </c>
+      <c r="N54" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>11117.0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>29.3275</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="S54" t="s">
+        <v>50</v>
+      </c>
+      <c r="T54" t="s">
+        <v>64</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.006448414444749802</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.0063458116204920915</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.00586027410042029</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.004210494688011051</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.1432440603525185</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.5285777332213555</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.27229161339660796</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.1263975975859819</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.006430679805759445</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.006466149083740158</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.006333069622083291</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.006358553618900892</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.8187340963852295</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0.18039209516533683</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.5636796091397615</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0.7394059918206516</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.4907011215366788</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0.5181675881025801</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>251.09413390640668</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>269.898349306286</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.41150056245865535</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0.45090114000864906</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.6413301610949432</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.670904004914734</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" t="s">
+        <v>53</v>
+      </c>
+      <c r="N55" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>11117.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>29.3275</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="S55" t="s">
+        <v>63</v>
+      </c>
+      <c r="T55" t="s">
+        <v>65</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.03250071298585326</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.033667872232583475</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.016275683729889523</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.016208876818408095</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.9972308491074615</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-2.061890683621395</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.04714637619472564</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.039241323127657796</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-0.03254996723067606</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-0.03245145874103046</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-0.033716924303167174</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-0.033618820161999775</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0.8187340963852295</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0.18039209516533683</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0.5636796091397615</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0.7394059918206516</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.4907011215366788</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0.5181675881025801</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>251.09413390640668</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>269.898349306286</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.41150056245865535</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0.45090114000864906</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.6413301610949432</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.670904004914734</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M56" t="s">
+        <v>53</v>
+      </c>
+      <c r="N56" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>11117.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>29.3275</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="S56" t="s">
+        <v>63</v>
+      </c>
+      <c r="T56" t="s">
+        <v>66</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.03172562267050359</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.031737564722237696</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.01379196527947356</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.013800067207272749</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-2.3003119953999787</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-2.305891994179437</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.022750711970795257</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.02113497066269257</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.031767360568937635</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.03168388477206955</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.031779327139109304</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.03169580230536609</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.8187340963852295</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0.18039209516533683</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.5636796091397615</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.7394059918206516</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.4907011215366788</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0.5181675881025801</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>251.09413390640668</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>269.898349306286</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.41150056245865535</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0.45090114000864906</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.6413301610949432</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.670904004914734</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" t="s">
+        <v>62</v>
+      </c>
+      <c r="M57" t="s">
+        <v>53</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>11117.0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>29.3275</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="S57" t="s">
+        <v>53</v>
+      </c>
+      <c r="T57" t="s">
+        <v>67</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.02605229854110346</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.0265058312944634</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.007956742527413576</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.005445171150942421</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-3.3500071697880087</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-4.5560050377228425</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.0019845663800074297</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>5.269068479047221E-6</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.026076377612123836</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-0.026028219470083082</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-0.026522309729251244</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-0.026489352859675554</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.8187340963852295</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.18039209516533683</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.5636796091397615</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.7394059918206516</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.4907011215366788</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.5181675881025801</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>251.09413390640668</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>269.898349306286</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.41150056245865535</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0.45090114000864906</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.6413301610949432</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.670904004914734</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
+++ b/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="115">
   <si>
     <t>outcome</t>
   </si>
@@ -155,6 +155,15 @@
     <t>grade</t>
   </si>
   <si>
+    <t>bigfive_agreeableness</t>
+  </si>
+  <si>
+    <t>bigfive_extraversion</t>
+  </si>
+  <si>
+    <t>bigfive_openness</t>
+  </si>
+  <si>
     <t>controls_same_outcome</t>
   </si>
   <si>
@@ -275,6 +284,24 @@
     <t>16.4780811536312 hours</t>
   </si>
   <si>
+    <t>2.04929691500134 hours</t>
+  </si>
+  <si>
+    <t>2.04929711421331 hours</t>
+  </si>
+  <si>
+    <t>20.7465920177433 hours</t>
+  </si>
+  <si>
+    <t>12.8920542783207 hours</t>
+  </si>
+  <si>
+    <t>20.1298939508862 hours</t>
+  </si>
+  <si>
+    <t>16.9994957322545 hours</t>
+  </si>
+  <si>
     <t>2023-03-29 16:35:53</t>
   </si>
   <si>
@@ -315,6 +342,21 @@
   </si>
   <si>
     <t>2023-04-04 00:46:31</t>
+  </si>
+  <si>
+    <t>2023-03-29 14:25:59</t>
+  </si>
+  <si>
+    <t>2023-04-02 06:22:51</t>
+  </si>
+  <si>
+    <t>2023-04-02 19:37:00</t>
+  </si>
+  <si>
+    <t>2023-04-03 17:41:13</t>
+  </si>
+  <si>
+    <t>2023-04-04 11:38:12</t>
   </si>
 </sst>
 </file>
@@ -510,22 +552,22 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
         <v>4.0</v>
@@ -537,13 +579,13 @@
         <v>5.0</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
         <v>11122.0</v>
@@ -561,10 +603,10 @@
         <v>34.32</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U2" t="n">
         <v>0.005832690850431894</v>
@@ -639,10 +681,10 @@
         <v>0.675554653221059</v>
       </c>
       <c r="AS2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AT2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -650,22 +692,22 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
         <v>4.0</v>
@@ -677,13 +719,13 @@
         <v>5.0</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
         <v>11122.0</v>
@@ -701,10 +743,10 @@
         <v>34.32</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U3" t="n">
         <v>-0.03385233168600036</v>
@@ -779,10 +821,10 @@
         <v>0.675554653221059</v>
       </c>
       <c r="AS3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AT3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -790,22 +832,22 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
         <v>4.0</v>
@@ -817,13 +859,13 @@
         <v>5.0</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
         <v>11122.0</v>
@@ -841,10 +883,10 @@
         <v>34.32</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U4" t="n">
         <v>-0.027192513935194628</v>
@@ -919,10 +961,10 @@
         <v>0.675554653221059</v>
       </c>
       <c r="AS4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AT4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -930,22 +972,22 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
         <v>4.0</v>
@@ -957,13 +999,13 @@
         <v>5.0</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5" t="n">
         <v>11122.0</v>
@@ -981,10 +1023,10 @@
         <v>34.32</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U5" t="n">
         <v>-0.028019640835568464</v>
@@ -1059,10 +1101,10 @@
         <v>0.675554653221059</v>
       </c>
       <c r="AS5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AT5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -1070,22 +1112,22 @@
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
         <v>4.0</v>
@@ -1097,13 +1139,13 @@
         <v>5.0</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
         <v>11122.0</v>
@@ -1121,10 +1163,10 @@
         <v>21.86</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U6" t="n">
         <v>0.005247929056464411</v>
@@ -1199,10 +1241,10 @@
         <v>0.5014762781089889</v>
       </c>
       <c r="AS6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AT6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -1210,22 +1252,22 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>4.0</v>
@@ -1237,13 +1279,13 @@
         <v>5.0</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
         <v>11122.0</v>
@@ -1261,10 +1303,10 @@
         <v>21.86</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U7" t="n">
         <v>-0.009324060171217513</v>
@@ -1339,10 +1381,10 @@
         <v>0.5014762781089889</v>
       </c>
       <c r="AS7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AT7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1350,22 +1392,22 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
         <v>4.0</v>
@@ -1377,13 +1419,13 @@
         <v>5.0</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
         <v>11122.0</v>
@@ -1401,10 +1443,10 @@
         <v>21.86</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U8" t="n">
         <v>-0.013264603995431975</v>
@@ -1479,10 +1521,10 @@
         <v>0.5014762781089889</v>
       </c>
       <c r="AS8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AT8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1490,22 +1532,22 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
         <v>4.0</v>
@@ -1517,13 +1559,13 @@
         <v>5.0</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N9" t="n">
         <v>11122.0</v>
@@ -1541,10 +1583,10 @@
         <v>21.86</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U9" t="n">
         <v>-0.004076131114753102</v>
@@ -1619,10 +1661,10 @@
         <v>0.5014762781089889</v>
       </c>
       <c r="AS9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AT9" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1630,22 +1672,22 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4.0</v>
@@ -1657,13 +1699,13 @@
         <v>5.0</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N10" t="n">
         <v>11122.0</v>
@@ -1681,10 +1723,10 @@
         <v>36.64</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U10" t="n">
         <v>-0.008467487913246119</v>
@@ -1759,10 +1801,10 @@
         <v>0.6740919460659516</v>
       </c>
       <c r="AS10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -1770,22 +1812,22 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H11" t="n">
         <v>4.0</v>
@@ -1797,13 +1839,13 @@
         <v>5.0</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N11" t="n">
         <v>11122.0</v>
@@ -1821,10 +1863,10 @@
         <v>36.64</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U11" t="n">
         <v>-0.034600194856639746</v>
@@ -1899,10 +1941,10 @@
         <v>0.6740919460659516</v>
       </c>
       <c r="AS11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -1910,22 +1952,22 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H12" t="n">
         <v>4.0</v>
@@ -1937,13 +1979,13 @@
         <v>5.0</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N12" t="n">
         <v>11122.0</v>
@@ -1961,10 +2003,10 @@
         <v>36.64</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U12" t="n">
         <v>-0.02715275149711332</v>
@@ -2039,10 +2081,10 @@
         <v>0.6740919460659516</v>
       </c>
       <c r="AS12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -2050,22 +2092,22 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H13" t="n">
         <v>4.0</v>
@@ -2077,13 +2119,13 @@
         <v>5.0</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N13" t="n">
         <v>11122.0</v>
@@ -2101,10 +2143,10 @@
         <v>36.64</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U13" t="n">
         <v>-0.043067682769885866</v>
@@ -2179,10 +2221,10 @@
         <v>0.6740919460659516</v>
       </c>
       <c r="AS13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -2190,22 +2232,22 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" t="n">
         <v>4.0</v>
@@ -2217,13 +2259,13 @@
         <v>5.0</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N14" t="n">
         <v>11122.0</v>
@@ -2241,10 +2283,10 @@
         <v>36.64</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U14" t="n">
         <v>0.004147217231207019</v>
@@ -2319,10 +2361,10 @@
         <v>0.6735897805707362</v>
       </c>
       <c r="AS14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AT14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -2330,22 +2372,22 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H15" t="n">
         <v>4.0</v>
@@ -2357,13 +2399,13 @@
         <v>5.0</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N15" t="n">
         <v>11122.0</v>
@@ -2381,10 +2423,10 @@
         <v>36.64</v>
       </c>
       <c r="S15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U15" t="n">
         <v>-0.03866499439980746</v>
@@ -2459,10 +2501,10 @@
         <v>0.6735897805707362</v>
       </c>
       <c r="AS15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AT15" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -2470,22 +2512,22 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H16" t="n">
         <v>4.0</v>
@@ -2497,13 +2539,13 @@
         <v>5.0</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N16" t="n">
         <v>11122.0</v>
@@ -2521,10 +2563,10 @@
         <v>36.64</v>
       </c>
       <c r="S16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U16" t="n">
         <v>-0.03013897938869867</v>
@@ -2599,10 +2641,10 @@
         <v>0.6735897805707362</v>
       </c>
       <c r="AS16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AT16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -2610,22 +2652,22 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H17" t="n">
         <v>4.0</v>
@@ -2637,13 +2679,13 @@
         <v>5.0</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N17" t="n">
         <v>11122.0</v>
@@ -2661,10 +2703,10 @@
         <v>36.64</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U17" t="n">
         <v>-0.034517777168600446</v>
@@ -2739,10 +2781,10 @@
         <v>0.6735897805707362</v>
       </c>
       <c r="AS17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AT17" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -2750,22 +2792,22 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H18" t="n">
         <v>4.0</v>
@@ -2777,13 +2819,13 @@
         <v>5.0</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N18" t="n">
         <v>11122.0</v>
@@ -2801,10 +2843,10 @@
         <v>503.0</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U18" t="n">
         <v>0.007265956359590852</v>
@@ -2879,10 +2921,10 @@
         <v>0.6938770444779193</v>
       </c>
       <c r="AS18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -2890,22 +2932,22 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H19" t="n">
         <v>4.0</v>
@@ -2917,13 +2959,13 @@
         <v>5.0</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N19" t="n">
         <v>11122.0</v>
@@ -2941,10 +2983,10 @@
         <v>503.0</v>
       </c>
       <c r="S19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U19" t="n">
         <v>-0.044527378940143136</v>
@@ -3019,10 +3061,10 @@
         <v>0.6938770444779193</v>
       </c>
       <c r="AS19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AT19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3030,22 +3072,22 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H20" t="n">
         <v>4.0</v>
@@ -3057,13 +3099,13 @@
         <v>5.0</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N20" t="n">
         <v>11122.0</v>
@@ -3081,10 +3123,10 @@
         <v>503.0</v>
       </c>
       <c r="S20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U20" t="n">
         <v>-0.05366051909442953</v>
@@ -3159,10 +3201,10 @@
         <v>0.6938770444779193</v>
       </c>
       <c r="AS20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AT20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3170,22 +3212,22 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H21" t="n">
         <v>4.0</v>
@@ -3197,13 +3239,13 @@
         <v>5.0</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N21" t="n">
         <v>11122.0</v>
@@ -3221,10 +3263,10 @@
         <v>503.0</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U21" t="n">
         <v>-0.03726142258055229</v>
@@ -3299,10 +3341,10 @@
         <v>0.6938770444779193</v>
       </c>
       <c r="AS21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AT21" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -3310,22 +3352,22 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H22" t="n">
         <v>4.0</v>
@@ -3337,13 +3379,13 @@
         <v>5.0</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N22" t="n">
         <v>11633.0</v>
@@ -3361,10 +3403,10 @@
         <v>55.69</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U22" t="n">
         <v>0.009959434591466974</v>
@@ -3439,10 +3481,10 @@
         <v>0.6322230697148145</v>
       </c>
       <c r="AS22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AT22" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -3450,22 +3492,22 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H23" t="n">
         <v>4.0</v>
@@ -3477,13 +3519,13 @@
         <v>5.0</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N23" t="n">
         <v>11633.0</v>
@@ -3501,10 +3543,10 @@
         <v>55.69</v>
       </c>
       <c r="S23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U23" t="n">
         <v>-0.034043430492341</v>
@@ -3579,10 +3621,10 @@
         <v>0.6322230697148145</v>
       </c>
       <c r="AS23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AT23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -3590,22 +3632,22 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H24" t="n">
         <v>4.0</v>
@@ -3617,13 +3659,13 @@
         <v>5.0</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N24" t="n">
         <v>11633.0</v>
@@ -3641,10 +3683,10 @@
         <v>55.69</v>
       </c>
       <c r="S24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U24" t="n">
         <v>-0.031557234879080784</v>
@@ -3719,10 +3761,10 @@
         <v>0.6322230697148145</v>
       </c>
       <c r="AS24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AT24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -3730,22 +3772,22 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H25" t="n">
         <v>4.0</v>
@@ -3757,13 +3799,13 @@
         <v>5.0</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N25" t="n">
         <v>11633.0</v>
@@ -3781,10 +3823,10 @@
         <v>55.69</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U25" t="n">
         <v>-0.02408399590087403</v>
@@ -3859,10 +3901,10 @@
         <v>0.6322230697148145</v>
       </c>
       <c r="AS25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AT25" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -3870,22 +3912,22 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H26" t="n">
         <v>4.0</v>
@@ -3897,13 +3939,13 @@
         <v>5.0</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N26" t="n">
         <v>11122.0</v>
@@ -3921,10 +3963,10 @@
         <v>44.14</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U26" t="n">
         <v>0.0045691114269140135</v>
@@ -3999,10 +4041,10 @@
         <v>0.7075665092675562</v>
       </c>
       <c r="AS26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AT26" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -4010,22 +4052,22 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H27" t="n">
         <v>4.0</v>
@@ -4037,13 +4079,13 @@
         <v>5.0</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N27" t="n">
         <v>11122.0</v>
@@ -4061,10 +4103,10 @@
         <v>44.14</v>
       </c>
       <c r="S27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U27" t="n">
         <v>-0.033275250146046605</v>
@@ -4139,10 +4181,10 @@
         <v>0.7075665092675562</v>
       </c>
       <c r="AS27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AT27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -4150,22 +4192,22 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H28" t="n">
         <v>4.0</v>
@@ -4177,13 +4219,13 @@
         <v>5.0</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N28" t="n">
         <v>11122.0</v>
@@ -4201,10 +4243,10 @@
         <v>44.14</v>
       </c>
       <c r="S28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U28" t="n">
         <v>-0.027620538046187706</v>
@@ -4279,10 +4321,10 @@
         <v>0.7075665092675562</v>
       </c>
       <c r="AS28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AT28" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -4290,22 +4332,22 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H29" t="n">
         <v>4.0</v>
@@ -4317,13 +4359,13 @@
         <v>5.0</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N29" t="n">
         <v>11122.0</v>
@@ -4341,10 +4383,10 @@
         <v>44.14</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U29" t="n">
         <v>-0.028706138719132593</v>
@@ -4419,10 +4461,10 @@
         <v>0.7075665092675562</v>
       </c>
       <c r="AS29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AT29" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -4430,22 +4472,22 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H30" t="n">
         <v>4.0</v>
@@ -4457,13 +4499,13 @@
         <v>5.0</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N30" t="n">
         <v>4369.0</v>
@@ -4481,10 +4523,10 @@
         <v>27.06</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U30" t="n">
         <v>0.006907198287352251</v>
@@ -4559,10 +4601,10 @@
         <v>0.7256402593488512</v>
       </c>
       <c r="AS30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AT30" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -4570,22 +4612,22 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H31" t="n">
         <v>4.0</v>
@@ -4597,13 +4639,13 @@
         <v>5.0</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N31" t="n">
         <v>4369.0</v>
@@ -4621,10 +4663,10 @@
         <v>27.06</v>
       </c>
       <c r="S31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U31" t="n">
         <v>-0.040185837978559846</v>
@@ -4699,10 +4741,10 @@
         <v>0.7256402593488512</v>
       </c>
       <c r="AS31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AT31" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
@@ -4710,22 +4752,22 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H32" t="n">
         <v>4.0</v>
@@ -4737,13 +4779,13 @@
         <v>5.0</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N32" t="n">
         <v>4369.0</v>
@@ -4761,10 +4803,10 @@
         <v>27.06</v>
       </c>
       <c r="S32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U32" t="n">
         <v>-0.036526365661258206</v>
@@ -4839,10 +4881,10 @@
         <v>0.7256402593488512</v>
       </c>
       <c r="AS32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AT32" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -4850,22 +4892,22 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H33" t="n">
         <v>4.0</v>
@@ -4877,13 +4919,13 @@
         <v>5.0</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N33" t="n">
         <v>4369.0</v>
@@ -4901,10 +4943,10 @@
         <v>27.06</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U33" t="n">
         <v>-0.0332786396912076</v>
@@ -4979,10 +5021,10 @@
         <v>0.7256402593488512</v>
       </c>
       <c r="AS33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AT33" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -4990,22 +5032,22 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H34" t="n">
         <v>4.0</v>
@@ -5017,13 +5059,13 @@
         <v>10.0</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N34" t="n">
         <v>11122.0</v>
@@ -5041,10 +5083,10 @@
         <v>50.1</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U34" t="n">
         <v>0.006402892253971174</v>
@@ -5119,10 +5161,10 @@
         <v>0.6698731962813447</v>
       </c>
       <c r="AS34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AT34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -5130,22 +5172,22 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H35" t="n">
         <v>4.0</v>
@@ -5157,13 +5199,13 @@
         <v>10.0</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N35" t="n">
         <v>11122.0</v>
@@ -5181,10 +5223,10 @@
         <v>50.1</v>
       </c>
       <c r="S35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U35" t="n">
         <v>-0.032598951801901976</v>
@@ -5259,10 +5301,10 @@
         <v>0.6698731962813447</v>
       </c>
       <c r="AS35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AT35" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -5270,22 +5312,22 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H36" t="n">
         <v>4.0</v>
@@ -5297,13 +5339,13 @@
         <v>10.0</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N36" t="n">
         <v>11122.0</v>
@@ -5321,10 +5363,10 @@
         <v>50.1</v>
       </c>
       <c r="S36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U36" t="n">
         <v>-0.031473475191850966</v>
@@ -5399,10 +5441,10 @@
         <v>0.6698731962813447</v>
       </c>
       <c r="AS36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AT36" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -5410,22 +5452,22 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H37" t="n">
         <v>4.0</v>
@@ -5437,13 +5479,13 @@
         <v>10.0</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N37" t="n">
         <v>11122.0</v>
@@ -5461,10 +5503,10 @@
         <v>50.1</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U37" t="n">
         <v>-0.0261960595479308</v>
@@ -5539,10 +5581,10 @@
         <v>0.6698731962813447</v>
       </c>
       <c r="AS37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AT37" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -5550,22 +5592,22 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H38" t="n">
         <v>4.0</v>
@@ -5577,13 +5619,13 @@
         <v>5.0</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N38" t="n">
         <v>4193.0</v>
@@ -5601,10 +5643,10 @@
         <v>28.33</v>
       </c>
       <c r="S38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U38" t="n">
         <v>0.006592383453652403</v>
@@ -5679,10 +5721,10 @@
         <v>0.6184461308813388</v>
       </c>
       <c r="AS38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AT38" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -5690,22 +5732,22 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H39" t="n">
         <v>4.0</v>
@@ -5717,13 +5759,13 @@
         <v>5.0</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N39" t="n">
         <v>4193.0</v>
@@ -5741,10 +5783,10 @@
         <v>28.33</v>
       </c>
       <c r="S39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U39" t="n">
         <v>-0.027848059853140927</v>
@@ -5819,10 +5861,10 @@
         <v>0.6184461308813388</v>
       </c>
       <c r="AS39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AT39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -5830,22 +5872,22 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H40" t="n">
         <v>4.0</v>
@@ -5857,13 +5899,13 @@
         <v>5.0</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N40" t="n">
         <v>4193.0</v>
@@ -5881,10 +5923,10 @@
         <v>28.33</v>
       </c>
       <c r="S40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U40" t="n">
         <v>-0.0436300697133663</v>
@@ -5959,10 +6001,10 @@
         <v>0.6184461308813388</v>
       </c>
       <c r="AS40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AT40" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -5970,22 +6012,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H41" t="n">
         <v>4.0</v>
@@ -5997,13 +6039,13 @@
         <v>5.0</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N41" t="n">
         <v>4193.0</v>
@@ -6021,10 +6063,10 @@
         <v>28.33</v>
       </c>
       <c r="S41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U41" t="n">
         <v>-0.021255676399488523</v>
@@ -6099,10 +6141,10 @@
         <v>0.6184461308813388</v>
       </c>
       <c r="AS41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AT41" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -6110,22 +6152,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H42" t="n">
         <v>4.0</v>
@@ -6137,13 +6179,13 @@
         <v>5.0</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N42" t="n">
         <v>12918.0</v>
@@ -6161,10 +6203,10 @@
         <v>37.59</v>
       </c>
       <c r="S42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U42" t="n">
         <v>0.006273251174908525</v>
@@ -6239,10 +6281,10 @@
         <v>0.6692008653644839</v>
       </c>
       <c r="AS42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AT42" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -6250,22 +6292,22 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H43" t="n">
         <v>4.0</v>
@@ -6277,13 +6319,13 @@
         <v>5.0</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N43" t="n">
         <v>12918.0</v>
@@ -6301,10 +6343,10 @@
         <v>37.59</v>
       </c>
       <c r="S43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U43" t="n">
         <v>-0.041861218827202715</v>
@@ -6379,10 +6421,10 @@
         <v>0.6692008653644839</v>
       </c>
       <c r="AS43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AT43" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -6390,22 +6432,22 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H44" t="n">
         <v>4.0</v>
@@ -6417,13 +6459,13 @@
         <v>5.0</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N44" t="n">
         <v>12918.0</v>
@@ -6441,10 +6483,10 @@
         <v>37.59</v>
       </c>
       <c r="S44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U44" t="n">
         <v>-0.034079598322572804</v>
@@ -6519,10 +6561,10 @@
         <v>0.6692008653644839</v>
       </c>
       <c r="AS44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AT44" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -6530,22 +6572,22 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H45" t="n">
         <v>4.0</v>
@@ -6557,13 +6599,13 @@
         <v>5.0</v>
       </c>
       <c r="K45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N45" t="n">
         <v>12918.0</v>
@@ -6581,10 +6623,10 @@
         <v>37.59</v>
       </c>
       <c r="S45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U45" t="n">
         <v>-0.03558796765229419</v>
@@ -6659,10 +6701,10 @@
         <v>0.6692008653644839</v>
       </c>
       <c r="AS45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AT45" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -6670,22 +6712,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H46" t="n">
         <v>4.0</v>
@@ -6697,13 +6739,13 @@
         <v>5.0</v>
       </c>
       <c r="K46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N46" t="n">
         <v>11122.0</v>
@@ -6721,10 +6763,10 @@
         <v>503.0</v>
       </c>
       <c r="S46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U46" t="n">
         <v>0.006643368970623819</v>
@@ -6799,10 +6841,10 @@
         <v>0.7024491372642251</v>
       </c>
       <c r="AS46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AT46" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
@@ -6810,22 +6852,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H47" t="n">
         <v>4.0</v>
@@ -6837,13 +6879,13 @@
         <v>5.0</v>
       </c>
       <c r="K47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N47" t="n">
         <v>11122.0</v>
@@ -6861,10 +6903,10 @@
         <v>503.0</v>
       </c>
       <c r="S47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U47" t="n">
         <v>-0.05396138039753993</v>
@@ -6939,10 +6981,10 @@
         <v>0.7024491372642251</v>
       </c>
       <c r="AS47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AT47" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -6950,22 +6992,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H48" t="n">
         <v>4.0</v>
@@ -6977,13 +7019,13 @@
         <v>5.0</v>
       </c>
       <c r="K48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L48" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N48" t="n">
         <v>11122.0</v>
@@ -7001,10 +7043,10 @@
         <v>503.0</v>
       </c>
       <c r="S48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U48" t="n">
         <v>-0.06348215421786263</v>
@@ -7079,10 +7121,10 @@
         <v>0.7024491372642251</v>
       </c>
       <c r="AS48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AT48" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
@@ -7090,22 +7132,22 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H49" t="n">
         <v>4.0</v>
@@ -7117,13 +7159,13 @@
         <v>5.0</v>
       </c>
       <c r="K49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N49" t="n">
         <v>11122.0</v>
@@ -7141,10 +7183,10 @@
         <v>503.0</v>
       </c>
       <c r="S49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U49" t="n">
         <v>-0.04731801142691611</v>
@@ -7219,10 +7261,10 @@
         <v>0.7024491372642251</v>
       </c>
       <c r="AS49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AT49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
@@ -7230,22 +7272,22 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H50" t="n">
         <v>4.0</v>
@@ -7257,13 +7299,13 @@
         <v>5.0</v>
       </c>
       <c r="K50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N50" t="n">
         <v>11122.0</v>
@@ -7281,10 +7323,10 @@
         <v>299.58</v>
       </c>
       <c r="S50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U50" t="n">
         <v>0.006641604859746193</v>
@@ -7359,10 +7401,10 @@
         <v>0.7847202224574051</v>
       </c>
       <c r="AS50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AT50" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
@@ -7370,22 +7412,22 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H51" t="n">
         <v>4.0</v>
@@ -7397,13 +7439,13 @@
         <v>5.0</v>
       </c>
       <c r="K51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N51" t="n">
         <v>11122.0</v>
@@ -7421,10 +7463,10 @@
         <v>299.58</v>
       </c>
       <c r="S51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U51" t="n">
         <v>-0.057604298339297824</v>
@@ -7499,10 +7541,10 @@
         <v>0.7847202224574051</v>
       </c>
       <c r="AS51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AT51" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
@@ -7510,22 +7552,22 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
         <v>4.0</v>
@@ -7537,13 +7579,13 @@
         <v>5.0</v>
       </c>
       <c r="K52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N52" t="n">
         <v>11122.0</v>
@@ -7561,10 +7603,10 @@
         <v>299.58</v>
       </c>
       <c r="S52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U52" t="n">
         <v>-0.03303811524983185</v>
@@ -7639,10 +7681,10 @@
         <v>0.7847202224574051</v>
       </c>
       <c r="AS52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AT52" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
@@ -7650,22 +7692,22 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H53" t="n">
         <v>4.0</v>
@@ -7677,13 +7719,13 @@
         <v>5.0</v>
       </c>
       <c r="K53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N53" t="n">
         <v>11122.0</v>
@@ -7701,10 +7743,10 @@
         <v>299.58</v>
       </c>
       <c r="S53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U53" t="n">
         <v>-0.05096269347955163</v>
@@ -7779,10 +7821,10 @@
         <v>0.7847202224574051</v>
       </c>
       <c r="AS53" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AT53" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
@@ -7790,22 +7832,22 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H54" t="n">
         <v>4.0</v>
@@ -7817,13 +7859,13 @@
         <v>20.0</v>
       </c>
       <c r="K54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N54" t="n">
         <v>11122.0</v>
@@ -7841,10 +7883,10 @@
         <v>50.46</v>
       </c>
       <c r="S54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U54" t="n">
         <v>0.006448414444749802</v>
@@ -7919,10 +7961,10 @@
         <v>0.670904004914734</v>
       </c>
       <c r="AS54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AT54" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
@@ -7930,22 +7972,22 @@
         <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H55" t="n">
         <v>4.0</v>
@@ -7957,13 +7999,13 @@
         <v>20.0</v>
       </c>
       <c r="K55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N55" t="n">
         <v>11122.0</v>
@@ -7981,10 +8023,10 @@
         <v>50.46</v>
       </c>
       <c r="S55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U55" t="n">
         <v>-0.03250071298585326</v>
@@ -8059,10 +8101,10 @@
         <v>0.670904004914734</v>
       </c>
       <c r="AS55" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AT55" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
@@ -8070,22 +8112,22 @@
         <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H56" t="n">
         <v>4.0</v>
@@ -8097,13 +8139,13 @@
         <v>20.0</v>
       </c>
       <c r="K56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L56" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N56" t="n">
         <v>11122.0</v>
@@ -8121,10 +8163,10 @@
         <v>50.46</v>
       </c>
       <c r="S56" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U56" t="n">
         <v>-0.03172562267050359</v>
@@ -8199,10 +8241,10 @@
         <v>0.670904004914734</v>
       </c>
       <c r="AS56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AT56" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
@@ -8210,22 +8252,22 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H57" t="n">
         <v>4.0</v>
@@ -8237,13 +8279,13 @@
         <v>20.0</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L57" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N57" t="n">
         <v>11122.0</v>
@@ -8261,10 +8303,10 @@
         <v>50.46</v>
       </c>
       <c r="S57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U57" t="n">
         <v>-0.02605229854110346</v>
@@ -8339,10 +8381,2810 @@
         <v>0.670904004914734</v>
       </c>
       <c r="AS57" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AT57" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" t="s">
+        <v>65</v>
+      </c>
+      <c r="M58" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>67.46</v>
+      </c>
+      <c r="R58" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="S58" t="s">
+        <v>53</v>
+      </c>
+      <c r="T58" t="s">
+        <v>67</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.006371435288440104</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.006349894673082725</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.008835421602773464</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0066260381684915</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.7995771009416214</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.023521169658376</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.4446816879036029</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.32623529519779904</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.006344697117192867</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.006398173459687341</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.0063298426426075475</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.0063699467035579025</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.818320231145076</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.17813017444415422</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.5628410030125842</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.7351676388101983</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.49200326704981945</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.5203117349104747</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>249.24099106839657</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>267.0579899256722</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.4135433645930608</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0.45476274356301294</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.6429160410450434</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.6737560235239982</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>61</v>
+      </c>
+      <c r="L59" t="s">
+        <v>65</v>
+      </c>
+      <c r="M59" t="s">
+        <v>56</v>
+      </c>
+      <c r="N59" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>67.46</v>
+      </c>
+      <c r="R59" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="S59" t="s">
+        <v>66</v>
+      </c>
+      <c r="T59" t="s">
+        <v>68</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.03733512203077081</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.03650556</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.015654990053559296</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.015625567218425913</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-2.3847454032099997</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-2.3981319471116085</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.0177729119837947</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.017036398963200656</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.03738249790299794</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.037287746158543675</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.037520313256930594</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.03742573959403026</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.818320231145076</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.17813017444415422</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.5628410030125842</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.7351676388101983</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.49200326704981945</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.5203117349104747</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>249.24099106839657</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>267.0579899256722</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.4135433645930608</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.45476274356301294</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.6429160410450434</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.6737560235239982</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" t="s">
+        <v>65</v>
+      </c>
+      <c r="M60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>67.46</v>
+      </c>
+      <c r="R60" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="S60" t="s">
+        <v>66</v>
+      </c>
+      <c r="T60" t="s">
+        <v>69</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.030874005992294874</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.03133789</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.01385699320678163</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.013831512477596113</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-2.228087244209481</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-2.25279544157427</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.027429220165683138</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.025664921309845868</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.030915940681321873</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.030832071303267875</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.03120194306809476</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.031118227912019316</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.818320231145076</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0.17813017444415422</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.5628410030125842</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.7351676388101983</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.49200326704981945</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.5203117349104747</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>249.24099106839657</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>267.0579899256722</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.4135433645930608</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.45476274356301294</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.6429160410450434</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.6737560235239982</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" t="s">
+        <v>65</v>
+      </c>
+      <c r="M61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>11122.0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>67.46</v>
+      </c>
+      <c r="R61" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="S61" t="s">
+        <v>56</v>
+      </c>
+      <c r="T61" t="s">
+        <v>70</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-0.030963686742330708</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-0.031253618093149735</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.013067226751887328</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.010576719607734986</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>-2.707815198793029</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>-3.100592402759909</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.033546761656183324</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.005817863903513691</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>-0.03100323140271327</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>-0.030924142081948144</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>-0.03128562586287709</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>-0.031221610323422383</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.818320231145076</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.17813017444415422</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.5628410030125842</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.7351676388101983</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.49200326704981945</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.5203117349104747</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>249.24099106839657</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>267.0579899256722</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.4135433645930608</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.45476274356301294</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.6429160410450434</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.6737560235239982</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" t="s">
+        <v>65</v>
+      </c>
+      <c r="M62" t="s">
+        <v>56</v>
+      </c>
+      <c r="N62" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="R62" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="S62" t="s">
+        <v>53</v>
+      </c>
+      <c r="T62" t="s">
+        <v>67</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.008253608851534085</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.008564520249436056</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.009681500191478391</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0075217827823812825</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.9428289150329986</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.9582929698671036</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.37278792253045945</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.33793571277882595</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.008224426745076917</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.008282790957991254</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.008541847991876598</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0.008587192506995514</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0.8285460228182574</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0.1949834531196012</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.5679117762387909</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0.739180346677465</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.44072230863529765</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0.45069037440290394</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>115.61887532352539</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>108.49585306132035</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.3190618564261397</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.34770484116916933</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.5646754050625378</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.5887967464714229</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>61</v>
+      </c>
+      <c r="L63" t="s">
+        <v>65</v>
+      </c>
+      <c r="M63" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="R63" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="S63" t="s">
+        <v>66</v>
+      </c>
+      <c r="T63" t="s">
+        <v>68</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.0047402586184581074</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.004285150866990912</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.01438206556848087</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.01420561104443899</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.32365777852982885</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.29219920469800476</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.7508309161983291</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.770139726609879</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.00478360923150285</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.004696908005413365</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.004327969608465794</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.0042423321255160296</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0.8285460228182574</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0.1949834531196012</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.5679117762387909</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.739180346677465</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.44072230863529765</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.45069037440290394</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>115.61887532352539</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>108.49585306132035</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.3190618564261397</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.34770484116916933</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.5646754050625378</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.5887967464714229</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>61</v>
+      </c>
+      <c r="L64" t="s">
+        <v>65</v>
+      </c>
+      <c r="M64" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="R64" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="S64" t="s">
+        <v>66</v>
+      </c>
+      <c r="T64" t="s">
+        <v>69</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.03709678037693084</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.03765611476403644</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.012472270173675791</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.012459521290572997</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-2.9744738218490454</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-3.0023903873892412</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.002964322934378326</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0.0026845881089658753</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.03713437445933256</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.03705918629452911</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.0376936704185854</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.037618559109487484</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0.8285460228182574</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0.1949834531196012</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0.5679117762387909</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0.739180346677465</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.44072230863529765</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0.45069037440290394</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>115.61887532352539</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>108.49585306132035</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.3190618564261397</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>0.34770484116916933</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.5646754050625378</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.5887967464714229</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" t="s">
+        <v>65</v>
+      </c>
+      <c r="M65" t="s">
+        <v>56</v>
+      </c>
+      <c r="N65" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>11669.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="R65" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="S65" t="s">
+        <v>56</v>
+      </c>
+      <c r="T65" t="s">
+        <v>70</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.003513350233075977</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.004723735968930212</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.011610184093883506</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.00933861504541775</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.2992141681076704</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.4543897098511299</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.7366588038615519</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.6495571545095801</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.0034783546619853267</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.0035483458041666274</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.004695587391434158</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0.004751884546426266</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0.8285460228182574</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0.1949834531196012</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0.5679117762387909</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0.739180346677465</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.44072230863529765</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0.45069037440290394</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>115.61887532352539</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>108.49585306132035</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.3190618564261397</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.34770484116916933</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.5646754050625378</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.5887967464714229</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" t="s">
+        <v>65</v>
+      </c>
+      <c r="M66" t="s">
+        <v>56</v>
+      </c>
+      <c r="N66" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="R66" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="S66" t="s">
+        <v>53</v>
+      </c>
+      <c r="T66" t="s">
+        <v>67</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.009994502692567556</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.009889201310358725</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.011245866537053532</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.007332890244147518</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.986179936822446</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.0997176778999855</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.3639122623720405</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0.27147876363894025</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.009960605252295205</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.010028400132839907</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.009867098415196692</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0.009911304205520758</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0.8289791956801498</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0.1990241558472325</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0.5694054733033215</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0.7413000564093347</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.36740353084504235</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0.37033648340412173</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>75.0374466646343</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>73.09091392117269</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.22724764507575984</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.23430703066196384</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.4764539291367848</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.483572402718819</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>61</v>
+      </c>
+      <c r="L67" t="s">
+        <v>65</v>
+      </c>
+      <c r="M67" t="s">
+        <v>56</v>
+      </c>
+      <c r="N67" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="R67" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="S67" t="s">
+        <v>66</v>
+      </c>
+      <c r="T67" t="s">
+        <v>68</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.03545825491364206</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.03564186327586076</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.011670592565565121</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.011655284494592539</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-3.0393327249320796</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-3.058856084611648</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0.002563888562872252</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.0022270809844819766</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.03549343256875034</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.03542307725853378</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.035676994789178205</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.035606731762543316</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0.8289791956801498</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0.1990241558472325</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0.5694054733033215</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0.7413000564093347</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.36740353084504235</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0.37033648340412173</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>75.0374466646343</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>73.09091392117269</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.22724764507575984</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.23430703066196384</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.4764539291367848</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0.483572402718819</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" t="s">
+        <v>65</v>
+      </c>
+      <c r="M68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="R68" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="S68" t="s">
+        <v>66</v>
+      </c>
+      <c r="T68" t="s">
+        <v>69</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-0.02587040803268037</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-0.02534420319264114</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.010105018176304053</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.010090615015721983</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>-2.5601299403975815</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>-2.499152976150821</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.012602819036202542</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.012463245037604946</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>-0.02590086671267214</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>-0.025839949352688598</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>-0.025374618458434996</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>-0.02531378792684728</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0.8289791956801498</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0.1990241558472325</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.5694054733033215</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.7413000564093347</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.36740353084504235</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0.37033648340412173</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>75.0374466646343</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>73.09091392117269</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.22724764507575984</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.23430703066196384</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.4764539291367848</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.483572402718819</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" t="s">
+        <v>65</v>
+      </c>
+      <c r="M69" t="s">
+        <v>56</v>
+      </c>
+      <c r="N69" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>11654.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="R69" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="S69" t="s">
+        <v>56</v>
+      </c>
+      <c r="T69" t="s">
+        <v>70</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-0.025463752221074505</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-0.02517901558954081</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.012314261322289499</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.007870809066312063</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>-2.3832703696361675</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>-3.2001126452735225</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.06335055240133736</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0.0013775653465685647</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>-0.025500870031097866</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>-0.025426634411051145</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>-0.025202739886760712</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>-0.02515529129232091</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0.8289791956801498</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0.1990241558472325</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0.5694054733033215</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0.7413000564093347</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.36740353084504235</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0.37033648340412173</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>75.0374466646343</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>73.09091392117269</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.22724764507575984</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.23430703066196384</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.4764539291367848</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.483572402718819</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" t="s">
+        <v>65</v>
+      </c>
+      <c r="M70" t="s">
+        <v>56</v>
+      </c>
+      <c r="N70" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="R70" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="S70" t="s">
+        <v>53</v>
+      </c>
+      <c r="T70" t="s">
+        <v>67</v>
+      </c>
+      <c r="U70" t="n">
+        <v>-0.010310826392416528</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-0.010165540234057602</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.010060166517475735</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.006866538278717453</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>-1.0789453416134906</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>-1.4647077185367168</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.3008595864566051</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0.14302871889049285</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>-0.010341149879942585</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>-0.010280502904890472</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>-0.010186237444931814</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>-0.01014484302318339</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0.8285619814544253</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0.1955020402495838</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0.5680891247709275</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0.7393640662062063</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.4865552380070391</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0.5288601699009153</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>108.73071853843709</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>113.81799660120052</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.361552715706963</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.422641141598642</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.6011389740214533</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.6494144405896527</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>61</v>
+      </c>
+      <c r="L71" t="s">
+        <v>65</v>
+      </c>
+      <c r="M71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N71" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="R71" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="S71" t="s">
+        <v>66</v>
+      </c>
+      <c r="T71" t="s">
+        <v>68</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.031227808435374746</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.030483613016694954</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.015396907792549841</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.015348062611707005</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.02674194524185</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.995320281637818</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.04666839193869839</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0.046032118322011976</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.031181398871420095</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.0312742179993294</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.030437350682533112</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0.030529875350856796</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0.8285619814544253</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0.1955020402495838</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0.5680891247709275</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0.7393640662062063</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.4865552380070391</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0.5288601699009153</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>108.73071853843709</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>113.81799660120052</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.361552715706963</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.422641141598642</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.6011389740214533</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.6494144405896527</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" t="s">
+        <v>65</v>
+      </c>
+      <c r="M72" t="s">
+        <v>56</v>
+      </c>
+      <c r="N72" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="R72" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="S72" t="s">
+        <v>66</v>
+      </c>
+      <c r="T72" t="s">
+        <v>69</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.03767241730417356</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.03787974894363263</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.013669972093216949</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.013625686154591194</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.756031445433101</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2.7720841528368725</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.005965966062003287</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0.005579053104093117</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.03763121309273927</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.03771362151560785</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.037838678219462706</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0.03792081966780255</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0.8285619814544253</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0.1955020402495838</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0.5680891247709275</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0.7393640662062063</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0.4865552380070391</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0.5288601699009153</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>108.73071853843709</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>113.81799660120052</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.361552715706963</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0.422641141598642</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.6011389740214533</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.6494144405896527</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>61</v>
+      </c>
+      <c r="L73" t="s">
+        <v>65</v>
+      </c>
+      <c r="M73" t="s">
+        <v>56</v>
+      </c>
+      <c r="N73" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>11659.0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="R73" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="S73" t="s">
+        <v>56</v>
+      </c>
+      <c r="T73" t="s">
+        <v>70</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.02091698204295822</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.020143901762865894</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.019043926703224315</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.014852177067307666</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.2085847484390309</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.5144208529293592</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0.2572216840034421</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0.1299473245248041</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.02085957958616695</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.02097438449974949</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.020099134133497835</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0.020188669392233953</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0.8285619814544253</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0.1955020402495838</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.5680891247709275</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0.7393640662062063</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.4865552380070391</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0.5288601699009153</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>108.73071853843709</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>113.81799660120052</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.361552715706963</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.422641141598642</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.6011389740214533</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.6494144405896527</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" t="s">
+        <v>65</v>
+      </c>
+      <c r="M74" t="s">
+        <v>56</v>
+      </c>
+      <c r="N74" t="n">
+        <v>11529.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>11504.0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="R74" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="S74" t="s">
+        <v>53</v>
+      </c>
+      <c r="T74" t="s">
+        <v>67</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.003350273699731608</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.0030230401824217035</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.008434619086378185</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.006987583189841391</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.42175736393385</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.3825701771000648</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.6819476423947116</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0.7020457966349447</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.0033247484560391055</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.0033757989434241107</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.003001894027282299</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0.003044186337561108</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0.8168756512116474</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0.2115989485069856</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0.5777056058612534</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0.6916739393678365</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0.516014741765388</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0.562349827141345</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>265.39891439306825</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>322.362497816</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.4533740570456227</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.8985578965649031</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.6731375679834714</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.7770165662821114</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>61</v>
+      </c>
+      <c r="L75" t="s">
+        <v>65</v>
+      </c>
+      <c r="M75" t="s">
+        <v>56</v>
+      </c>
+      <c r="N75" t="n">
+        <v>11529.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>11504.0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="R75" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="S75" t="s">
+        <v>66</v>
+      </c>
+      <c r="T75" t="s">
+        <v>68</v>
+      </c>
+      <c r="U75" t="n">
+        <v>-0.05616464763249477</v>
+      </c>
+      <c r="V75" t="n">
+        <v>-0.054807964671137</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.04046716473851448</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.029445329882820184</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>-1.6525658249868311</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>-1.9352917142879282</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.16307079477885147</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0.05297982668102119</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>-0.05628711128271027</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>-0.05604218398227927</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>-0.05489707352278377</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>-0.05471885581949023</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0.8168756512116474</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0.2115989485069856</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0.5777056058612534</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0.6916739393678365</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.516014741765388</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.562349827141345</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>265.39891439306825</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>322.362497816</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.4533740570456227</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.8985578965649031</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.6731375679834714</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.7770165662821114</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s">
+        <v>60</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>61</v>
+      </c>
+      <c r="L76" t="s">
+        <v>65</v>
+      </c>
+      <c r="M76" t="s">
+        <v>56</v>
+      </c>
+      <c r="N76" t="n">
+        <v>11529.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>11504.0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="R76" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="S76" t="s">
+        <v>66</v>
+      </c>
+      <c r="T76" t="s">
+        <v>69</v>
+      </c>
+      <c r="U76" t="n">
+        <v>-0.03614402541854042</v>
+      </c>
+      <c r="V76" t="n">
+        <v>-0.03803203370248757</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.014628238162234143</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.014492084983398964</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>-2.4720394326853525</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>-2.6243314020069706</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0.01943884261975269</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0.008693790682248749</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>-0.036188294085573176</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>-0.036099756751507665</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>-0.03807589033632313</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>-0.037988177068652006</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0.8168756512116474</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0.2115989485069856</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0.5777056058612534</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0.6916739393678365</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0.516014741765388</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0.562349827141345</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>265.39891439306825</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>322.362497816</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.4533740570456227</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.8985578965649031</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.6731375679834714</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.7770165662821114</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s">
+        <v>60</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>61</v>
+      </c>
+      <c r="L77" t="s">
+        <v>65</v>
+      </c>
+      <c r="M77" t="s">
+        <v>56</v>
+      </c>
+      <c r="N77" t="n">
+        <v>11529.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>11504.0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="R77" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="S77" t="s">
+        <v>56</v>
+      </c>
+      <c r="T77" t="s">
+        <v>70</v>
+      </c>
+      <c r="U77" t="n">
+        <v>-0.052814373932763156</v>
+      </c>
+      <c r="V77" t="n">
+        <v>-0.04954976781341454</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.029289208061990975</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.024025754068989057</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>-1.8074339146071121</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>-2.0154011576408255</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.07601311716957833</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0.043886641993063004</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>-0.052903010321162736</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>-0.05272573754436358</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>-0.04962247568809468</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>-0.0494770599387344</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0.8168756512116474</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0.2115989485069856</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0.5777056058612534</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>0.6916739393678365</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.516014741765388</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0.562349827141345</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>265.39891439306825</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>322.362497816</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.4533740570456227</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0.8985578965649031</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.6731375679834714</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.7770165662821114</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
+++ b/Output/DML/Treatment_Effects/DML_BINARY_ESTIMATION_RESULTS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="110">
   <si>
     <t>outcome</t>
   </si>
@@ -188,15 +188,15 @@
     <t>lasso</t>
   </si>
   <si>
+    <t>randomforests</t>
+  </si>
+  <si>
+    <t>postlasso</t>
+  </si>
+  <si>
     <t>xgboost</t>
   </si>
   <si>
-    <t>randomforests</t>
-  </si>
-  <si>
-    <t>postlasso</t>
-  </si>
-  <si>
     <t>0.01</t>
   </si>
   <si>
@@ -245,9 +245,6 @@
     <t>1.98079201916854 hours</t>
   </si>
   <si>
-    <t>3.35521794802613 hours</t>
-  </si>
-  <si>
     <t>1.74522621002462 hours</t>
   </si>
   <si>
@@ -275,21 +272,12 @@
     <t>25.6455256274674 hours</t>
   </si>
   <si>
-    <t>32.0113890408145 hours</t>
-  </si>
-  <si>
     <t>16.4780809044176 hours</t>
   </si>
   <si>
     <t>16.4780811536312 hours</t>
   </si>
   <si>
-    <t>2.04929691500134 hours</t>
-  </si>
-  <si>
-    <t>2.04929711421331 hours</t>
-  </si>
-  <si>
     <t>20.7465920177433 hours</t>
   </si>
   <si>
@@ -302,6 +290,9 @@
     <t>16.9994957322545 hours</t>
   </si>
   <si>
+    <t>27.6375979252656 hours</t>
+  </si>
+  <si>
     <t>2023-03-29 16:35:53</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>2023-03-29 23:38:12</t>
   </si>
   <si>
-    <t>2023-03-30 10:29:29</t>
-  </si>
-  <si>
     <t>2023-03-30 12:21:50</t>
   </si>
   <si>
@@ -338,15 +326,9 @@
     <t>2023-04-01 21:10:23</t>
   </si>
   <si>
-    <t>2023-04-03 06:55:58</t>
-  </si>
-  <si>
     <t>2023-04-04 00:46:31</t>
   </si>
   <si>
-    <t>2023-03-29 14:25:59</t>
-  </si>
-  <si>
     <t>2023-04-02 06:22:51</t>
   </si>
   <si>
@@ -357,6 +339,9 @@
   </si>
   <si>
     <t>2023-04-04 11:38:12</t>
+  </si>
+  <si>
+    <t>2023-04-05 16:42:56</t>
   </si>
 </sst>
 </file>
@@ -684,7 +669,7 @@
         <v>71</v>
       </c>
       <c r="AT2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -824,7 +809,7 @@
         <v>72</v>
       </c>
       <c r="AT3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -964,7 +949,7 @@
         <v>72</v>
       </c>
       <c r="AT4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -1104,7 +1089,7 @@
         <v>72</v>
       </c>
       <c r="AT5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -1244,7 +1229,7 @@
         <v>73</v>
       </c>
       <c r="AT6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1384,7 +1369,7 @@
         <v>74</v>
       </c>
       <c r="AT7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1524,7 +1509,7 @@
         <v>74</v>
       </c>
       <c r="AT8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1664,7 +1649,7 @@
         <v>74</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1804,7 +1789,7 @@
         <v>75</v>
       </c>
       <c r="AT10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -1944,7 +1929,7 @@
         <v>75</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -2084,7 +2069,7 @@
         <v>75</v>
       </c>
       <c r="AT12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2224,7 +2209,7 @@
         <v>75</v>
       </c>
       <c r="AT13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -2364,7 +2349,7 @@
         <v>76</v>
       </c>
       <c r="AT14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -2504,7 +2489,7 @@
         <v>76</v>
       </c>
       <c r="AT15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -2644,7 +2629,7 @@
         <v>76</v>
       </c>
       <c r="AT16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -2784,7 +2769,7 @@
         <v>76</v>
       </c>
       <c r="AT17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +2783,7 @@
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>56</v>
@@ -2807,7 +2792,7 @@
         <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" t="n">
         <v>4.0</v>
@@ -2828,19 +2813,19 @@
         <v>56</v>
       </c>
       <c r="N18" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O18" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P18" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R18" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S18" t="s">
         <v>53</v>
@@ -2849,82 +2834,82 @@
         <v>67</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007265956359590852</v>
+        <v>0.009959434591466974</v>
       </c>
       <c r="V18" t="n">
-        <v>0.007265603265574789</v>
+        <v>0.01008066321876806</v>
       </c>
       <c r="W18" t="n">
-        <v>0.008464622702830231</v>
+        <v>0.009337200323702284</v>
       </c>
       <c r="X18" t="n">
-        <v>0.007097908530392786</v>
+        <v>0.00744536669866714</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9417761392393852</v>
+        <v>1.1702981167534114</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.0730867409046763</v>
+        <v>1.3986766442515342</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.36309571450025974</v>
+        <v>0.2721963450486084</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.2971851510870752</v>
+        <v>0.17714718523178571</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0072403403175334505</v>
+        <v>0.009931805394029389</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.007291572401648254</v>
+        <v>0.009987063788904559</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.007244123238665457</v>
+        <v>0.010058632042464547</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.007287083292484122</v>
+        <v>0.010102694395071572</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM18" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN18" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS18" t="s">
         <v>77</v>
       </c>
       <c r="AT18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -2938,7 +2923,7 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -2947,7 +2932,7 @@
         <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" t="n">
         <v>4.0</v>
@@ -2968,19 +2953,19 @@
         <v>56</v>
       </c>
       <c r="N19" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O19" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P19" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R19" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S19" t="s">
         <v>66</v>
@@ -2989,82 +2974,82 @@
         <v>68</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.044527378940143136</v>
+        <v>-0.034043430492341</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.04406046472085469</v>
+        <v>-0.03402371271890677</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01686779047655072</v>
+        <v>0.012877491688555492</v>
       </c>
       <c r="X19" t="n">
-        <v>0.016717409251445485</v>
+        <v>0.012855374856798378</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.638946046954927</v>
+        <v>-2.6435941753533303</v>
       </c>
       <c r="Z19" t="n">
-        <v>-2.6358448927677385</v>
+        <v>-2.646668770221295</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.009592441257260057</v>
+        <v>0.008259851306343659</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.009315636586698489</v>
+        <v>0.008184490733128574</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.04457842504644133</v>
+        <v>-0.03408153557181121</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.044476332833844945</v>
+        <v>-0.03400532541287079</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.04411105573636831</v>
+        <v>-0.03406175235367299</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.04400987370534107</v>
+        <v>-0.03398567308414056</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM19" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN19" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -3078,7 +3063,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -3087,7 +3072,7 @@
         <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" t="n">
         <v>4.0</v>
@@ -3108,19 +3093,19 @@
         <v>56</v>
       </c>
       <c r="N20" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O20" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P20" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R20" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S20" t="s">
         <v>66</v>
@@ -3129,82 +3114,82 @@
         <v>69</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.05366051909442953</v>
+        <v>-0.031557234879080784</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.05357656834275938</v>
+        <v>-0.03150651124045617</v>
       </c>
       <c r="W20" t="n">
-        <v>0.014597276930108727</v>
+        <v>0.00870191157178809</v>
       </c>
       <c r="X20" t="n">
-        <v>0.014499424423669152</v>
+        <v>0.008661946679615921</v>
       </c>
       <c r="Y20" t="n">
-        <v>-3.6767241723853807</v>
+        <v>-3.626810659922851</v>
       </c>
       <c r="Z20" t="n">
-        <v>-3.695047071440695</v>
+        <v>-3.637472496125699</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.840946091963267E-4</v>
+        <v>3.0384197757426476E-4</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.406302457323735E-4</v>
+        <v>2.926700388296849E-4</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.05370469406511549</v>
+        <v>-0.031582984228411014</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.053616344123743574</v>
+        <v>-0.031531485529750554</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.05362044718755664</v>
+        <v>-0.0315321423318656</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.053532689497962124</v>
+        <v>-0.03148088014904674</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM20" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN20" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -3218,7 +3203,7 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -3227,7 +3212,7 @@
         <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" t="n">
         <v>4.0</v>
@@ -3248,19 +3233,19 @@
         <v>56</v>
       </c>
       <c r="N21" t="n">
-        <v>11122.0</v>
+        <v>11633.0</v>
       </c>
       <c r="O21" t="n">
-        <v>11122.0</v>
+        <v>11631.0</v>
       </c>
       <c r="P21" t="n">
-        <v>503.0</v>
+        <v>28.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>503.0</v>
+        <v>60.7</v>
       </c>
       <c r="R21" t="n">
-        <v>503.0</v>
+        <v>55.69</v>
       </c>
       <c r="S21" t="s">
         <v>56</v>
@@ -3269,82 +3254,82 @@
         <v>70</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.03726142258055229</v>
+        <v>-0.02408399590087403</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.03667204175774002</v>
+        <v>-0.02414951370628158</v>
       </c>
       <c r="W21" t="n">
-        <v>0.012774226085947128</v>
+        <v>0.010641660454505405</v>
       </c>
       <c r="X21" t="n">
-        <v>0.010091526830639444</v>
+        <v>0.008600032694828957</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3.0240934595909055</v>
+        <v>-2.4246282573061935</v>
       </c>
       <c r="Z21" t="n">
-        <v>-3.7524057392697823</v>
+        <v>-2.907328125303643</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.005040080911998949</v>
+        <v>0.03645426280070069</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.669632231858349E-4</v>
+        <v>0.009429785801723012</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.03730008054844482</v>
+        <v>-0.024115485054749725</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.03722276461265976</v>
+        <v>-0.024052506746998333</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.036702581214109485</v>
+        <v>-0.024174961591413906</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.03664150230137055</v>
+        <v>-0.024124065821149253</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.8388831121704364</v>
+        <v>0.6849210290056714</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.2989617620020015</v>
+        <v>0.3583045992291857</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.6098995853173019</v>
+        <v>0.6771139972539376</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.7464864220505205</v>
+        <v>0.758905855789483</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.5234266349191851</v>
+        <v>0.5050419191563045</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.5376956708922177</v>
+        <v>0.4837735327240595</v>
       </c>
       <c r="AM21" t="n">
-        <v>249.32719847196938</v>
+        <v>296.21099690028757</v>
       </c>
       <c r="AN21" t="n">
-        <v>281.0184876878724</v>
+        <v>263.5519959831769</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.46162469935080175</v>
+        <v>0.43318221322812295</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.4824715860833063</v>
+        <v>0.399951935606069</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.6792972089564834</v>
+        <v>0.6578865626911459</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.6938770444779193</v>
+        <v>0.6322230697148145</v>
       </c>
       <c r="AS21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -3358,7 +3343,7 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -3385,22 +3370,22 @@
         <v>65</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N22" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O22" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R22" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S22" t="s">
         <v>53</v>
@@ -3409,82 +3394,82 @@
         <v>67</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959434591466974</v>
+        <v>0.0045691114269140135</v>
       </c>
       <c r="V22" t="n">
-        <v>0.01008066321876806</v>
+        <v>0.004588742593562097</v>
       </c>
       <c r="W22" t="n">
-        <v>0.009337200323702284</v>
+        <v>0.008758528433001131</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00744536669866714</v>
+        <v>0.0066891459312466975</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.1702981167534114</v>
+        <v>0.6041770762148625</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.3986766442515342</v>
+        <v>0.7436610379770894</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.2721963450486084</v>
+        <v>0.5627598934720724</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.17714718523178571</v>
+        <v>0.46979217368965287</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.009931805394029389</v>
+        <v>0.004542605953418344</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.009987063788904559</v>
+        <v>0.004595616900409683</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.010058632042464547</v>
+        <v>0.0045684995833868616</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.010102694395071572</v>
+        <v>0.004608985603737332</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM22" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN22" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -3498,7 +3483,7 @@
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
@@ -3525,22 +3510,22 @@
         <v>65</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N23" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O23" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P23" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R23" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S23" t="s">
         <v>66</v>
@@ -3549,82 +3534,82 @@
         <v>68</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.034043430492341</v>
+        <v>-0.033275250146046605</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.03402371271890677</v>
+        <v>-0.03322751294439183</v>
       </c>
       <c r="W23" t="n">
-        <v>0.012877491688555492</v>
+        <v>0.016518849880508706</v>
       </c>
       <c r="X23" t="n">
-        <v>0.012855374856798378</v>
+        <v>0.016520844821897515</v>
       </c>
       <c r="Y23" t="n">
-        <v>-2.6435941753533303</v>
+        <v>-2.014228485763388</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2.646668770221295</v>
+        <v>-2.011127162817041</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.008259851306343659</v>
+        <v>0.045000447572898325</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.008184490733128574</v>
+        <v>0.04519924571514668</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.03408153557181121</v>
+        <v>-0.033325240271789305</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.03400532541287079</v>
+        <v>-0.033225260020303904</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.03406175235367299</v>
+        <v>-0.033277509107320635</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.03398567308414056</v>
+        <v>-0.03317751678146302</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM23" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN23" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -3638,7 +3623,7 @@
         <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -3665,22 +3650,22 @@
         <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N24" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O24" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P24" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R24" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S24" t="s">
         <v>66</v>
@@ -3689,82 +3674,82 @@
         <v>69</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.031557234879080784</v>
+        <v>-0.027620538046187706</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.03150651124045617</v>
+        <v>-0.02794063647908018</v>
       </c>
       <c r="W24" t="n">
-        <v>0.00870191157178809</v>
+        <v>0.014605255020309188</v>
       </c>
       <c r="X24" t="n">
-        <v>0.008661946679615921</v>
+        <v>0.014569971893049777</v>
       </c>
       <c r="Y24" t="n">
-        <v>-3.626810659922851</v>
+        <v>-1.8912854283559757</v>
       </c>
       <c r="Z24" t="n">
-        <v>-3.637472496125699</v>
+        <v>-1.9176570598283758</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.0384197757426476E-4</v>
+        <v>0.059154303691350524</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.926700388296849E-4</v>
+        <v>0.05541205368084771</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.031582984228411014</v>
+        <v>-0.027664737160548025</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.031531485529750554</v>
+        <v>-0.02757633893182739</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.0315321423318656</v>
+        <v>-0.027984728817969984</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.03148088014904674</v>
+        <v>-0.027896544140190375</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM24" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN24" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3763,7 @@
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>56</v>
@@ -3805,22 +3790,22 @@
         <v>65</v>
       </c>
       <c r="M25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N25" t="n">
-        <v>11633.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O25" t="n">
-        <v>11631.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.74</v>
+        <v>13.51</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.7</v>
+        <v>63.12</v>
       </c>
       <c r="R25" t="n">
-        <v>55.69</v>
+        <v>44.14</v>
       </c>
       <c r="S25" t="s">
         <v>56</v>
@@ -3829,82 +3814,82 @@
         <v>70</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.02408399590087403</v>
+        <v>-0.028706138719132593</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.02414951370628158</v>
+        <v>-0.0287335821805337</v>
       </c>
       <c r="W25" t="n">
-        <v>0.010641660454505405</v>
+        <v>0.014610901019057604</v>
       </c>
       <c r="X25" t="n">
-        <v>0.008600032694828957</v>
+        <v>0.012005468186579153</v>
       </c>
       <c r="Y25" t="n">
-        <v>-2.4246282573061935</v>
+        <v>-2.227589399436283</v>
       </c>
       <c r="Z25" t="n">
-        <v>-2.907328125303643</v>
+        <v>-2.5881089062707385</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03645426280070069</v>
+        <v>0.06507725071577723</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.009429785801723012</v>
+        <v>0.026214242464699163</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.024115485054749725</v>
+        <v>-0.028750354919681684</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.024052506746998333</v>
+        <v>-0.028661922518583502</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.024174961591413906</v>
+        <v>-0.028769913696867367</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.024124065821149253</v>
+        <v>-0.028697250664200032</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.6849210290056714</v>
+        <v>0.8182185502654777</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.3583045992291857</v>
+        <v>0.17815580588704466</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.6771139972539376</v>
+        <v>0.5628932666748211</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.758905855789483</v>
+        <v>0.7332731598835245</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.5050419191563045</v>
+        <v>0.5308563114906004</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.4837735327240595</v>
+        <v>0.5497985317367622</v>
       </c>
       <c r="AM25" t="n">
-        <v>296.21099690028757</v>
+        <v>257.07422595941057</v>
       </c>
       <c r="AN25" t="n">
-        <v>263.5519959831769</v>
+        <v>257.5941636491476</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.43318221322812295</v>
+        <v>0.4695021305072242</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.399951935606069</v>
+        <v>0.5015332356930587</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.6578865626911459</v>
+        <v>0.685056334992117</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.6322230697148145</v>
+        <v>0.7075665092675562</v>
       </c>
       <c r="AS25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -3912,7 +3897,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
@@ -3945,22 +3930,22 @@
         <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N26" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O26" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P26" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R26" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S26" t="s">
         <v>53</v>
@@ -3969,82 +3954,82 @@
         <v>67</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0045691114269140135</v>
+        <v>0.006907198287352251</v>
       </c>
       <c r="V26" t="n">
-        <v>0.004588742593562097</v>
+        <v>0.006937638467149874</v>
       </c>
       <c r="W26" t="n">
-        <v>0.008758528433001131</v>
+        <v>0.009801278005170772</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0066891459312466975</v>
+        <v>0.009427950498860437</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6041770762148625</v>
+        <v>0.7466303653576637</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.7436610379770894</v>
+        <v>0.774528891271472</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.5627598934720724</v>
+        <v>0.46355385206035155</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.46979217368965287</v>
+        <v>0.44706724318993096</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.004542605953418344</v>
+        <v>0.006859879716974404</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.004595616900409683</v>
+        <v>0.006954516857730099</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0045684995833868616</v>
+        <v>0.006892122245799572</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.004608985603737332</v>
+        <v>0.006983154688500175</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM26" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN26" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR26" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -4052,7 +4037,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -4085,22 +4070,22 @@
         <v>65</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N27" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O27" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P27" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R27" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S27" t="s">
         <v>66</v>
@@ -4109,82 +4094,82 @@
         <v>68</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.033275250146046605</v>
+        <v>-0.040185837978559846</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.03322751294439183</v>
+        <v>-0.04045237593028065</v>
       </c>
       <c r="W27" t="n">
-        <v>0.016518849880508706</v>
+        <v>0.026896921535944536</v>
       </c>
       <c r="X27" t="n">
-        <v>0.016520844821897515</v>
+        <v>0.026972234979205197</v>
       </c>
       <c r="Y27" t="n">
-        <v>-2.014228485763388</v>
+        <v>-1.4940610174857263</v>
       </c>
       <c r="Z27" t="n">
-        <v>-2.011127162817041</v>
+        <v>-1.4996350989424896</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.045000447572898325</v>
+        <v>0.13753943826127923</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04519924571514668</v>
+        <v>0.13642687446364873</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.033325240271789305</v>
+        <v>-0.04031569082774692</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.033225260020303904</v>
+        <v>-0.04005598512937277</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.033277509107320635</v>
+        <v>-0.040582592377405</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.03317751678146302</v>
+        <v>-0.0403221594831563</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM27" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN27" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS27" t="s">
         <v>81</v>
       </c>
       <c r="AT27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -4192,7 +4177,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -4225,22 +4210,22 @@
         <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N28" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O28" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P28" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R28" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S28" t="s">
         <v>66</v>
@@ -4249,82 +4234,82 @@
         <v>69</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.027620538046187706</v>
+        <v>-0.036526365661258206</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.02794063647908018</v>
+        <v>-0.03650479926758489</v>
       </c>
       <c r="W28" t="n">
-        <v>0.014605255020309188</v>
+        <v>0.024047765981561418</v>
       </c>
       <c r="X28" t="n">
-        <v>0.014569971893049777</v>
+        <v>0.02404263890672209</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.8912854283559757</v>
+        <v>-1.5188109357085269</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1.9176570598283758</v>
+        <v>-1.5182698995598243</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.059154303691350524</v>
+        <v>0.13314173987995923</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05541205368084771</v>
+        <v>0.13254340358877265</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.027664737160548025</v>
+        <v>-0.036642463368764124</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.02757633893182739</v>
+        <v>-0.03641026795375229</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.027984728817969984</v>
+        <v>-0.0366208722226196</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.027896544140190375</v>
+        <v>-0.036388726312550176</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM28" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN28" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS28" t="s">
         <v>81</v>
       </c>
       <c r="AT28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -4332,7 +4317,7 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
@@ -4365,22 +4350,22 @@
         <v>65</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N29" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="O29" t="n">
-        <v>11122.0</v>
+        <v>4369.0</v>
       </c>
       <c r="P29" t="n">
-        <v>13.51</v>
+        <v>12.32</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.12</v>
+        <v>55.43</v>
       </c>
       <c r="R29" t="n">
-        <v>44.14</v>
+        <v>27.06</v>
       </c>
       <c r="S29" t="s">
         <v>56</v>
@@ -4389,82 +4374,82 @@
         <v>70</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.028706138719132593</v>
+        <v>-0.0332786396912076</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.0287335821805337</v>
+        <v>-0.03348426509548402</v>
       </c>
       <c r="W29" t="n">
-        <v>0.014610901019057604</v>
+        <v>0.020416679642020215</v>
       </c>
       <c r="X29" t="n">
-        <v>0.012005468186579153</v>
+        <v>0.01719135135992179</v>
       </c>
       <c r="Y29" t="n">
-        <v>-2.227589399436283</v>
+        <v>-1.6614150346150933</v>
       </c>
       <c r="Z29" t="n">
-        <v>-2.5881089062707385</v>
+        <v>-1.994518686478911</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06507725071577723</v>
+        <v>0.1032841018980499</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.026214242464699163</v>
+        <v>0.05454901648543113</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.028750354919681684</v>
+        <v>-0.03337720725474505</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.028661922518583502</v>
+        <v>-0.03318007212767014</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.028769913696867367</v>
+        <v>-0.03356726143216436</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.028697250664200032</v>
+        <v>-0.033401268758803684</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.8182185502654777</v>
+        <v>0.8212996146561914</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.17815580588704466</v>
+        <v>0.07180946512293425</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.5628932666748211</v>
+        <v>0.5231295844549216</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.7332731598835245</v>
+        <v>0.7042733154240731</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.5308563114906004</v>
+        <v>0.5337851284112867</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.5497985317367622</v>
+        <v>0.56571229618049</v>
       </c>
       <c r="AM29" t="n">
-        <v>257.07422595941057</v>
+        <v>124.14178967836439</v>
       </c>
       <c r="AN29" t="n">
-        <v>257.5941636491476</v>
+        <v>132.70836657910812</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.4695021305072242</v>
+        <v>0.4824308558385869</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.5015332356930587</v>
+        <v>0.5282149537429327</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.685056334992117</v>
+        <v>0.6942762496027913</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.7075665092675562</v>
+        <v>0.7256402593488512</v>
       </c>
       <c r="AS29" t="s">
         <v>81</v>
       </c>
       <c r="AT29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -4472,7 +4457,7 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
@@ -4493,10 +4478,10 @@
         <v>4.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K30" t="s">
         <v>61</v>
@@ -4508,19 +4493,19 @@
         <v>56</v>
       </c>
       <c r="N30" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O30" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P30" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R30" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S30" t="s">
         <v>53</v>
@@ -4529,82 +4514,82 @@
         <v>67</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006907198287352251</v>
+        <v>0.006402892253971174</v>
       </c>
       <c r="V30" t="n">
-        <v>0.006937638467149874</v>
+        <v>0.0064478191455283685</v>
       </c>
       <c r="W30" t="n">
-        <v>0.009801278005170772</v>
+        <v>0.00896475863804828</v>
       </c>
       <c r="X30" t="n">
-        <v>0.009427950498860437</v>
+        <v>0.00628820407623234</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.7466303653576637</v>
+        <v>0.7489284734631678</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.774528891271472</v>
+        <v>1.0526658822936583</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.46355385206035155</v>
+        <v>0.46032426803260457</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.44706724318993096</v>
+        <v>0.302710914571654</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.006859879716974404</v>
+        <v>0.006375762676863157</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.006954516857730099</v>
+        <v>0.006430021831079192</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.006892122245799572</v>
+        <v>0.006428789484580995</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.006983154688500175</v>
+        <v>0.006466848806475742</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM30" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN30" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS30" t="s">
         <v>82</v>
       </c>
       <c r="AT30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -4612,7 +4597,7 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -4633,10 +4618,10 @@
         <v>4.0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K31" t="s">
         <v>61</v>
@@ -4648,19 +4633,19 @@
         <v>56</v>
       </c>
       <c r="N31" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O31" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P31" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R31" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S31" t="s">
         <v>66</v>
@@ -4669,82 +4654,82 @@
         <v>68</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.040185837978559846</v>
+        <v>-0.032598951801901976</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.04045237593028065</v>
+        <v>-0.03278456644324944</v>
       </c>
       <c r="W31" t="n">
-        <v>0.026896921535944536</v>
+        <v>0.016104231414116685</v>
       </c>
       <c r="X31" t="n">
-        <v>0.026972234979205197</v>
+        <v>0.01610210697228039</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.4940610174857263</v>
+        <v>-2.025570701034627</v>
       </c>
       <c r="Z31" t="n">
-        <v>-1.4996350989424896</v>
+        <v>-2.0369065111495157</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.13753943826127923</v>
+        <v>0.04532268994791378</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.13642687446364873</v>
+        <v>0.043587891931810396</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.04031569082774692</v>
+        <v>-0.032647687189607824</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.04005598512937277</v>
+        <v>-0.03255021641419613</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.040582592377405</v>
+        <v>-0.0328332954018688</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.0403221594831563</v>
+        <v>-0.032735837484630076</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM31" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN31" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR31" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS31" t="s">
         <v>82</v>
       </c>
       <c r="AT31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -4752,7 +4737,7 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
@@ -4773,10 +4758,10 @@
         <v>4.0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K32" t="s">
         <v>61</v>
@@ -4788,19 +4773,19 @@
         <v>56</v>
       </c>
       <c r="N32" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O32" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P32" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R32" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S32" t="s">
         <v>66</v>
@@ -4809,82 +4794,82 @@
         <v>69</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.036526365661258206</v>
+        <v>-0.031473475191850966</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.03650479926758489</v>
+        <v>-0.03152995019697693</v>
       </c>
       <c r="W32" t="n">
-        <v>0.024047765981561418</v>
+        <v>0.013793291157698088</v>
       </c>
       <c r="X32" t="n">
-        <v>0.02404263890672209</v>
+        <v>0.013790464766065743</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.5188109357085269</v>
+        <v>-2.281829623362715</v>
       </c>
       <c r="Z32" t="n">
-        <v>-1.5182698995598243</v>
+        <v>-2.286376584909562</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.13314173987995923</v>
+        <v>0.024261681163777814</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.13254340358877265</v>
+        <v>0.023924471001458683</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.036642463368764124</v>
+        <v>-0.031515217102720476</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.03641026795375229</v>
+        <v>-0.03143173328098146</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.0366208722226196</v>
+        <v>-0.031571683554486245</v>
       </c>
       <c r="AF32" t="n">
-        <v>-0.036388726312550176</v>
+        <v>-0.03148821683946761</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM32" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN32" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS32" t="s">
         <v>82</v>
       </c>
       <c r="AT32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4892,7 +4877,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>52</v>
@@ -4913,10 +4898,10 @@
         <v>4.0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K33" t="s">
         <v>61</v>
@@ -4928,19 +4913,19 @@
         <v>56</v>
       </c>
       <c r="N33" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O33" t="n">
-        <v>4369.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P33" t="n">
-        <v>12.32</v>
+        <v>28.155</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.43</v>
+        <v>81.08</v>
       </c>
       <c r="R33" t="n">
-        <v>27.06</v>
+        <v>50.1</v>
       </c>
       <c r="S33" t="s">
         <v>56</v>
@@ -4949,82 +4934,82 @@
         <v>70</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.0332786396912076</v>
+        <v>-0.0261960595479308</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.03348426509548402</v>
+        <v>-0.026325000518083553</v>
       </c>
       <c r="W33" t="n">
-        <v>0.020416679642020215</v>
+        <v>0.010627729792141924</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01719135135992179</v>
+        <v>0.008012749175985219</v>
       </c>
       <c r="Y33" t="n">
-        <v>-1.6614150346150933</v>
+        <v>-2.5893798597505544</v>
       </c>
       <c r="Z33" t="n">
-        <v>-1.994518686478911</v>
+        <v>-3.3070063152897364</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.1032841018980499</v>
+        <v>0.022309533979415676</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.05454901648543113</v>
+        <v>0.0016643304869490292</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.03337720725474505</v>
+        <v>-0.02622822168709374</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.03318007212767014</v>
+        <v>-0.02616389740876786</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.03356726143216436</v>
+        <v>-0.02634924907907598</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.033401268758803684</v>
+        <v>-0.026300751957091126</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.8212996146561914</v>
+        <v>0.8186380087919533</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.07180946512293425</v>
+        <v>0.17970514134246485</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.5231295844549216</v>
+        <v>0.563425011882158</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.7042733154240731</v>
+        <v>0.7400341080729079</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.5337851284112867</v>
+        <v>0.4905835797360297</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.56571229618049</v>
+        <v>0.5171969027757345</v>
       </c>
       <c r="AM33" t="n">
-        <v>124.14178967836439</v>
+        <v>251.0773713563189</v>
       </c>
       <c r="AN33" t="n">
-        <v>132.70836657910812</v>
+        <v>269.7412884812939</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.4824308558385869</v>
+        <v>0.4114946336734677</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.5282149537429327</v>
+        <v>0.44942657371179945</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.6942762496027913</v>
+        <v>0.6413070184300959</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.7256402593488512</v>
+        <v>0.6698731962813447</v>
       </c>
       <c r="AS33" t="s">
         <v>82</v>
       </c>
       <c r="AT33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -5035,7 +5020,7 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
@@ -5053,10 +5038,10 @@
         <v>4.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J34" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K34" t="s">
         <v>61</v>
@@ -5068,19 +5053,19 @@
         <v>56</v>
       </c>
       <c r="N34" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="O34" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="P34" t="n">
-        <v>28.155</v>
+        <v>13.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.08</v>
+        <v>54.32</v>
       </c>
       <c r="R34" t="n">
-        <v>50.1</v>
+        <v>28.33</v>
       </c>
       <c r="S34" t="s">
         <v>53</v>
@@ -5089,82 +5074,82 @@
         <v>67</v>
       </c>
       <c r="U34" t="n">
-        <v>0.006402892253971174</v>
+        <v>0.006592383453652403</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0064478191455283685</v>
+        <v>0.006613228780894649</v>
       </c>
       <c r="W34" t="n">
-        <v>0.00896475863804828</v>
+        <v>0.009113038659717115</v>
       </c>
       <c r="X34" t="n">
-        <v>0.00628820407623234</v>
+        <v>0.007837687839968754</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.7489284734631678</v>
+        <v>0.759611047018715</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.0526658822936583</v>
+        <v>0.8561269622903762</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.46032426803260457</v>
+        <v>0.4586652285740924</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.302710914571654</v>
+        <v>0.3977922333659266</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.006375762676863157</v>
+        <v>0.006547474096027906</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.006430021831079192</v>
+        <v>0.0066372928112769</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.006428789484580995</v>
+        <v>0.006574604394529404</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.006466848806475742</v>
+        <v>0.0066518531672598935</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.8186380087919533</v>
+        <v>0.8183817116181736</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.17970514134246485</v>
+        <v>0.12427362968415522</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.563425011882158</v>
+        <v>0.5424106380144268</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.7400341080729079</v>
+        <v>0.7337122180877839</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.4905835797360297</v>
+        <v>0.4819980550433553</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.5171969027757345</v>
+        <v>0.48533208347149925</v>
       </c>
       <c r="AM34" t="n">
-        <v>251.0773713563189</v>
+        <v>99.39814605919887</v>
       </c>
       <c r="AN34" t="n">
-        <v>269.7412884812939</v>
+        <v>102.18115711537703</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.4114946336734677</v>
+        <v>0.3864957875884159</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.44942657371179945</v>
+        <v>0.38333702521173574</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.6413070184300959</v>
+        <v>0.6214857789017387</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.6698731962813447</v>
+        <v>0.6184461308813388</v>
       </c>
       <c r="AS34" t="s">
         <v>83</v>
       </c>
       <c r="AT34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -5175,7 +5160,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -5193,10 +5178,10 @@
         <v>4.0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J35" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K35" t="s">
         <v>61</v>
@@ -5208,19 +5193,19 @@
         <v>56</v>
       </c>
       <c r="N35" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="O35" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="P35" t="n">
-        <v>28.155</v>
+        <v>13.42</v>
       </c>
       <c r="Q35" t="n">
-        <v>81.08</v>
+        <v>54.32</v>
       </c>
       <c r="R35" t="n">
-        <v>50.1</v>
+        <v>28.33</v>
       </c>
       <c r="S35" t="s">
         <v>66</v>
@@ -5229,82 +5214,82 @@
         <v>68</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.032598951801901976</v>
+        <v>-0.027848059853140927</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.03278456644324944</v>
+        <v>-0.027843515211317324</v>
       </c>
       <c r="W35" t="n">
-        <v>0.016104231414116685</v>
+        <v>0.024239546930482567</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01610210697228039</v>
+        <v>0.02419563413700848</v>
       </c>
       <c r="Y35" t="n">
-        <v>-2.025570701034627</v>
+        <v>-1.1515928684669687</v>
       </c>
       <c r="Z35" t="n">
-        <v>-2.0369065111495157</v>
+        <v>-1.1525979869810672</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.04532268994791378</v>
+        <v>0.25837343273574764</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.043587891931810396</v>
+        <v>0.2557169790655689</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.032647687189607824</v>
+        <v>-0.027967513146647596</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.03255021641419613</v>
+        <v>-0.02772860655963426</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.0328332954018688</v>
+        <v>-0.027962752101117167</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.032735837484630076</v>
+        <v>-0.02772427832151748</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.8186380087919533</v>
+        <v>0.8183817116181736</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.17970514134246485</v>
+        <v>0.12427362968415522</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.563425011882158</v>
+        <v>0.5424106380144268</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.7400341080729079</v>
+        <v>0.7337122180877839</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.4905835797360297</v>
+        <v>0.4819980550433553</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.5171969027757345</v>
+        <v>0.48533208347149925</v>
       </c>
       <c r="AM35" t="n">
-        <v>251.0773713563189</v>
+        <v>99.39814605919887</v>
       </c>
       <c r="AN35" t="n">
-        <v>269.7412884812939</v>
+        <v>102.18115711537703</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.4114946336734677</v>
+        <v>0.3864957875884159</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.44942657371179945</v>
+        <v>0.38333702521173574</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6413070184300959</v>
+        <v>0.6214857789017387</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.6698731962813447</v>
+        <v>0.6184461308813388</v>
       </c>
       <c r="AS35" t="s">
         <v>83</v>
       </c>
       <c r="AT35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -5315,7 +5300,7 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
@@ -5333,10 +5318,10 @@
         <v>4.0</v>
       </c>
       <c r="I36" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J36" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K36" t="s">
         <v>61</v>
@@ -5348,19 +5333,19 @@
         <v>56</v>
       </c>
       <c r="N36" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="O36" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="P36" t="n">
-        <v>28.155</v>
+        <v>13.42</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.08</v>
+        <v>54.32</v>
       </c>
       <c r="R36" t="n">
-        <v>50.1</v>
+        <v>28.33</v>
       </c>
       <c r="S36" t="s">
         <v>66</v>
@@ -5369,82 +5354,82 @@
         <v>69</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.031473475191850966</v>
+        <v>-0.0436300697133663</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.03152995019697693</v>
+        <v>-0.0434389358077089</v>
       </c>
       <c r="W36" t="n">
-        <v>0.013793291157698088</v>
+        <v>0.021199174689552357</v>
       </c>
       <c r="X36" t="n">
-        <v>0.013790464766065743</v>
+        <v>0.021181214674089555</v>
       </c>
       <c r="Y36" t="n">
-        <v>-2.281829623362715</v>
+        <v>-2.0581901903948023</v>
       </c>
       <c r="Z36" t="n">
-        <v>-2.286376584909562</v>
+        <v>-2.0508583647733296</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.024261681163777814</v>
+        <v>0.03986488370973715</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.023924471001458683</v>
+        <v>0.040561218186088197</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.031515217102720476</v>
+        <v>-0.04373453995134363</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.03143173328098146</v>
+        <v>-0.04352559947538896</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.031571683554486245</v>
+        <v>-0.04354331753813266</v>
       </c>
       <c r="AF36" t="n">
-        <v>-0.03148821683946761</v>
+        <v>-0.043334554077285134</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.8186380087919533</v>
+        <v>0.8183817116181736</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.17970514134246485</v>
+        <v>0.12427362968415522</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.563425011882158</v>
+        <v>0.5424106380144268</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.7400341080729079</v>
+        <v>0.7337122180877839</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.4905835797360297</v>
+        <v>0.4819980550433553</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.5171969027757345</v>
+        <v>0.48533208347149925</v>
       </c>
       <c r="AM36" t="n">
-        <v>251.0773713563189</v>
+        <v>99.39814605919887</v>
       </c>
       <c r="AN36" t="n">
-        <v>269.7412884812939</v>
+        <v>102.18115711537703</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.4114946336734677</v>
+        <v>0.3864957875884159</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.44942657371179945</v>
+        <v>0.38333702521173574</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.6413070184300959</v>
+        <v>0.6214857789017387</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.6698731962813447</v>
+        <v>0.6184461308813388</v>
       </c>
       <c r="AS36" t="s">
         <v>83</v>
       </c>
       <c r="AT36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -5455,7 +5440,7 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
@@ -5473,10 +5458,10 @@
         <v>4.0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J37" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="K37" t="s">
         <v>61</v>
@@ -5488,19 +5473,19 @@
         <v>56</v>
       </c>
       <c r="N37" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="O37" t="n">
-        <v>11122.0</v>
+        <v>4193.0</v>
       </c>
       <c r="P37" t="n">
-        <v>28.155</v>
+        <v>13.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.08</v>
+        <v>54.32</v>
       </c>
       <c r="R37" t="n">
-        <v>50.1</v>
+        <v>28.33</v>
       </c>
       <c r="S37" t="s">
         <v>56</v>
@@ -5509,82 +5494,82 @@
         <v>70</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.0261960595479308</v>
+        <v>-0.021255676399488523</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.026325000518083553</v>
+        <v>-0.02119848123063077</v>
       </c>
       <c r="W37" t="n">
-        <v>0.010627729792141924</v>
+        <v>0.019033715296637103</v>
       </c>
       <c r="X37" t="n">
-        <v>0.008012749175985219</v>
+        <v>0.014953980462166396</v>
       </c>
       <c r="Y37" t="n">
-        <v>-2.5893798597505544</v>
+        <v>-1.19721980426738</v>
       </c>
       <c r="Z37" t="n">
-        <v>-3.3070063152897364</v>
+        <v>-1.5007721882086125</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.022309533979415676</v>
+        <v>0.2772602210796469</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.0016643304869490292</v>
+        <v>0.175606687125676</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.02622822168709374</v>
+        <v>-0.021349475181552075</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.02616389740876786</v>
+        <v>-0.02116187761742497</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.02634924907907598</v>
+        <v>-0.021272174943733707</v>
       </c>
       <c r="AF37" t="n">
-        <v>-0.026300751957091126</v>
+        <v>-0.021124787517527832</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.8186380087919533</v>
+        <v>0.8183817116181736</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.17970514134246485</v>
+        <v>0.12427362968415522</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.563425011882158</v>
+        <v>0.5424106380144268</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.7400341080729079</v>
+        <v>0.7337122180877839</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.4905835797360297</v>
+        <v>0.4819980550433553</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.5171969027757345</v>
+        <v>0.48533208347149925</v>
       </c>
       <c r="AM37" t="n">
-        <v>251.0773713563189</v>
+        <v>99.39814605919887</v>
       </c>
       <c r="AN37" t="n">
-        <v>269.7412884812939</v>
+        <v>102.18115711537703</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.4114946336734677</v>
+        <v>0.3864957875884159</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.44942657371179945</v>
+        <v>0.38333702521173574</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.6413070184300959</v>
+        <v>0.6214857789017387</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.6698731962813447</v>
+        <v>0.6184461308813388</v>
       </c>
       <c r="AS37" t="s">
         <v>83</v>
       </c>
       <c r="AT37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -5595,13 +5580,13 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
         <v>55</v>
@@ -5628,19 +5613,19 @@
         <v>56</v>
       </c>
       <c r="N38" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="O38" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.42</v>
+        <v>21.64</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.32</v>
+        <v>74.3</v>
       </c>
       <c r="R38" t="n">
-        <v>28.33</v>
+        <v>37.59</v>
       </c>
       <c r="S38" t="s">
         <v>53</v>
@@ -5649,82 +5634,82 @@
         <v>67</v>
       </c>
       <c r="U38" t="n">
-        <v>0.006592383453652403</v>
+        <v>0.006273251174908525</v>
       </c>
       <c r="V38" t="n">
-        <v>0.006613228780894649</v>
+        <v>0.006282484244867992</v>
       </c>
       <c r="W38" t="n">
-        <v>0.009113038659717115</v>
+        <v>0.007319986180267236</v>
       </c>
       <c r="X38" t="n">
-        <v>0.007837687839968754</v>
+        <v>0.005257858405465702</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.759611047018715</v>
+        <v>0.9235751402262876</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.8561269622903762</v>
+        <v>1.152271156486529</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.4586652285740924</v>
+        <v>0.3724817757097107</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.3977922333659266</v>
+        <v>0.24923098871076285</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.006547474096027906</v>
+        <v>0.0062526963624032796</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0066372928112769</v>
+        <v>0.00629380598741377</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.006574604394529404</v>
+        <v>0.006267719969220202</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.0066518531672598935</v>
+        <v>0.006297248520515782</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.8183817116181736</v>
+        <v>0.8389259154547759</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.12427362968415522</v>
+        <v>0.1461786585031948</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.5424106380144268</v>
+        <v>0.5495220747423102</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.7337122180877839</v>
+        <v>0.7235502877863144</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.4819980550433553</v>
+        <v>0.48675989402074776</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.48533208347149925</v>
+        <v>0.517239534787654</v>
       </c>
       <c r="AM38" t="n">
-        <v>99.39814605919887</v>
+        <v>123.67347078584189</v>
       </c>
       <c r="AN38" t="n">
-        <v>102.18115711537703</v>
+        <v>129.73901913922998</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.3864957875884159</v>
+        <v>0.40478897886914766</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.38333702521173574</v>
+        <v>0.44876348485497475</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.6214857789017387</v>
+        <v>0.6360799895600582</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.6184461308813388</v>
+        <v>0.6692008653644839</v>
       </c>
       <c r="AS38" t="s">
         <v>84</v>
       </c>
       <c r="AT38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -5735,13 +5720,13 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
@@ -5768,19 +5753,19 @@
         <v>56</v>
       </c>
       <c r="N39" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="O39" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="P39" t="n">
-        <v>13.42</v>
+        <v>21.64</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.32</v>
+        <v>74.3</v>
       </c>
       <c r="R39" t="n">
-        <v>28.33</v>
+        <v>37.59</v>
       </c>
       <c r="S39" t="s">
         <v>66</v>
@@ -5789,82 +5774,82 @@
         <v>68</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.027848059853140927</v>
+        <v>-0.041861218827202715</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.027843515211317324</v>
+        <v>-0.042619029637551896</v>
       </c>
       <c r="W39" t="n">
-        <v>0.024239546930482567</v>
+        <v>0.015304556098281063</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02419563413700848</v>
+        <v>0.015240453842713983</v>
       </c>
       <c r="Y39" t="n">
-        <v>-1.1515928684669687</v>
+        <v>-2.7348597225546065</v>
       </c>
       <c r="Z39" t="n">
-        <v>-1.1525979869810672</v>
+        <v>-2.763275997178594</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.25837343273574764</v>
+        <v>0.006369032467890587</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.2557169790655689</v>
+        <v>0.005730535495028646</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.027967513146647596</v>
+        <v>-0.04190419462979702</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.02772860655963426</v>
+        <v>-0.04181824302460841</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.027962752101117167</v>
+        <v>-0.04266182543846151</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.02772427832151748</v>
+        <v>-0.04257623383664228</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.8183817116181736</v>
+        <v>0.8389259154547759</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.12427362968415522</v>
+        <v>0.1461786585031948</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.5424106380144268</v>
+        <v>0.5495220747423102</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.7337122180877839</v>
+        <v>0.7235502877863144</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.4819980550433553</v>
+        <v>0.48675989402074776</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.48533208347149925</v>
+        <v>0.517239534787654</v>
       </c>
       <c r="AM39" t="n">
-        <v>99.39814605919887</v>
+        <v>123.67347078584189</v>
       </c>
       <c r="AN39" t="n">
-        <v>102.18115711537703</v>
+        <v>129.73901913922998</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.3864957875884159</v>
+        <v>0.40478897886914766</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.38333702521173574</v>
+        <v>0.44876348485497475</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.6214857789017387</v>
+        <v>0.6360799895600582</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.6184461308813388</v>
+        <v>0.6692008653644839</v>
       </c>
       <c r="AS39" t="s">
         <v>84</v>
       </c>
       <c r="AT39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -5875,13 +5860,13 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
@@ -5908,19 +5893,19 @@
         <v>56</v>
       </c>
       <c r="N40" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="O40" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="P40" t="n">
-        <v>13.42</v>
+        <v>21.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.32</v>
+        <v>74.3</v>
       </c>
       <c r="R40" t="n">
-        <v>28.33</v>
+        <v>37.59</v>
       </c>
       <c r="S40" t="s">
         <v>66</v>
@@ -5929,82 +5914,82 @@
         <v>69</v>
       </c>
       <c r="U40" t="n">
-        <v>-0.0436300697133663</v>
+        <v>-0.034079598322572804</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.0434389358077089</v>
+        <v>-0.03343691814111241</v>
       </c>
       <c r="W40" t="n">
-        <v>0.021199174689552357</v>
+        <v>0.013663201974446077</v>
       </c>
       <c r="X40" t="n">
-        <v>0.021181214674089555</v>
+        <v>0.013647272140206447</v>
       </c>
       <c r="Y40" t="n">
-        <v>-2.0581901903948023</v>
+        <v>-2.4943283169065897</v>
       </c>
       <c r="Z40" t="n">
-        <v>-2.0508583647733296</v>
+        <v>-2.456264722585707</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.03986488370973715</v>
+        <v>0.012995883462040551</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.040561218186088197</v>
+        <v>0.014052034130967627</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.04373453995134363</v>
+        <v>-0.034117965137466955</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.04352559947538896</v>
+        <v>-0.034041231507678654</v>
       </c>
       <c r="AE40" t="n">
-        <v>-0.04354331753813266</v>
+        <v>-0.03347524022439806</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.043334554077285134</v>
+        <v>-0.03339859605782676</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.8183817116181736</v>
+        <v>0.8389259154547759</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.12427362968415522</v>
+        <v>0.1461786585031948</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.5424106380144268</v>
+        <v>0.5495220747423102</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.7337122180877839</v>
+        <v>0.7235502877863144</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.4819980550433553</v>
+        <v>0.48675989402074776</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.48533208347149925</v>
+        <v>0.517239534787654</v>
       </c>
       <c r="AM40" t="n">
-        <v>99.39814605919887</v>
+        <v>123.67347078584189</v>
       </c>
       <c r="AN40" t="n">
-        <v>102.18115711537703</v>
+        <v>129.73901913922998</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.3864957875884159</v>
+        <v>0.40478897886914766</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.38333702521173574</v>
+        <v>0.44876348485497475</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.6214857789017387</v>
+        <v>0.6360799895600582</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.6184461308813388</v>
+        <v>0.6692008653644839</v>
       </c>
       <c r="AS40" t="s">
         <v>84</v>
       </c>
       <c r="AT40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -6015,13 +6000,13 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
         <v>55</v>
@@ -6048,19 +6033,19 @@
         <v>56</v>
       </c>
       <c r="N41" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="O41" t="n">
-        <v>4193.0</v>
+        <v>12918.0</v>
       </c>
       <c r="P41" t="n">
-        <v>13.42</v>
+        <v>21.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.32</v>
+        <v>74.3</v>
       </c>
       <c r="R41" t="n">
-        <v>28.33</v>
+        <v>37.59</v>
       </c>
       <c r="S41" t="s">
         <v>56</v>
@@ -6069,82 +6054,82 @@
         <v>70</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.021255676399488523</v>
+        <v>-0.03558796765229419</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.02119848123063077</v>
+        <v>-0.035952940961922204</v>
       </c>
       <c r="W41" t="n">
-        <v>0.019033715296637103</v>
+        <v>0.014709500026765911</v>
       </c>
       <c r="X41" t="n">
-        <v>0.014953980462166396</v>
+        <v>0.01012389356374553</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.19721980426738</v>
+        <v>-2.526866929488567</v>
       </c>
       <c r="Z41" t="n">
-        <v>-1.5007721882086125</v>
+        <v>-3.5452622926738875</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.2772602210796469</v>
+        <v>0.023629768002823712</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.175606687125676</v>
+        <v>3.93609565946686E-4</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.021349475181552075</v>
+        <v>-0.03562927251375843</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.02116187761742497</v>
+        <v>-0.03554666279082995</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.021272174943733707</v>
+        <v>-0.03598136925794643</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.021124787517527832</v>
+        <v>-0.03592451266589798</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.8183817116181736</v>
+        <v>0.8389259154547759</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.12427362968415522</v>
+        <v>0.1461786585031948</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.5424106380144268</v>
+        <v>0.5495220747423102</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.7337122180877839</v>
+        <v>0.7235502877863144</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.4819980550433553</v>
+        <v>0.48675989402074776</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.48533208347149925</v>
+        <v>0.517239534787654</v>
       </c>
       <c r="AM41" t="n">
-        <v>99.39814605919887</v>
+        <v>123.67347078584189</v>
       </c>
       <c r="AN41" t="n">
-        <v>102.18115711537703</v>
+        <v>129.73901913922998</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.3864957875884159</v>
+        <v>0.40478897886914766</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.38333702521173574</v>
+        <v>0.44876348485497475</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.6214857789017387</v>
+        <v>0.6360799895600582</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.6184461308813388</v>
+        <v>0.6692008653644839</v>
       </c>
       <c r="AS41" t="s">
         <v>84</v>
       </c>
       <c r="AT41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -6161,19 +6146,19 @@
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
         <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H42" t="n">
         <v>4.0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J42" t="n">
         <v>5.0</v>
@@ -6188,19 +6173,19 @@
         <v>56</v>
       </c>
       <c r="N42" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O42" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P42" t="n">
-        <v>21.64</v>
+        <v>503.0</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.3</v>
+        <v>503.0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.59</v>
+        <v>503.0</v>
       </c>
       <c r="S42" t="s">
         <v>53</v>
@@ -6209,82 +6194,82 @@
         <v>67</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006273251174908525</v>
+        <v>0.006643368970623819</v>
       </c>
       <c r="V42" t="n">
-        <v>0.006282484244867992</v>
+        <v>0.006612041775881204</v>
       </c>
       <c r="W42" t="n">
-        <v>0.007319986180267236</v>
+        <v>0.009267891193640054</v>
       </c>
       <c r="X42" t="n">
-        <v>0.005257858405465702</v>
+        <v>0.006096276457494468</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.9235751402262876</v>
+        <v>0.8099208358940836</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.152271156486529</v>
+        <v>1.1409881360120389</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.3724817757097107</v>
+        <v>0.43492785055873723</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.24923098871076285</v>
+        <v>0.2538994270903943</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0062526963624032796</v>
+        <v>0.006615322039421519</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.00629380598741377</v>
+        <v>0.00667141590182612</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.006267719969220202</v>
+        <v>0.006593592935382204</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.006297248520515782</v>
+        <v>0.006630490616380204</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.8389259154547759</v>
+        <v>0.8410117626276102</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.1461786585031948</v>
+        <v>0.33188670971173456</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.5495220747423102</v>
+        <v>0.6261049351597225</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.7235502877863144</v>
+        <v>0.7290459399630282</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.48675989402074776</v>
+        <v>0.525645528101417</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.517239534787654</v>
+        <v>0.5450565030637159</v>
       </c>
       <c r="AM42" t="n">
-        <v>123.67347078584189</v>
+        <v>238.3768368863379</v>
       </c>
       <c r="AN42" t="n">
-        <v>129.73901913922998</v>
+        <v>276.6365655977487</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.40478897886914766</v>
+        <v>0.4618580314708739</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.44876348485497475</v>
+        <v>0.4944342699172355</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.6360799895600582</v>
+        <v>0.6794397751207918</v>
       </c>
       <c r="AR42" t="n">
-        <v>0.6692008653644839</v>
+        <v>0.7024491372642251</v>
       </c>
       <c r="AS42" t="s">
         <v>85</v>
       </c>
       <c r="AT42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -6301,19 +6286,19 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
         <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H43" t="n">
         <v>4.0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J43" t="n">
         <v>5.0</v>
@@ -6328,19 +6313,19 @@
         <v>56</v>
       </c>
       <c r="N43" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O43" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P43" t="n">
-        <v>21.64</v>
+        <v>503.0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.3</v>
+        <v>503.0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.59</v>
+        <v>503.0</v>
       </c>
       <c r="S43" t="s">
         <v>66</v>
@@ -6349,82 +6334,82 @@
         <v>68</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.041861218827202715</v>
+        <v>-0.05396138039753993</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.042619029637551896</v>
+        <v>-0.05376391842837653</v>
       </c>
       <c r="W43" t="n">
-        <v>0.015304556098281063</v>
+        <v>0.016413150855754347</v>
       </c>
       <c r="X43" t="n">
-        <v>0.015240453842713983</v>
+        <v>0.01635074964738249</v>
       </c>
       <c r="Y43" t="n">
-        <v>-2.7348597225546065</v>
+        <v>-3.2881814705501284</v>
       </c>
       <c r="Z43" t="n">
-        <v>-2.763275997178594</v>
+        <v>-3.29516995798645</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.006369032467890587</v>
+        <v>0.001119931889760038</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.005730535495028646</v>
+        <v>9.866990829861286E-4</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.04190419462979702</v>
+        <v>-0.054011050651888645</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.04181824302460841</v>
+        <v>-0.05391171014319121</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.04266182543846151</v>
+        <v>-0.05381339984123352</v>
       </c>
       <c r="AF43" t="n">
-        <v>-0.04257623383664228</v>
+        <v>-0.05371443701551954</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.8389259154547759</v>
+        <v>0.8410117626276102</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.1461786585031948</v>
+        <v>0.33188670971173456</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.5495220747423102</v>
+        <v>0.6261049351597225</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.7235502877863144</v>
+        <v>0.7290459399630282</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.48675989402074776</v>
+        <v>0.525645528101417</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.517239534787654</v>
+        <v>0.5450565030637159</v>
       </c>
       <c r="AM43" t="n">
-        <v>123.67347078584189</v>
+        <v>238.3768368863379</v>
       </c>
       <c r="AN43" t="n">
-        <v>129.73901913922998</v>
+        <v>276.6365655977487</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.40478897886914766</v>
+        <v>0.4618580314708739</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.44876348485497475</v>
+        <v>0.4944342699172355</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.6360799895600582</v>
+        <v>0.6794397751207918</v>
       </c>
       <c r="AR43" t="n">
-        <v>0.6692008653644839</v>
+        <v>0.7024491372642251</v>
       </c>
       <c r="AS43" t="s">
         <v>85</v>
       </c>
       <c r="AT43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -6441,19 +6426,19 @@
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
         <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H44" t="n">
         <v>4.0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J44" t="n">
         <v>5.0</v>
@@ -6468,19 +6453,19 @@
         <v>56</v>
       </c>
       <c r="N44" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O44" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P44" t="n">
-        <v>21.64</v>
+        <v>503.0</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.3</v>
+        <v>503.0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.59</v>
+        <v>503.0</v>
       </c>
       <c r="S44" t="s">
         <v>66</v>
@@ -6489,82 +6474,82 @@
         <v>69</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.034079598322572804</v>
+        <v>-0.06348215421786263</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.03343691814111241</v>
+        <v>-0.06386917849626826</v>
       </c>
       <c r="W44" t="n">
-        <v>0.013663201974446077</v>
+        <v>0.014623993460923612</v>
       </c>
       <c r="X44" t="n">
-        <v>0.013647272140206447</v>
+        <v>0.014619510929848409</v>
       </c>
       <c r="Y44" t="n">
-        <v>-2.4943283169065897</v>
+        <v>-4.341046942682259</v>
       </c>
       <c r="Z44" t="n">
-        <v>-2.456264722585707</v>
+        <v>-4.3687630046411225</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.012995883462040551</v>
+        <v>1.5309882873918384E-5</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.014052034130967627</v>
+        <v>1.26084502087228E-5</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.034117965137466955</v>
+        <v>-0.06352641003937927</v>
       </c>
       <c r="AD44" t="n">
-        <v>-0.034041231507678654</v>
+        <v>-0.06343789839634599</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.03347524022439806</v>
+        <v>-0.0639134207525371</v>
       </c>
       <c r="AF44" t="n">
-        <v>-0.03339859605782676</v>
+        <v>-0.06382493623999942</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.8389259154547759</v>
+        <v>0.8410117626276102</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1461786585031948</v>
+        <v>0.33188670971173456</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.5495220747423102</v>
+        <v>0.6261049351597225</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.7235502877863144</v>
+        <v>0.7290459399630282</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.48675989402074776</v>
+        <v>0.525645528101417</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.517239534787654</v>
+        <v>0.5450565030637159</v>
       </c>
       <c r="AM44" t="n">
-        <v>123.67347078584189</v>
+        <v>238.3768368863379</v>
       </c>
       <c r="AN44" t="n">
-        <v>129.73901913922998</v>
+        <v>276.6365655977487</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.40478897886914766</v>
+        <v>0.4618580314708739</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.44876348485497475</v>
+        <v>0.4944342699172355</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.6360799895600582</v>
+        <v>0.6794397751207918</v>
       </c>
       <c r="AR44" t="n">
-        <v>0.6692008653644839</v>
+        <v>0.7024491372642251</v>
       </c>
       <c r="AS44" t="s">
         <v>85</v>
       </c>
       <c r="AT44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -6581,19 +6566,19 @@
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
         <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H45" t="n">
         <v>4.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J45" t="n">
         <v>5.0</v>
@@ -6608,19 +6593,19 @@
         <v>56</v>
       </c>
       <c r="N45" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O45" t="n">
-        <v>12918.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.64</v>
+        <v>503.0</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.3</v>
+        <v>503.0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.59</v>
+        <v>503.0</v>
       </c>
       <c r="S45" t="s">
         <v>56</v>
@@ -6629,82 +6614,82 @@
         <v>70</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.03558796765229419</v>
+        <v>-0.04731801142691611</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.035952940961922204</v>
+        <v>-0.04729120392326516</v>
       </c>
       <c r="W45" t="n">
-        <v>0.014709500026765911</v>
+        <v>0.015427860438605563</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01012389356374553</v>
+        <v>0.012638445718701262</v>
       </c>
       <c r="Y45" t="n">
-        <v>-2.526866929488567</v>
+        <v>-3.208937749571023</v>
       </c>
       <c r="Z45" t="n">
-        <v>-3.5452622926738875</v>
+        <v>-3.790423911281764</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.023629768002823712</v>
+        <v>0.0047463216155954014</v>
       </c>
       <c r="AB45" t="n">
-        <v>3.93609565946686E-4</v>
+        <v>1.5118461891356803E-4</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.03562927251375843</v>
+        <v>-0.047364699948746966</v>
       </c>
       <c r="AD45" t="n">
-        <v>-0.03554666279082995</v>
+        <v>-0.04727132290508525</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.03598136925794643</v>
+        <v>-0.047329450986180584</v>
       </c>
       <c r="AF45" t="n">
-        <v>-0.03592451266589798</v>
+        <v>-0.04725295686034974</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.8389259154547759</v>
+        <v>0.8410117626276102</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1461786585031948</v>
+        <v>0.33188670971173456</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.5495220747423102</v>
+        <v>0.6261049351597225</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.7235502877863144</v>
+        <v>0.7290459399630282</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.48675989402074776</v>
+        <v>0.525645528101417</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.517239534787654</v>
+        <v>0.5450565030637159</v>
       </c>
       <c r="AM45" t="n">
-        <v>123.67347078584189</v>
+        <v>238.3768368863379</v>
       </c>
       <c r="AN45" t="n">
-        <v>129.73901913922998</v>
+        <v>276.6365655977487</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.40478897886914766</v>
+        <v>0.4618580314708739</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.44876348485497475</v>
+        <v>0.4944342699172355</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.6360799895600582</v>
+        <v>0.6794397751207918</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.6692008653644839</v>
+        <v>0.7024491372642251</v>
       </c>
       <c r="AS45" t="s">
         <v>85</v>
       </c>
       <c r="AT45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -6727,16 +6712,16 @@
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H46" t="n">
         <v>4.0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K46" t="s">
         <v>61</v>
@@ -6751,16 +6736,16 @@
         <v>11122.0</v>
       </c>
       <c r="O46" t="n">
-        <v>11122.0</v>
+        <v>11117.0</v>
       </c>
       <c r="P46" t="n">
-        <v>503.0</v>
+        <v>29.3275</v>
       </c>
       <c r="Q46" t="n">
-        <v>503.0</v>
+        <v>81.3</v>
       </c>
       <c r="R46" t="n">
-        <v>503.0</v>
+        <v>50.46</v>
       </c>
       <c r="S46" t="s">
         <v>53</v>
@@ -6769,82 +6754,82 @@
         <v>67</v>
       </c>
       <c r="U46" t="n">
-        <v>0.006643368970623819</v>
+        <v>0.006448414444749802</v>
       </c>
       <c r="V46" t="n">
-        <v>0.006612041775881204</v>
+        <v>0.0063458116204920915</v>
       </c>
       <c r="W46" t="n">
-        <v>0.009267891193640054</v>
+        <v>0.00586027410042029</v>
       </c>
       <c r="X46" t="n">
-        <v>0.006096276457494468</v>
+        <v>0.004210494688011051</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.8099208358940836</v>
+        <v>1.1432440603525185</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.1409881360120389</v>
+        <v>1.5285777332213555</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.43492785055873723</v>
+        <v>0.27229161339660796</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.2538994270903943</v>
+        <v>0.1263975975859819</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.006615322039421519</v>
+        <v>0.006430679805759445</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.00667141590182612</v>
+        <v>0.006466149083740158</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.006593592935382204</v>
+        <v>0.006333069622083291</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.006630490616380204</v>
+        <v>0.006358553618900892</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.8410117626276102</v>
+        <v>0.8187340963852295</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.33188670971173456</v>
+        <v>0.18039209516533683</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.6261049351597225</v>
+        <v>0.5636796091397615</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.7290459399630282</v>
+        <v>0.7394059918206516</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.525645528101417</v>
+        <v>0.4907011215366788</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.5450565030637159</v>
+        <v>0.5181675881025801</v>
       </c>
       <c r="AM46" t="n">
-        <v>238.3768368863379</v>
+        <v>251.09413390640668</v>
       </c>
       <c r="AN46" t="n">
-        <v>276.6365655977487</v>
+        <v>269.898349306286</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.4618580314708739</v>
+        <v>0.41150056245865535</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.4944342699172355</v>
+        <v>0.45090114000864906</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.6794397751207918</v>
+        <v>0.6413301610949432</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.7024491372642251</v>
+        <v>0.670904004914734</v>
       </c>
       <c r="AS46" t="s">
         <v>86</v>
       </c>
       <c r="AT46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
@@ -6867,16 +6852,16 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H47" t="n">
         <v>4.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J47" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K47" t="s">
         <v>61</v>
@@ -6891,16 +6876,16 @@
         <v>11122.0</v>
       </c>
       <c r="O47" t="n">
-        <v>11122.0</v>
+        <v>11117.0</v>
       </c>
       <c r="P47" t="n">
-        <v>503.0</v>
+        <v>29.3275</v>
       </c>
       <c r="Q47" t="n">
-        <v>503.0</v>
+        <v>81.3</v>
       </c>
       <c r="R47" t="n">
-        <v>503.0</v>
+        <v>50.46</v>
       </c>
       <c r="S47" t="s">
         <v>66</v>
@@ -6909,82 +6894,82 @@
         <v>68</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.05396138039753993</v>
+        <v>-0.03250071298585326</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.05376391842837653</v>
+        <v>-0.033667872232583475</v>
       </c>
       <c r="W47" t="n">
-        <v>0.016413150855754347</v>
+        <v>0.016275683729889523</v>
       </c>
       <c r="X47" t="n">
-        <v>0.01635074964738249</v>
+        <v>0.016208876818408095</v>
       </c>
       <c r="Y47" t="n">
-        <v>-3.2881814705501284</v>
+        <v>-1.9972308491074615</v>
       </c>
       <c r="Z47" t="n">
-        <v>-3.29516995798645</v>
+        <v>-2.061890683621395</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.001119931889760038</v>
+        <v>0.04714637619472564</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.866990829861286E-4</v>
+        <v>0.039241323127657796</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.054011050651888645</v>
+        <v>-0.03254996723067606</v>
       </c>
       <c r="AD47" t="n">
-        <v>-0.05391171014319121</v>
+        <v>-0.03245145874103046</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.05381339984123352</v>
+        <v>-0.033716924303167174</v>
       </c>
       <c r="AF47" t="n">
-        <v>-0.05371443701551954</v>
+        <v>-0.033618820161999775</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.8410117626276102</v>
+        <v>0.8187340963852295</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.33188670971173456</v>
+        <v>0.18039209516533683</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.6261049351597225</v>
+        <v>0.5636796091397615</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.7290459399630282</v>
+        <v>0.7394059918206516</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.525645528101417</v>
+        <v>0.4907011215366788</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.5450565030637159</v>
+        <v>0.5181675881025801</v>
       </c>
       <c r="AM47" t="n">
-        <v>238.3768368863379</v>
+        <v>251.09413390640668</v>
       </c>
       <c r="AN47" t="n">
-        <v>276.6365655977487</v>
+        <v>269.898349306286</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.4618580314708739</v>
+        <v>0.41150056245865535</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.4944342699172355</v>
+        <v>0.45090114000864906</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.6794397751207918</v>
+        <v>0.6413301610949432</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.7024491372642251</v>
+        <v>0.670904004914734</v>
       </c>
       <c r="AS47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
@@ -7007,16 +6992,16 @@
         <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H48" t="n">
         <v>4.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K48" t="s">
         <v>61</v>
@@ -7031,16 +7016,16 @@
         <v>11122.0</v>
       </c>
       <c r="O48" t="n">
-        <v>11122.0</v>
+        <v>11117.0</v>
       </c>
       <c r="P48" t="n">
-        <v>503.0</v>
+        <v>29.3275</v>
       </c>
       <c r="Q48" t="n">
-        <v>503.0</v>
+        <v>81.3</v>
       </c>
       <c r="R48" t="n">
-        <v>503.0</v>
+        <v>50.46</v>
       </c>
       <c r="S48" t="s">
         <v>66</v>
@@ -7049,82 +7034,82 @@
         <v>69</v>
       </c>
       <c r="U48" t="n">
-        <v>-0.06348215421786263</v>
+        <v>-0.03172562267050359</v>
       </c>
       <c r="V48" t="n">
-        <v>-0.06386917849626826</v>
+        <v>-0.031737564722237696</v>
       </c>
       <c r="W48" t="n">
-        <v>0.014623993460923612</v>
+        <v>0.01379196527947356</v>
       </c>
       <c r="X48" t="n">
-        <v>0.014619510929848409</v>
+        <v>0.013800067207272749</v>
       </c>
       <c r="Y48" t="n">
-        <v>-4.341046942682259</v>
+        <v>-2.3003119953999787</v>
       </c>
       <c r="Z48" t="n">
-        <v>-4.3687630046411225</v>
+        <v>-2.305891994179437</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.5309882873918384E-5</v>
+        <v>0.022750711970795257</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.26084502087228E-5</v>
+        <v>0.02113497066269257</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.06352641003937927</v>
+        <v>-0.031767360568937635</v>
       </c>
       <c r="AD48" t="n">
-        <v>-0.06343789839634599</v>
+        <v>-0.03168388477206955</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.0639134207525371</v>
+        <v>-0.031779327139109304</v>
       </c>
       <c r="AF48" t="n">
-        <v>-0.06382493623999942</v>
+        <v>-0.03169580230536609</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.8410117626276102</v>
+        <v>0.8187340963852295</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.33188670971173456</v>
+        <v>0.18039209516533683</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.6261049351597225</v>
+        <v>0.5636796091397615</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.7290459399630282</v>
+        <v>0.7394059918206516</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.525645528101417</v>
+        <v>0.4907011215366788</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.5450565030637159</v>
+        <v>0.5181675881025801</v>
       </c>
       <c r="AM48" t="n">
-        <v>238.3768368863379</v>
+        <v>251.09413390640668</v>
       </c>
       <c r="AN48" t="n">
-        <v>276.6365655977487</v>
+        <v>269.898349306286</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.4618580314708739</v>
+        <v>0.41150056245865535</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.4944342699172355</v>
+        <v>0.45090114000864906</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.6794397751207918</v>
+        <v>0.6413301610949432</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.7024491372642251</v>
+        <v>0.670904004914734</v>
       </c>
       <c r="AS48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
@@ -7147,16 +7132,16 @@
         <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H49" t="n">
         <v>4.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J49" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="K49" t="s">
         <v>61</v>
@@ -7171,16 +7156,16 @@
         <v>11122.0</v>
       </c>
       <c r="O49" t="n">
-        <v>11122.0</v>
+        <v>11117.0</v>
       </c>
       <c r="P49" t="n">
-        <v>503.0</v>
+        <v>29.3275</v>
       </c>
       <c r="Q49" t="n">
-        <v>503.0</v>
+        <v>81.3</v>
       </c>
       <c r="R49" t="n">
-        <v>503.0</v>
+        <v>50.46</v>
       </c>
       <c r="S49" t="s">
         <v>56</v>
@@ -7189,87 +7174,87 @@
         <v>70</v>
       </c>
       <c r="U49" t="n">
-        <v>-0.04731801142691611</v>
+        <v>-0.02605229854110346</v>
       </c>
       <c r="V49" t="n">
-        <v>-0.04729120392326516</v>
+        <v>-0.0265058312944634</v>
       </c>
       <c r="W49" t="n">
-        <v>0.015427860438605563</v>
+        <v>0.007956742527413576</v>
       </c>
       <c r="X49" t="n">
-        <v>0.012638445718701262</v>
+        <v>0.005445171150942421</v>
       </c>
       <c r="Y49" t="n">
-        <v>-3.208937749571023</v>
+        <v>-3.3500071697880087</v>
       </c>
       <c r="Z49" t="n">
-        <v>-3.790423911281764</v>
+        <v>-4.5560050377228425</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0047463216155954014</v>
+        <v>0.0019845663800074297</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.5118461891356803E-4</v>
+        <v>5.269068479047221E-6</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.047364699948746966</v>
+        <v>-0.026076377612123836</v>
       </c>
       <c r="AD49" t="n">
-        <v>-0.04727132290508525</v>
+        <v>-0.026028219470083082</v>
       </c>
       <c r="AE49" t="n">
-        <v>-0.047329450986180584</v>
+        <v>-0.026522309729251244</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.04725295686034974</v>
+        <v>-0.026489352859675554</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.8410117626276102</v>
+        <v>0.8187340963852295</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.33188670971173456</v>
+        <v>0.18039209516533683</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.6261049351597225</v>
+        <v>0.5636796091397615</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0.7290459399630282</v>
+        <v>0.7394059918206516</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.525645528101417</v>
+        <v>0.4907011215366788</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.5450565030637159</v>
+        <v>0.5181675881025801</v>
       </c>
       <c r="AM49" t="n">
-        <v>238.3768368863379</v>
+        <v>251.09413390640668</v>
       </c>
       <c r="AN49" t="n">
-        <v>276.6365655977487</v>
+        <v>269.898349306286</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.4618580314708739</v>
+        <v>0.41150056245865535</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.4944342699172355</v>
+        <v>0.45090114000864906</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.6794397751207918</v>
+        <v>0.6413301610949432</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.7024491372642251</v>
+        <v>0.670904004914734</v>
       </c>
       <c r="AS49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -7287,7 +7272,7 @@
         <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H50" t="n">
         <v>4.0</v>
@@ -7308,19 +7293,19 @@
         <v>56</v>
       </c>
       <c r="N50" t="n">
-        <v>11122.0</v>
+        <v>11669.0</v>
       </c>
       <c r="O50" t="n">
-        <v>10682.0</v>
+        <v>11669.0</v>
       </c>
       <c r="P50" t="n">
-        <v>299.58</v>
+        <v>16.27</v>
       </c>
       <c r="Q50" t="n">
-        <v>299.58</v>
+        <v>54.81</v>
       </c>
       <c r="R50" t="n">
-        <v>299.58</v>
+        <v>38.4</v>
       </c>
       <c r="S50" t="s">
         <v>53</v>
@@ -7329,87 +7314,87 @@
         <v>67</v>
       </c>
       <c r="U50" t="n">
-        <v>0.006641604859746193</v>
+        <v>0.008253608851534085</v>
       </c>
       <c r="V50" t="n">
-        <v>0.007368443415076613</v>
+        <v>0.008564520249436056</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01011918947029459</v>
+        <v>0.009681500191478391</v>
       </c>
       <c r="X50" t="n">
-        <v>0.007415662074543893</v>
+        <v>0.0075217827823812825</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.7096680831351422</v>
+        <v>0.9428289150329986</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.7771439023356911</v>
+        <v>0.9582929698671036</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.4943342364040892</v>
+        <v>0.37278792253045945</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.437090403239055</v>
+        <v>0.33793571277882595</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.006610981689386667</v>
+        <v>0.008224426745076917</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.00667222803010572</v>
+        <v>0.008282790957991254</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.007346001787345057</v>
+        <v>0.008541847991876598</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.00739088504280817</v>
+        <v>0.008587192506995514</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.8000644791084266</v>
+        <v>0.8285460228182574</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.19212453286224965</v>
+        <v>0.1949834531196012</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.5747559504871054</v>
+        <v>0.5679117762387909</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.6913937512715799</v>
+        <v>0.739180346677465</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.5087749624042482</v>
+        <v>0.44072230863529765</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.5857879477756137</v>
+        <v>0.45069037440290394</v>
       </c>
       <c r="AM50" t="n">
-        <v>270.4463313539914</v>
+        <v>115.61887532352539</v>
       </c>
       <c r="AN50" t="n">
-        <v>342.9711149954108</v>
+        <v>108.49585306132035</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.43892619869604765</v>
+        <v>0.3190618564261397</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.7253559934293062</v>
+        <v>0.34770484116916933</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.6623502258341997</v>
+        <v>0.5646754050625378</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.7847202224574051</v>
+        <v>0.5887967464714229</v>
       </c>
       <c r="AS50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -7427,7 +7412,7 @@
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H51" t="n">
         <v>4.0</v>
@@ -7448,19 +7433,19 @@
         <v>56</v>
       </c>
       <c r="N51" t="n">
-        <v>11122.0</v>
+        <v>11669.0</v>
       </c>
       <c r="O51" t="n">
-        <v>10682.0</v>
+        <v>11669.0</v>
       </c>
       <c r="P51" t="n">
-        <v>299.58</v>
+        <v>16.27</v>
       </c>
       <c r="Q51" t="n">
-        <v>299.58</v>
+        <v>54.81</v>
       </c>
       <c r="R51" t="n">
-        <v>299.58</v>
+        <v>38.4</v>
       </c>
       <c r="S51" t="s">
         <v>66</v>
@@ -7469,87 +7454,87 @@
         <v>68</v>
       </c>
       <c r="U51" t="n">
-        <v>-0.057604298339297824</v>
+        <v>-0.0047402586184581074</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.06425505643697137</v>
+        <v>-0.004285150866990912</v>
       </c>
       <c r="W51" t="n">
-        <v>0.043140359851684955</v>
+        <v>0.01438206556848087</v>
       </c>
       <c r="X51" t="n">
-        <v>0.04298784131145686</v>
+        <v>0.01420561104443899</v>
       </c>
       <c r="Y51" t="n">
-        <v>-1.3386688770636128</v>
+        <v>-0.32365777852982885</v>
       </c>
       <c r="Z51" t="n">
-        <v>-1.5427966002553228</v>
+        <v>-0.29219920469800476</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.19628086491956953</v>
+        <v>0.7508309161983291</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.12290858485625225</v>
+        <v>0.770139726609879</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.0577348517391514</v>
+        <v>-0.00478360923150285</v>
       </c>
       <c r="AD51" t="n">
-        <v>-0.05747374493944425</v>
+        <v>-0.004696908005413365</v>
       </c>
       <c r="AE51" t="n">
-        <v>-0.06438514827799613</v>
+        <v>-0.004327969608465794</v>
       </c>
       <c r="AF51" t="n">
-        <v>-0.0641249645959466</v>
+        <v>-0.0042423321255160296</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.8000644791084266</v>
+        <v>0.8285460228182574</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.19212453286224965</v>
+        <v>0.1949834531196012</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.5747559504871054</v>
+        <v>0.5679117762387909</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.6913937512715799</v>
+        <v>0.739180346677465</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.5087749624042482</v>
+        <v>0.44072230863529765</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.5857879477756137</v>
+        <v>0.45069037440290394</v>
       </c>
       <c r="AM51" t="n">
-        <v>270.4463313539914</v>
+        <v>115.61887532352539</v>
       </c>
       <c r="AN51" t="n">
-        <v>342.9711149954108</v>
+        <v>108.49585306132035</v>
       </c>
       <c r="AO51" t="n">
-        <v>0.43892619869604765</v>
+        <v>0.3190618564261397</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.7253559934293062</v>
+        <v>0.34770484116916933</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.6623502258341997</v>
+        <v>0.5646754050625378</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.7847202224574051</v>
+        <v>0.5887967464714229</v>
       </c>
       <c r="AS51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -7567,7 +7552,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H52" t="n">
         <v>4.0</v>
@@ -7588,19 +7573,19 @@
         <v>56</v>
       </c>
       <c r="N52" t="n">
-        <v>11122.0</v>
+        <v>11669.0</v>
       </c>
       <c r="O52" t="n">
-        <v>10682.0</v>
+        <v>11669.0</v>
       </c>
       <c r="P52" t="n">
-        <v>299.58</v>
+        <v>16.27</v>
       </c>
       <c r="Q52" t="n">
-        <v>299.58</v>
+        <v>54.81</v>
       </c>
       <c r="R52" t="n">
-        <v>299.58</v>
+        <v>38.4</v>
       </c>
       <c r="S52" t="s">
         <v>66</v>
@@ -7609,87 +7594,87 @@
         <v>69</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.03303811524983185</v>
+        <v>-0.03709678037693084</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.03159722573035486</v>
+        <v>-0.03765611476403644</v>
       </c>
       <c r="W52" t="n">
-        <v>0.014191153614336361</v>
+        <v>0.012472270173675791</v>
       </c>
       <c r="X52" t="n">
-        <v>0.014132528602923194</v>
+        <v>0.012459521290572997</v>
       </c>
       <c r="Y52" t="n">
-        <v>-2.3289248695118787</v>
+        <v>-2.9744738218490454</v>
       </c>
       <c r="Z52" t="n">
-        <v>-2.2563349172430467</v>
+        <v>-3.0023903873892412</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.025461092851187486</v>
+        <v>0.002964322934378326</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.024068998818200616</v>
+        <v>0.0026845881089658753</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.033081061190908034</v>
+        <v>-0.03713437445933256</v>
       </c>
       <c r="AD52" t="n">
-        <v>-0.032995169308755665</v>
+        <v>-0.03705918629452911</v>
       </c>
       <c r="AE52" t="n">
-        <v>-0.031639994257645375</v>
+        <v>-0.0376936704185854</v>
       </c>
       <c r="AF52" t="n">
-        <v>-0.031554457203064344</v>
+        <v>-0.037618559109487484</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.8000644791084266</v>
+        <v>0.8285460228182574</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.19212453286224965</v>
+        <v>0.1949834531196012</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.5747559504871054</v>
+        <v>0.5679117762387909</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.6913937512715799</v>
+        <v>0.739180346677465</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.5087749624042482</v>
+        <v>0.44072230863529765</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.5857879477756137</v>
+        <v>0.45069037440290394</v>
       </c>
       <c r="AM52" t="n">
-        <v>270.4463313539914</v>
+        <v>115.61887532352539</v>
       </c>
       <c r="AN52" t="n">
-        <v>342.9711149954108</v>
+        <v>108.49585306132035</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.43892619869604765</v>
+        <v>0.3190618564261397</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.7253559934293062</v>
+        <v>0.34770484116916933</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.6623502258341997</v>
+        <v>0.5646754050625378</v>
       </c>
       <c r="AR52" t="n">
-        <v>0.7847202224574051</v>
+        <v>0.5887967464714229</v>
       </c>
       <c r="AS52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -7707,7 +7692,7 @@
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H53" t="n">
         <v>4.0</v>
@@ -7728,19 +7713,19 @@
         <v>56</v>
       </c>
       <c r="N53" t="n">
-        <v>11122.0</v>
+        <v>11669.0</v>
       </c>
       <c r="O53" t="n">
-        <v>10682.0</v>
+        <v>11669.0</v>
       </c>
       <c r="P53" t="n">
-        <v>299.58</v>
+        <v>16.27</v>
       </c>
       <c r="Q53" t="n">
-        <v>299.58</v>
+        <v>54.81</v>
       </c>
       <c r="R53" t="n">
-        <v>299.58</v>
+        <v>38.4</v>
       </c>
       <c r="S53" t="s">
         <v>56</v>
@@ -7749,87 +7734,87 @@
         <v>70</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.05096269347955163</v>
+        <v>0.003513350233075977</v>
       </c>
       <c r="V53" t="n">
-        <v>-0.05484771610431172</v>
+        <v>0.004723735968930212</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03195886552161417</v>
+        <v>0.011610184093883506</v>
       </c>
       <c r="X53" t="n">
-        <v>0.023344505351921417</v>
+        <v>0.00933861504541775</v>
       </c>
       <c r="Y53" t="n">
-        <v>-1.6752357064032402</v>
+        <v>0.2992141681076704</v>
       </c>
       <c r="Z53" t="n">
-        <v>-1.9974237298675142</v>
+        <v>0.4543897098511299</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.13790426103293224</v>
+        <v>0.7366588038615519</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.045803489007397814</v>
+        <v>0.6495571545095801</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.051059408911774594</v>
+        <v>0.0034783546619853267</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.05086597804732867</v>
+        <v>0.0035483458041666274</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.05491836235186438</v>
+        <v>0.004695587391434158</v>
       </c>
       <c r="AF53" t="n">
-        <v>-0.05477706985675905</v>
+        <v>0.004751884546426266</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.8000644791084266</v>
+        <v>0.8285460228182574</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.19212453286224965</v>
+        <v>0.1949834531196012</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.5747559504871054</v>
+        <v>0.5679117762387909</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.6913937512715799</v>
+        <v>0.739180346677465</v>
       </c>
       <c r="AK53" t="n">
-        <v>0.5087749624042482</v>
+        <v>0.44072230863529765</v>
       </c>
       <c r="AL53" t="n">
-        <v>0.5857879477756137</v>
+        <v>0.45069037440290394</v>
       </c>
       <c r="AM53" t="n">
-        <v>270.4463313539914</v>
+        <v>115.61887532352539</v>
       </c>
       <c r="AN53" t="n">
-        <v>342.9711149954108</v>
+        <v>108.49585306132035</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.43892619869604765</v>
+        <v>0.3190618564261397</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.7253559934293062</v>
+        <v>0.34770484116916933</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.6623502258341997</v>
+        <v>0.5646754050625378</v>
       </c>
       <c r="AR53" t="n">
-        <v>0.7847202224574051</v>
+        <v>0.5887967464714229</v>
       </c>
       <c r="AS53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -7853,10 +7838,10 @@
         <v>4.0</v>
       </c>
       <c r="I54" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J54" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="K54" t="s">
         <v>61</v>
@@ -7868,19 +7853,19 @@
         <v>56</v>
       </c>
       <c r="N54" t="n">
-        <v>11122.0</v>
+        <v>11654.0</v>
       </c>
       <c r="O54" t="n">
-        <v>11117.0</v>
+        <v>11654.0</v>
       </c>
       <c r="P54" t="n">
-        <v>29.3275</v>
+        <v>18.16</v>
       </c>
       <c r="Q54" t="n">
-        <v>81.3</v>
+        <v>33.91</v>
       </c>
       <c r="R54" t="n">
-        <v>50.46</v>
+        <v>18.58</v>
       </c>
       <c r="S54" t="s">
         <v>53</v>
@@ -7889,87 +7874,87 @@
         <v>67</v>
       </c>
       <c r="U54" t="n">
-        <v>0.006448414444749802</v>
+        <v>0.009994502692567556</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0063458116204920915</v>
+        <v>0.009889201310358725</v>
       </c>
       <c r="W54" t="n">
-        <v>0.00586027410042029</v>
+        <v>0.011245866537053532</v>
       </c>
       <c r="X54" t="n">
-        <v>0.004210494688011051</v>
+        <v>0.007332890244147518</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.1432440603525185</v>
+        <v>0.986179936822446</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.5285777332213555</v>
+        <v>1.0997176778999855</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.27229161339660796</v>
+        <v>0.3639122623720405</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.1263975975859819</v>
+        <v>0.27147876363894025</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.006430679805759445</v>
+        <v>0.009960605252295205</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.006466149083740158</v>
+        <v>0.010028400132839907</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.006333069622083291</v>
+        <v>0.009867098415196692</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.006358553618900892</v>
+        <v>0.009911304205520758</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.8187340963852295</v>
+        <v>0.8289791956801498</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.18039209516533683</v>
+        <v>0.1990241558472325</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.5636796091397615</v>
+        <v>0.5694054733033215</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.7394059918206516</v>
+        <v>0.7413000564093347</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.4907011215366788</v>
+        <v>0.36740353084504235</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.5181675881025801</v>
+        <v>0.37033648340412173</v>
       </c>
       <c r="AM54" t="n">
-        <v>251.09413390640668</v>
+        <v>75.0374466646343</v>
       </c>
       <c r="AN54" t="n">
-        <v>269.898349306286</v>
+        <v>73.09091392117269</v>
       </c>
       <c r="AO54" t="n">
-        <v>0.41150056245865535</v>
+        <v>0.22724764507575984</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.45090114000864906</v>
+        <v>0.23430703066196384</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.6413301610949432</v>
+        <v>0.4764539291367848</v>
       </c>
       <c r="AR54" t="n">
-        <v>0.670904004914734</v>
+        <v>0.483572402718819</v>
       </c>
       <c r="AS54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -7993,10 +7978,10 @@
         <v>4.0</v>
       </c>
       <c r="I55" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J55" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="K55" t="s">
         <v>61</v>
@@ -8008,19 +7993,19 @@
         <v>56</v>
       </c>
       <c r="N55" t="n">
-        <v>11122.0</v>
+        <v>11654.0</v>
       </c>
       <c r="O55" t="n">
-        <v>11117.0</v>
+        <v>11654.0</v>
       </c>
       <c r="P55" t="n">
-        <v>29.3275</v>
+        <v>18.16</v>
       </c>
       <c r="Q55" t="n">
-        <v>81.3</v>
+        <v>33.91</v>
       </c>
       <c r="R55" t="n">
-        <v>50.46</v>
+        <v>18.58</v>
       </c>
       <c r="S55" t="s">
         <v>66</v>
@@ -8029,87 +8014,87 @@
         <v>68</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.03250071298585326</v>
+        <v>-0.03545825491364206</v>
       </c>
       <c r="V55" t="n">
-        <v>-0.033667872232583475</v>
+        <v>-0.03564186327586076</v>
       </c>
       <c r="W55" t="n">
-        <v>0.016275683729889523</v>
+        <v>0.011670592565565121</v>
       </c>
       <c r="X55" t="n">
-        <v>0.016208876818408095</v>
+        <v>0.011655284494592539</v>
       </c>
       <c r="Y55" t="n">
-        <v>-1.9972308491074615</v>
+        <v>-3.0393327249320796</v>
       </c>
       <c r="Z55" t="n">
-        <v>-2.061890683621395</v>
+        <v>-3.058856084611648</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.04714637619472564</v>
+        <v>0.002563888562872252</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.039241323127657796</v>
+        <v>0.0022270809844819766</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.03254996723067606</v>
+        <v>-0.03549343256875034</v>
       </c>
       <c r="AD55" t="n">
-        <v>-0.03245145874103046</v>
+        <v>-0.03542307725853378</v>
       </c>
       <c r="AE55" t="n">
-        <v>-0.033716924303167174</v>
+        <v>-0.035676994789178205</v>
       </c>
       <c r="AF55" t="n">
-        <v>-0.033618820161999775</v>
+        <v>-0.035606731762543316</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.8187340963852295</v>
+        <v>0.8289791956801498</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.18039209516533683</v>
+        <v>0.1990241558472325</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.5636796091397615</v>
+        <v>0.5694054733033215</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.7394059918206516</v>
+        <v>0.7413000564093347</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.4907011215366788</v>
+        <v>0.36740353084504235</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.5181675881025801</v>
+        <v>0.37033648340412173</v>
       </c>
       <c r="AM55" t="n">
-        <v>251.09413390640668</v>
+        <v>75.0374466646343</v>
       </c>
       <c r="AN55" t="n">
-        <v>269.898349306286</v>
+        <v>73.09091392117269</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.41150056245865535</v>
+        <v>0.22724764507575984</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.45090114000864906</v>
+        <v>0.23430703066196384</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.6413301610949432</v>
+        <v>0.4764539291367848</v>
       </c>
       <c r="AR55" t="n">
-        <v>0.670904004914734</v>
+        <v>0.483572402718819</v>
       </c>
       <c r="AS55" t="s">
         <v>89</v>
       </c>
       <c r="AT55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -8133,10 +8118,10 @@
         <v>4.0</v>
       </c>
       <c r="I56" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J56" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="K56" t="s">
         <v>61</v>
@@ -8148,19 +8133,19 @@
         <v>56</v>
       </c>
       <c r="N56" t="n">
-        <v>11122.0</v>
+        <v>11654.0</v>
       </c>
       <c r="O56" t="n">
-        <v>11117.0</v>
+        <v>11654.0</v>
       </c>
       <c r="P56" t="n">
-        <v>29.3275</v>
+        <v>18.16</v>
       </c>
       <c r="Q56" t="n">
-        <v>81.3</v>
+        <v>33.91</v>
       </c>
       <c r="R56" t="n">
-        <v>50.46</v>
+        <v>18.58</v>
       </c>
       <c r="S56" t="s">
         <v>66</v>
@@ -8169,87 +8154,87 @@
         <v>69</v>
       </c>
       <c r="U56" t="n">
-        <v>-0.03172562267050359</v>
+        <v>-0.02587040803268037</v>
       </c>
       <c r="V56" t="n">
-        <v>-0.031737564722237696</v>
+        <v>-0.02534420319264114</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01379196527947356</v>
+        <v>0.010105018176304053</v>
       </c>
       <c r="X56" t="n">
-        <v>0.013800067207272749</v>
+        <v>0.010090615015721983</v>
       </c>
       <c r="Y56" t="n">
-        <v>-2.3003119953999787</v>
+        <v>-2.5601299403975815</v>
       </c>
       <c r="Z56" t="n">
-        <v>-2.305891994179437</v>
+        <v>-2.499152976150821</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.022750711970795257</v>
+        <v>0.012602819036202542</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.02113497066269257</v>
+        <v>0.012463245037604946</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.031767360568937635</v>
+        <v>-0.02590086671267214</v>
       </c>
       <c r="AD56" t="n">
-        <v>-0.03168388477206955</v>
+        <v>-0.025839949352688598</v>
       </c>
       <c r="AE56" t="n">
-        <v>-0.031779327139109304</v>
+        <v>-0.025374618458434996</v>
       </c>
       <c r="AF56" t="n">
-        <v>-0.03169580230536609</v>
+        <v>-0.02531378792684728</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.8187340963852295</v>
+        <v>0.8289791956801498</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.18039209516533683</v>
+        <v>0.1990241558472325</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.5636796091397615</v>
+        <v>0.5694054733033215</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.7394059918206516</v>
+        <v>0.7413000564093347</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.4907011215366788</v>
+        <v>0.36740353084504235</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.5181675881025801</v>
+        <v>0.37033648340412173</v>
       </c>
       <c r="AM56" t="n">
-        <v>251.09413390640668</v>
+        <v>75.0374466646343</v>
       </c>
       <c r="AN56" t="n">
-        <v>269.898349306286</v>
+        <v>73.09091392117269</v>
       </c>
       <c r="AO56" t="n">
-        <v>0.41150056245865535</v>
+        <v>0.22724764507575984</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.45090114000864906</v>
+        <v>0.23430703066196384</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.6413301610949432</v>
+        <v>0.4764539291367848</v>
       </c>
       <c r="AR56" t="n">
-        <v>0.670904004914734</v>
+        <v>0.483572402718819</v>
       </c>
       <c r="AS56" t="s">
         <v>89</v>
       </c>
       <c r="AT56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
@@ -8273,10 +8258,10 @@
         <v>4.0</v>
       </c>
       <c r="I57" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J57" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="K57" t="s">
         <v>61</v>
@@ -8288,19 +8273,19 @@
         <v>56</v>
       </c>
       <c r="N57" t="n">
-        <v>11122.0</v>
+        <v>11654.0</v>
       </c>
       <c r="O57" t="n">
-        <v>11117.0</v>
+        <v>11654.0</v>
       </c>
       <c r="P57" t="n">
-        <v>29.3275</v>
+        <v>18.16</v>
       </c>
       <c r="Q57" t="n">
-        <v>81.3</v>
+        <v>33.91</v>
       </c>
       <c r="R57" t="n">
-        <v>50.46</v>
+        <v>18.58</v>
       </c>
       <c r="S57" t="s">
         <v>56</v>
@@ -8309,87 +8294,87 @@
         <v>70</v>
       </c>
       <c r="U57" t="n">
-        <v>-0.02605229854110346</v>
+        <v>-0.025463752221074505</v>
       </c>
       <c r="V57" t="n">
-        <v>-0.0265058312944634</v>
+        <v>-0.02517901558954081</v>
       </c>
       <c r="W57" t="n">
-        <v>0.007956742527413576</v>
+        <v>0.012314261322289499</v>
       </c>
       <c r="X57" t="n">
-        <v>0.005445171150942421</v>
+        <v>0.007870809066312063</v>
       </c>
       <c r="Y57" t="n">
-        <v>-3.3500071697880087</v>
+        <v>-2.3832703696361675</v>
       </c>
       <c r="Z57" t="n">
-        <v>-4.5560050377228425</v>
+        <v>-3.2001126452735225</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.0019845663800074297</v>
+        <v>0.06335055240133736</v>
       </c>
       <c r="AB57" t="n">
-        <v>5.269068479047221E-6</v>
+        <v>0.0013775653465685647</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.026076377612123836</v>
+        <v>-0.025500870031097866</v>
       </c>
       <c r="AD57" t="n">
-        <v>-0.026028219470083082</v>
+        <v>-0.025426634411051145</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.026522309729251244</v>
+        <v>-0.025202739886760712</v>
       </c>
       <c r="AF57" t="n">
-        <v>-0.026489352859675554</v>
+        <v>-0.02515529129232091</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.8187340963852295</v>
+        <v>0.8289791956801498</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.18039209516533683</v>
+        <v>0.1990241558472325</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.5636796091397615</v>
+        <v>0.5694054733033215</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.7394059918206516</v>
+        <v>0.7413000564093347</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.4907011215366788</v>
+        <v>0.36740353084504235</v>
       </c>
       <c r="AL57" t="n">
-        <v>0.5181675881025801</v>
+        <v>0.37033648340412173</v>
       </c>
       <c r="AM57" t="n">
-        <v>251.09413390640668</v>
+        <v>75.0374466646343</v>
       </c>
       <c r="AN57" t="n">
-        <v>269.898349306286</v>
+        <v>73.09091392117269</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.41150056245865535</v>
+        <v>0.22724764507575984</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.45090114000864906</v>
+        <v>0.23430703066196384</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.6413301610949432</v>
+        <v>0.4764539291367848</v>
       </c>
       <c r="AR57" t="n">
-        <v>0.670904004914734</v>
+        <v>0.483572402718819</v>
       </c>
       <c r="AS57" t="s">
         <v>89</v>
       </c>
       <c r="AT57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
@@ -8428,19 +8413,19 @@
         <v>56</v>
       </c>
       <c r="N58" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="O58" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="P58" t="n">
-        <v>17.23</v>
+        <v>17.1</v>
       </c>
       <c r="Q58" t="n">
-        <v>67.46</v>
+        <v>54.37</v>
       </c>
       <c r="R58" t="n">
-        <v>36.64</v>
+        <v>24.13</v>
       </c>
       <c r="S58" t="s">
         <v>53</v>
@@ -8449,87 +8434,87 @@
         <v>67</v>
       </c>
       <c r="U58" t="n">
-        <v>0.006371435288440104</v>
+        <v>-0.010310826392416528</v>
       </c>
       <c r="V58" t="n">
-        <v>0.006349894673082725</v>
+        <v>-0.010165540234057602</v>
       </c>
       <c r="W58" t="n">
-        <v>0.008835421602773464</v>
+        <v>0.010060166517475735</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0066260381684915</v>
+        <v>0.006866538278717453</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.7995771009416214</v>
+        <v>-1.0789453416134906</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.023521169658376</v>
+        <v>-1.4647077185367168</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.4446816879036029</v>
+        <v>0.3008595864566051</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.32623529519779904</v>
+        <v>0.14302871889049285</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.006344697117192867</v>
+        <v>-0.010341149879942585</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.006398173459687341</v>
+        <v>-0.010280502904890472</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.0063298426426075475</v>
+        <v>-0.010186237444931814</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.0063699467035579025</v>
+        <v>-0.01014484302318339</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8285619814544253</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.1955020402495838</v>
       </c>
       <c r="AI58" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.5680891247709275</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7393640662062063</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4865552380070391</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5288601699009153</v>
       </c>
       <c r="AM58" t="n">
-        <v>249.24099106839657</v>
+        <v>108.73071853843709</v>
       </c>
       <c r="AN58" t="n">
-        <v>267.0579899256722</v>
+        <v>113.81799660120052</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.361552715706963</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.422641141598642</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6011389740214533</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.6494144405896527</v>
       </c>
       <c r="AS58" t="s">
         <v>90</v>
       </c>
       <c r="AT58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
@@ -8568,19 +8553,19 @@
         <v>56</v>
       </c>
       <c r="N59" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="O59" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="P59" t="n">
-        <v>17.23</v>
+        <v>17.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>67.46</v>
+        <v>54.37</v>
       </c>
       <c r="R59" t="n">
-        <v>36.64</v>
+        <v>24.13</v>
       </c>
       <c r="S59" t="s">
         <v>66</v>
@@ -8589,87 +8574,87 @@
         <v>68</v>
       </c>
       <c r="U59" t="n">
-        <v>-0.03733512203077081</v>
+        <v>0.031227808435374746</v>
       </c>
       <c r="V59" t="n">
-        <v>-0.03650556</v>
+        <v>0.030483613016694954</v>
       </c>
       <c r="W59" t="n">
-        <v>0.015654990053559296</v>
+        <v>0.015396907792549841</v>
       </c>
       <c r="X59" t="n">
-        <v>0.015625567218425913</v>
+        <v>0.015348062611707005</v>
       </c>
       <c r="Y59" t="n">
-        <v>-2.3847454032099997</v>
+        <v>2.02674194524185</v>
       </c>
       <c r="Z59" t="n">
-        <v>-2.3981319471116085</v>
+        <v>1.995320281637818</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.0177729119837947</v>
+        <v>0.04666839193869839</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.017036398963200656</v>
+        <v>0.046032118322011976</v>
       </c>
       <c r="AC59" t="n">
-        <v>-0.03738249790299794</v>
+        <v>0.031181398871420095</v>
       </c>
       <c r="AD59" t="n">
-        <v>-0.037287746158543675</v>
+        <v>0.0312742179993294</v>
       </c>
       <c r="AE59" t="n">
-        <v>-0.037520313256930594</v>
+        <v>0.030437350682533112</v>
       </c>
       <c r="AF59" t="n">
-        <v>-0.03742573959403026</v>
+        <v>0.030529875350856796</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8285619814544253</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.1955020402495838</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.5680891247709275</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7393640662062063</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4865552380070391</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5288601699009153</v>
       </c>
       <c r="AM59" t="n">
-        <v>249.24099106839657</v>
+        <v>108.73071853843709</v>
       </c>
       <c r="AN59" t="n">
-        <v>267.0579899256722</v>
+        <v>113.81799660120052</v>
       </c>
       <c r="AO59" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.361552715706963</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.422641141598642</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6011389740214533</v>
       </c>
       <c r="AR59" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.6494144405896527</v>
       </c>
       <c r="AS59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AT59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -8708,19 +8693,19 @@
         <v>56</v>
       </c>
       <c r="N60" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="O60" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="P60" t="n">
-        <v>17.23</v>
+        <v>17.1</v>
       </c>
       <c r="Q60" t="n">
-        <v>67.46</v>
+        <v>54.37</v>
       </c>
       <c r="R60" t="n">
-        <v>36.64</v>
+        <v>24.13</v>
       </c>
       <c r="S60" t="s">
         <v>66</v>
@@ -8729,87 +8714,87 @@
         <v>69</v>
       </c>
       <c r="U60" t="n">
-        <v>-0.030874005992294874</v>
+        <v>0.03767241730417356</v>
       </c>
       <c r="V60" t="n">
-        <v>-0.03133789</v>
+        <v>0.03787974894363263</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01385699320678163</v>
+        <v>0.013669972093216949</v>
       </c>
       <c r="X60" t="n">
-        <v>0.013831512477596113</v>
+        <v>0.013625686154591194</v>
       </c>
       <c r="Y60" t="n">
-        <v>-2.228087244209481</v>
+        <v>2.756031445433101</v>
       </c>
       <c r="Z60" t="n">
-        <v>-2.25279544157427</v>
+        <v>2.7720841528368725</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.027429220165683138</v>
+        <v>0.005965966062003287</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.025664921309845868</v>
+        <v>0.005579053104093117</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.030915940681321873</v>
+        <v>0.03763121309273927</v>
       </c>
       <c r="AD60" t="n">
-        <v>-0.030832071303267875</v>
+        <v>0.03771362151560785</v>
       </c>
       <c r="AE60" t="n">
-        <v>-0.03120194306809476</v>
+        <v>0.037838678219462706</v>
       </c>
       <c r="AF60" t="n">
-        <v>-0.031118227912019316</v>
+        <v>0.03792081966780255</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8285619814544253</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.1955020402495838</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.5680891247709275</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7393640662062063</v>
       </c>
       <c r="AK60" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4865552380070391</v>
       </c>
       <c r="AL60" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5288601699009153</v>
       </c>
       <c r="AM60" t="n">
-        <v>249.24099106839657</v>
+        <v>108.73071853843709</v>
       </c>
       <c r="AN60" t="n">
-        <v>267.0579899256722</v>
+        <v>113.81799660120052</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.361552715706963</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.422641141598642</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6011389740214533</v>
       </c>
       <c r="AR60" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.6494144405896527</v>
       </c>
       <c r="AS60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AT60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -8848,19 +8833,19 @@
         <v>56</v>
       </c>
       <c r="N61" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="O61" t="n">
-        <v>11122.0</v>
+        <v>11659.0</v>
       </c>
       <c r="P61" t="n">
-        <v>17.23</v>
+        <v>17.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>67.46</v>
+        <v>54.37</v>
       </c>
       <c r="R61" t="n">
-        <v>36.64</v>
+        <v>24.13</v>
       </c>
       <c r="S61" t="s">
         <v>56</v>
@@ -8869,87 +8854,87 @@
         <v>70</v>
       </c>
       <c r="U61" t="n">
-        <v>-0.030963686742330708</v>
+        <v>0.02091698204295822</v>
       </c>
       <c r="V61" t="n">
-        <v>-0.031253618093149735</v>
+        <v>0.020143901762865894</v>
       </c>
       <c r="W61" t="n">
-        <v>0.013067226751887328</v>
+        <v>0.019043926703224315</v>
       </c>
       <c r="X61" t="n">
-        <v>0.010576719607734986</v>
+        <v>0.014852177067307666</v>
       </c>
       <c r="Y61" t="n">
-        <v>-2.707815198793029</v>
+        <v>1.2085847484390309</v>
       </c>
       <c r="Z61" t="n">
-        <v>-3.100592402759909</v>
+        <v>1.5144208529293592</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.033546761656183324</v>
+        <v>0.2572216840034421</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.005817863903513691</v>
+        <v>0.1299473245248041</v>
       </c>
       <c r="AC61" t="n">
-        <v>-0.03100323140271327</v>
+        <v>0.02085957958616695</v>
       </c>
       <c r="AD61" t="n">
-        <v>-0.030924142081948144</v>
+        <v>0.02097438449974949</v>
       </c>
       <c r="AE61" t="n">
-        <v>-0.03128562586287709</v>
+        <v>0.020099134133497835</v>
       </c>
       <c r="AF61" t="n">
-        <v>-0.031221610323422383</v>
+        <v>0.020188669392233953</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.818320231145076</v>
+        <v>0.8285619814544253</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.17813017444415422</v>
+        <v>0.1955020402495838</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.5628410030125842</v>
+        <v>0.5680891247709275</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0.7351676388101983</v>
+        <v>0.7393640662062063</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.49200326704981945</v>
+        <v>0.4865552380070391</v>
       </c>
       <c r="AL61" t="n">
-        <v>0.5203117349104747</v>
+        <v>0.5288601699009153</v>
       </c>
       <c r="AM61" t="n">
-        <v>249.24099106839657</v>
+        <v>108.73071853843709</v>
       </c>
       <c r="AN61" t="n">
-        <v>267.0579899256722</v>
+        <v>113.81799660120052</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.4135433645930608</v>
+        <v>0.361552715706963</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.45476274356301294</v>
+        <v>0.422641141598642</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.6429160410450434</v>
+        <v>0.6011389740214533</v>
       </c>
       <c r="AR61" t="n">
-        <v>0.6737560235239982</v>
+        <v>0.6494144405896527</v>
       </c>
       <c r="AS61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AT61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
@@ -8967,7 +8952,7 @@
         <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H62" t="n">
         <v>4.0</v>
@@ -8988,19 +8973,19 @@
         <v>56</v>
       </c>
       <c r="N62" t="n">
-        <v>11669.0</v>
+        <v>11529.0</v>
       </c>
       <c r="O62" t="n">
-        <v>11669.0</v>
+        <v>11504.0</v>
       </c>
       <c r="P62" t="n">
-        <v>16.27</v>
+        <v>129.21</v>
       </c>
       <c r="Q62" t="n">
-        <v>54.81</v>
+        <v>129.21</v>
       </c>
       <c r="R62" t="n">
-        <v>38.4</v>
+        <v>129.21</v>
       </c>
       <c r="S62" t="s">
         <v>53</v>
@@ -9009,87 +8994,87 @@
         <v>67</v>
       </c>
       <c r="U62" t="n">
-        <v>0.008253608851534085</v>
+        <v>0.003350273699731608</v>
       </c>
       <c r="V62" t="n">
-        <v>0.008564520249436056</v>
+        <v>0.0030230401824217035</v>
       </c>
       <c r="W62" t="n">
-        <v>0.009681500191478391</v>
+        <v>0.008434619086378185</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0075217827823812825</v>
+        <v>0.006987583189841391</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.9428289150329986</v>
+        <v>0.42175736393385</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.9582929698671036</v>
+        <v>0.3825701771000648</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.37278792253045945</v>
+        <v>0.6819476423947116</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.33793571277882595</v>
+        <v>0.7020457966349447</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.008224426745076917</v>
+        <v>0.0033247484560391055</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.008282790957991254</v>
+        <v>0.0033757989434241107</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.008541847991876598</v>
+        <v>0.003001894027282299</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.008587192506995514</v>
+        <v>0.003044186337561108</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.8285460228182574</v>
+        <v>0.8168756512116474</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.1949834531196012</v>
+        <v>0.2115989485069856</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.5679117762387909</v>
+        <v>0.5777056058612534</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0.739180346677465</v>
+        <v>0.6916739393678365</v>
       </c>
       <c r="AK62" t="n">
-        <v>0.44072230863529765</v>
+        <v>0.516014741765388</v>
       </c>
       <c r="AL62" t="n">
-        <v>0.45069037440290394</v>
+        <v>0.562349827141345</v>
       </c>
       <c r="AM62" t="n">
-        <v>115.61887532352539</v>
+        <v>265.39891439306825</v>
       </c>
       <c r="AN62" t="n">
-        <v>108.49585306132035</v>
+        <v>322.362497816</v>
       </c>
       <c r="AO62" t="n">
-        <v>0.3190618564261397</v>
+        <v>0.4533740570456227</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.34770484116916933</v>
+        <v>0.8985578965649031</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5646754050625378</v>
+        <v>0.6731375679834714</v>
       </c>
       <c r="AR62" t="n">
-        <v>0.5887967464714229</v>
+        <v>0.7770165662821114</v>
       </c>
       <c r="AS62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
@@ -9107,7 +9092,7 @@
         <v>55</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H63" t="n">
         <v>4.0</v>
@@ -9128,19 +9113,19 @@
         <v>56</v>
       </c>
       <c r="N63" t="n">
-        <v>11669.0</v>
+        <v>11529.0</v>
       </c>
       <c r="O63" t="n">
-        <v>11669.0</v>
+        <v>11504.0</v>
       </c>
       <c r="P63" t="n">
-        <v>16.27</v>
+        <v>129.21</v>
       </c>
       <c r="Q63" t="n">
-        <v>54.81</v>
+        <v>129.21</v>
       </c>
       <c r="R63" t="n">
-        <v>38.4</v>
+        <v>129.21</v>
       </c>
       <c r="S63" t="s">
         <v>66</v>
@@ -9149,87 +9134,87 @@
         <v>68</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.0047402586184581074</v>
+        <v>-0.05616464763249477</v>
       </c>
       <c r="V63" t="n">
-        <v>-0.004285150866990912</v>
+        <v>-0.054807964671137</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01438206556848087</v>
+        <v>0.04046716473851448</v>
       </c>
       <c r="X63" t="n">
-        <v>0.01420561104443899</v>
+        <v>0.029445329882820184</v>
       </c>
       <c r="Y63" t="n">
-        <v>-0.32365777852982885</v>
+        <v>-1.6525658249868311</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.29219920469800476</v>
+        <v>-1.9352917142879282</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.7508309161983291</v>
+        <v>0.16307079477885147</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.770139726609879</v>
+        <v>0.05297982668102119</v>
       </c>
       <c r="AC63" t="n">
-        <v>-0.00478360923150285</v>
+        <v>-0.05628711128271027</v>
       </c>
       <c r="AD63" t="n">
-        <v>-0.004696908005413365</v>
+        <v>-0.05604218398227927</v>
       </c>
       <c r="AE63" t="n">
-        <v>-0.004327969608465794</v>
+        <v>-0.05489707352278377</v>
       </c>
       <c r="AF63" t="n">
-        <v>-0.0042423321255160296</v>
+        <v>-0.05471885581949023</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.8285460228182574</v>
+        <v>0.8168756512116474</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.1949834531196012</v>
+        <v>0.2115989485069856</v>
       </c>
       <c r="AI63" t="n">
-        <v>0.5679117762387909</v>
+        <v>0.5777056058612534</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0.739180346677465</v>
+        <v>0.6916739393678365</v>
       </c>
       <c r="AK63" t="n">
-        <v>0.44072230863529765</v>
+        <v>0.516014741765388</v>
       </c>
       <c r="AL63" t="n">
-        <v>0.45069037440290394</v>
+        <v>0.562349827141345</v>
       </c>
       <c r="AM63" t="n">
-        <v>115.61887532352539</v>
+        <v>265.39891439306825</v>
       </c>
       <c r="AN63" t="n">
-        <v>108.49585306132035</v>
+        <v>322.362497816</v>
       </c>
       <c r="AO63" t="n">
-        <v>0.3190618564261397</v>
+        <v>0.4533740570456227</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.34770484116916933</v>
+        <v>0.8985578965649031</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.5646754050625378</v>
+        <v>0.6731375679834714</v>
       </c>
       <c r="AR63" t="n">
-        <v>0.5887967464714229</v>
+        <v>0.7770165662821114</v>
       </c>
       <c r="AS63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
         <v>50</v>
@@ -9247,7 +9232,7 @@
         <v>55</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H64" t="n">
         <v>4.0</v>
@@ -9268,19 +9253,19 @@
         <v>56</v>
       </c>
       <c r="N64" t="n">
-        <v>11669.0</v>
+        <v>11529.0</v>
       </c>
       <c r="O64" t="n">
-        <v>11669.0</v>
+        <v>11504.0</v>
       </c>
       <c r="P64" t="n">
-        <v>16.27</v>
+        <v>129.21</v>
       </c>
       <c r="Q64" t="n">
-        <v>54.81</v>
+        <v>129.21</v>
       </c>
       <c r="R64" t="n">
-        <v>38.4</v>
+        <v>129.21</v>
       </c>
       <c r="S64" t="s">
         <v>66</v>
@@ -9289,87 +9274,87 @@
         <v>69</v>
       </c>
       <c r="U64" t="n">
-        <v>-0.03709678037693084</v>
+        <v>-0.03614402541854042</v>
       </c>
       <c r="V64" t="n">
-        <v>-0.03765611476403644</v>
+        <v>-0.03803203370248757</v>
       </c>
       <c r="W64" t="n">
-        <v>0.012472270173675791</v>
+        <v>0.014628238162234143</v>
       </c>
       <c r="X64" t="n">
-        <v>0.012459521290572997</v>
+        <v>0.014492084983398964</v>
       </c>
       <c r="Y64" t="n">
-        <v>-2.9744738218490454</v>
+        <v>-2.4720394326853525</v>
       </c>
       <c r="Z64" t="n">
-        <v>-3.0023903873892412</v>
+        <v>-2.6243314020069706</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.002964322934378326</v>
+        <v>0.01943884261975269</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.0026845881089658753</v>
+        <v>0.008693790682248749</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.03713437445933256</v>
+        <v>-0.036188294085573176</v>
       </c>
       <c r="AD64" t="n">
-        <v>-0.03705918629452911</v>
+        <v>-0.036099756751507665</v>
       </c>
       <c r="AE64" t="n">
-        <v>-0.0376936704185854</v>
+        <v>-0.03807589033632313</v>
       </c>
       <c r="AF64" t="n">
-        <v>-0.037618559109487484</v>
+        <v>-0.037988177068652006</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.8285460228182574</v>
+        <v>0.8168756512116474</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.1949834531196012</v>
+        <v>0.2115989485069856</v>
       </c>
       <c r="AI64" t="n">
-        <v>0.5679117762387909</v>
+        <v>0.5777056058612534</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0.739180346677465</v>
+        <v>0.6916739393678365</v>
       </c>
       <c r="AK64" t="n">
-        <v>0.44072230863529765</v>
+        <v>0.516014741765388</v>
       </c>
       <c r="AL64" t="n">
-        <v>0.45069037440290394</v>
+        <v>0.562349827141345</v>
       </c>
       <c r="AM64" t="n">
-        <v>115.61887532352539</v>
+        <v>265.39891439306825</v>
       </c>
       <c r="AN64" t="n">
-        <v>108.49585306132035</v>
+        <v>322.362497816</v>
       </c>
       <c r="AO64" t="n">
-        <v>0.3190618564261397</v>
+        <v>0.4533740570456227</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.34770484116916933</v>
+        <v>0.8985578965649031</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.5646754050625378</v>
+        <v>0.6731375679834714</v>
       </c>
       <c r="AR64" t="n">
-        <v>0.5887967464714229</v>
+        <v>0.7770165662821114</v>
       </c>
       <c r="AS64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -9387,7 +9372,7 @@
         <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H65" t="n">
         <v>4.0</v>
@@ -9408,19 +9393,19 @@
         <v>56</v>
       </c>
       <c r="N65" t="n">
-        <v>11669.0</v>
+        <v>11529.0</v>
       </c>
       <c r="O65" t="n">
-        <v>11669.0</v>
+        <v>11504.0</v>
       </c>
       <c r="P65" t="n">
-        <v>16.27</v>
+        <v>129.21</v>
       </c>
       <c r="Q65" t="n">
-        <v>54.81</v>
+        <v>129.21</v>
       </c>
       <c r="R65" t="n">
-        <v>38.4</v>
+        <v>129.21</v>
       </c>
       <c r="S65" t="s">
         <v>56</v>
@@ -9429,87 +9414,87 @@
         <v>70</v>
       </c>
       <c r="U65" t="n">
-        <v>0.003513350233075977</v>
+        <v>-0.052814373932763156</v>
       </c>
       <c r="V65" t="n">
-        <v>0.004723735968930212</v>
+        <v>-0.04954976781341454</v>
       </c>
       <c r="W65" t="n">
-        <v>0.011610184093883506</v>
+        <v>0.029289208061990975</v>
       </c>
       <c r="X65" t="n">
-        <v>0.00933861504541775</v>
+        <v>0.024025754068989057</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.2992141681076704</v>
+        <v>-1.8074339146071121</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.4543897098511299</v>
+        <v>-2.0154011576408255</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.7366588038615519</v>
+        <v>0.07601311716957833</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.6495571545095801</v>
+        <v>0.043886641993063004</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.0034783546619853267</v>
+        <v>-0.052903010321162736</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.0035483458041666274</v>
+        <v>-0.05272573754436358</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.004695587391434158</v>
+        <v>-0.04962247568809468</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.004751884546426266</v>
+        <v>-0.0494770599387344</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.8285460228182574</v>
+        <v>0.8168756512116474</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.1949834531196012</v>
+        <v>0.2115989485069856</v>
       </c>
       <c r="AI65" t="n">
-        <v>0.5679117762387909</v>
+        <v>0.5777056058612534</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.739180346677465</v>
+        <v>0.6916739393678365</v>
       </c>
       <c r="AK65" t="n">
-        <v>0.44072230863529765</v>
+        <v>0.516014741765388</v>
       </c>
       <c r="AL65" t="n">
-        <v>0.45069037440290394</v>
+        <v>0.562349827141345</v>
       </c>
       <c r="AM65" t="n">
-        <v>115.61887532352539</v>
+        <v>265.39891439306825</v>
       </c>
       <c r="AN65" t="n">
-        <v>108.49585306132035</v>
+        <v>322.362497816</v>
       </c>
       <c r="AO65" t="n">
-        <v>0.3190618564261397</v>
+        <v>0.4533740570456227</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.34770484116916933</v>
+        <v>0.8985578965649031</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.5646754050625378</v>
+        <v>0.6731375679834714</v>
       </c>
       <c r="AR65" t="n">
-        <v>0.5887967464714229</v>
+        <v>0.7770165662821114</v>
       </c>
       <c r="AS65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AT65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
@@ -9527,7 +9512,7 @@
         <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H66" t="n">
         <v>4.0</v>
@@ -9548,19 +9533,19 @@
         <v>56</v>
       </c>
       <c r="N66" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O66" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P66" t="n">
-        <v>18.16</v>
+        <v>503.0</v>
       </c>
       <c r="Q66" t="n">
-        <v>33.91</v>
+        <v>503.0</v>
       </c>
       <c r="R66" t="n">
-        <v>18.58</v>
+        <v>503.0</v>
       </c>
       <c r="S66" t="s">
         <v>53</v>
@@ -9569,87 +9554,87 @@
         <v>67</v>
       </c>
       <c r="U66" t="n">
-        <v>0.009994502692567556</v>
+        <v>0.006785503174898674</v>
       </c>
       <c r="V66" t="n">
-        <v>0.009889201310358725</v>
+        <v>0.006747246815937319</v>
       </c>
       <c r="W66" t="n">
-        <v>0.011245866537053532</v>
+        <v>0.011826794715180944</v>
       </c>
       <c r="X66" t="n">
-        <v>0.007332890244147518</v>
+        <v>0.008598458667557922</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.986179936822446</v>
+        <v>0.6724117063548657</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.0997176778999855</v>
+        <v>0.7847042216292501</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.3639122623720405</v>
+        <v>0.5131191690572774</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.27147876363894025</v>
+        <v>0.4326437202913922</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.009960605252295205</v>
+        <v>0.006749712368685061</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.010028400132839907</v>
+        <v>0.006821293981112286</v>
       </c>
       <c r="AE66" t="n">
-        <v>0.009867098415196692</v>
+        <v>0.0067212257531457835</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.009911304205520758</v>
+        <v>0.006773267878728854</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.8289791956801498</v>
+        <v>0.8319715243345542</v>
       </c>
       <c r="AH66" t="n">
-        <v>0.1990241558472325</v>
+        <v>0.26782814416620165</v>
       </c>
       <c r="AI66" t="n">
-        <v>0.5694054733033215</v>
+        <v>0.5988523776704112</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0.7413000564093347</v>
+        <v>0.7485464470547064</v>
       </c>
       <c r="AK66" t="n">
-        <v>0.36740353084504235</v>
+        <v>0.5055653694273755</v>
       </c>
       <c r="AL66" t="n">
-        <v>0.37033648340412173</v>
+        <v>0.5390732671273719</v>
       </c>
       <c r="AM66" t="n">
-        <v>75.0374466646343</v>
+        <v>266.9730598903385</v>
       </c>
       <c r="AN66" t="n">
-        <v>73.09091392117269</v>
+        <v>288.59516543358023</v>
       </c>
       <c r="AO66" t="n">
-        <v>0.22724764507575984</v>
+        <v>0.43355235237058914</v>
       </c>
       <c r="AP66" t="n">
-        <v>0.23430703066196384</v>
+        <v>0.4851688883211169</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.4764539291367848</v>
+        <v>0.6582443238444924</v>
       </c>
       <c r="AR66" t="n">
-        <v>0.483572402718819</v>
+        <v>0.6958325298077194</v>
       </c>
       <c r="AS66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>50</v>
@@ -9667,7 +9652,7 @@
         <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H67" t="n">
         <v>4.0</v>
@@ -9688,19 +9673,19 @@
         <v>56</v>
       </c>
       <c r="N67" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O67" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P67" t="n">
-        <v>18.16</v>
+        <v>503.0</v>
       </c>
       <c r="Q67" t="n">
-        <v>33.91</v>
+        <v>503.0</v>
       </c>
       <c r="R67" t="n">
-        <v>18.58</v>
+        <v>503.0</v>
       </c>
       <c r="S67" t="s">
         <v>66</v>
@@ -9709,87 +9694,87 @@
         <v>68</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.03545825491364206</v>
+        <v>-0.0392045339561244</v>
       </c>
       <c r="V67" t="n">
-        <v>-0.03564186327586076</v>
+        <v>-0.03581502386733599</v>
       </c>
       <c r="W67" t="n">
-        <v>0.011670592565565121</v>
+        <v>0.013292928704270375</v>
       </c>
       <c r="X67" t="n">
-        <v>0.011655284494592539</v>
+        <v>0.012903476528371038</v>
       </c>
       <c r="Y67" t="n">
-        <v>-3.0393327249320796</v>
+        <v>-2.9394874717884214</v>
       </c>
       <c r="Z67" t="n">
-        <v>-3.058856084611648</v>
+        <v>-2.91023268798483</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.002563888562872252</v>
+        <v>0.0049430449125990455</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.0022270809844819766</v>
+        <v>0.003618759884970292</v>
       </c>
       <c r="AC67" t="n">
-        <v>-0.03549343256875034</v>
+        <v>-0.039244761646443166</v>
       </c>
       <c r="AD67" t="n">
-        <v>-0.03542307725853378</v>
+        <v>-0.03916430626580564</v>
       </c>
       <c r="AE67" t="n">
-        <v>-0.035676994789178205</v>
+        <v>-0.035854072979037914</v>
       </c>
       <c r="AF67" t="n">
-        <v>-0.035606731762543316</v>
+        <v>-0.035775974755634064</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.8289791956801498</v>
+        <v>0.8319715243345542</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.1990241558472325</v>
+        <v>0.26782814416620165</v>
       </c>
       <c r="AI67" t="n">
-        <v>0.5694054733033215</v>
+        <v>0.5988523776704112</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0.7413000564093347</v>
+        <v>0.7485464470547064</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.36740353084504235</v>
+        <v>0.5055653694273755</v>
       </c>
       <c r="AL67" t="n">
-        <v>0.37033648340412173</v>
+        <v>0.5390732671273719</v>
       </c>
       <c r="AM67" t="n">
-        <v>75.0374466646343</v>
+        <v>266.9730598903385</v>
       </c>
       <c r="AN67" t="n">
-        <v>73.09091392117269</v>
+        <v>288.59516543358023</v>
       </c>
       <c r="AO67" t="n">
-        <v>0.22724764507575984</v>
+        <v>0.43355235237058914</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.23430703066196384</v>
+        <v>0.4851688883211169</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.4764539291367848</v>
+        <v>0.6582443238444924</v>
       </c>
       <c r="AR67" t="n">
-        <v>0.483572402718819</v>
+        <v>0.6958325298077194</v>
       </c>
       <c r="AS67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -9807,7 +9792,7 @@
         <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H68" t="n">
         <v>4.0</v>
@@ -9828,19 +9813,19 @@
         <v>56</v>
       </c>
       <c r="N68" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O68" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P68" t="n">
-        <v>18.16</v>
+        <v>503.0</v>
       </c>
       <c r="Q68" t="n">
-        <v>33.91</v>
+        <v>503.0</v>
       </c>
       <c r="R68" t="n">
-        <v>18.58</v>
+        <v>503.0</v>
       </c>
       <c r="S68" t="s">
         <v>66</v>
@@ -9849,87 +9834,87 @@
         <v>69</v>
       </c>
       <c r="U68" t="n">
-        <v>-0.02587040803268037</v>
+        <v>-0.041367621846014446</v>
       </c>
       <c r="V68" t="n">
-        <v>-0.02534420319264114</v>
+        <v>-0.039532423715056796</v>
       </c>
       <c r="W68" t="n">
-        <v>0.010105018176304053</v>
+        <v>0.014432536931465206</v>
       </c>
       <c r="X68" t="n">
-        <v>0.010090615015721983</v>
+        <v>0.014237914716402173</v>
       </c>
       <c r="Y68" t="n">
-        <v>-2.5601299403975815</v>
+        <v>-2.867366621177599</v>
       </c>
       <c r="Z68" t="n">
-        <v>-2.499152976150821</v>
+        <v>-2.776559945924889</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.012602819036202542</v>
+        <v>0.0048830407389633314</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.012463245037604946</v>
+        <v>0.005502940168151509</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.02590086671267214</v>
+        <v>-0.041411298272715405</v>
       </c>
       <c r="AD68" t="n">
-        <v>-0.025839949352688598</v>
+        <v>-0.04132394541931349</v>
       </c>
       <c r="AE68" t="n">
-        <v>-0.025374618458434996</v>
+        <v>-0.03957551116679438</v>
       </c>
       <c r="AF68" t="n">
-        <v>-0.02531378792684728</v>
+        <v>-0.039489336263319214</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.8289791956801498</v>
+        <v>0.8319715243345542</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.1990241558472325</v>
+        <v>0.26782814416620165</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.5694054733033215</v>
+        <v>0.5988523776704112</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0.7413000564093347</v>
+        <v>0.7485464470547064</v>
       </c>
       <c r="AK68" t="n">
-        <v>0.36740353084504235</v>
+        <v>0.5055653694273755</v>
       </c>
       <c r="AL68" t="n">
-        <v>0.37033648340412173</v>
+        <v>0.5390732671273719</v>
       </c>
       <c r="AM68" t="n">
-        <v>75.0374466646343</v>
+        <v>266.9730598903385</v>
       </c>
       <c r="AN68" t="n">
-        <v>73.09091392117269</v>
+        <v>288.59516543358023</v>
       </c>
       <c r="AO68" t="n">
-        <v>0.22724764507575984</v>
+        <v>0.43355235237058914</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.23430703066196384</v>
+        <v>0.4851688883211169</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.4764539291367848</v>
+        <v>0.6582443238444924</v>
       </c>
       <c r="AR68" t="n">
-        <v>0.483572402718819</v>
+        <v>0.6958325298077194</v>
       </c>
       <c r="AS68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
         <v>50</v>
@@ -9947,7 +9932,7 @@
         <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H69" t="n">
         <v>4.0</v>
@@ -9968,19 +9953,19 @@
         <v>56</v>
       </c>
       <c r="N69" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="O69" t="n">
-        <v>11654.0</v>
+        <v>11122.0</v>
       </c>
       <c r="P69" t="n">
-        <v>18.16</v>
+        <v>503.0</v>
       </c>
       <c r="Q69" t="n">
-        <v>33.91</v>
+        <v>503.0</v>
       </c>
       <c r="R69" t="n">
-        <v>18.58</v>
+        <v>503.0</v>
       </c>
       <c r="S69" t="s">
         <v>56</v>
@@ -9989,1202 +9974,82 @@
         <v>70</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.025463752221074505</v>
+        <v>-0.032419030781225724</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.02517901558954081</v>
+        <v>-0.029025420327222422</v>
       </c>
       <c r="W69" t="n">
-        <v>0.012314261322289499</v>
+        <v>0.008871320495514102</v>
       </c>
       <c r="X69" t="n">
-        <v>0.007870809066312063</v>
+        <v>0.007590790194399901</v>
       </c>
       <c r="Y69" t="n">
-        <v>-2.3832703696361675</v>
+        <v>-3.7223458135411858</v>
       </c>
       <c r="Z69" t="n">
-        <v>-3.2001126452735225</v>
+        <v>-4.204077625742856</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.06335055240133736</v>
+        <v>8.9025986262126E-4</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.0013775653465685647</v>
+        <v>2.641998311671809E-5</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.025500870031097866</v>
+        <v>-0.032445877591402134</v>
       </c>
       <c r="AD69" t="n">
-        <v>-0.025426634411051145</v>
+        <v>-0.032392183971049315</v>
       </c>
       <c r="AE69" t="n">
-        <v>-0.025202739886760712</v>
+        <v>-0.02904839193596331</v>
       </c>
       <c r="AF69" t="n">
-        <v>-0.02515529129232091</v>
+        <v>-0.029002448718481535</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.8289791956801498</v>
+        <v>0.8319715243345542</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.1990241558472325</v>
+        <v>0.26782814416620165</v>
       </c>
       <c r="AI69" t="n">
-        <v>0.5694054733033215</v>
+        <v>0.5988523776704112</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0.7413000564093347</v>
+        <v>0.7485464470547064</v>
       </c>
       <c r="AK69" t="n">
-        <v>0.36740353084504235</v>
+        <v>0.5055653694273755</v>
       </c>
       <c r="AL69" t="n">
-        <v>0.37033648340412173</v>
+        <v>0.5390732671273719</v>
       </c>
       <c r="AM69" t="n">
-        <v>75.0374466646343</v>
+        <v>266.9730598903385</v>
       </c>
       <c r="AN69" t="n">
-        <v>73.09091392117269</v>
+        <v>288.59516543358023</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.22724764507575984</v>
+        <v>0.43355235237058914</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.23430703066196384</v>
+        <v>0.4851688883211169</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.4764539291367848</v>
+        <v>0.6582443238444924</v>
       </c>
       <c r="AR69" t="n">
-        <v>0.483572402718819</v>
+        <v>0.6958325298077194</v>
       </c>
       <c r="AS69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70" t="s">
-        <v>57</v>
-      </c>
-      <c r="H70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K70" t="s">
-        <v>61</v>
-      </c>
-      <c r="L70" t="s">
-        <v>65</v>
-      </c>
-      <c r="M70" t="s">
-        <v>56</v>
-      </c>
-      <c r="N70" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>54.37</v>
-      </c>
-      <c r="R70" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="S70" t="s">
-        <v>53</v>
-      </c>
-      <c r="T70" t="s">
-        <v>67</v>
-      </c>
-      <c r="U70" t="n">
-        <v>-0.010310826392416528</v>
-      </c>
-      <c r="V70" t="n">
-        <v>-0.010165540234057602</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0.010060166517475735</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.006866538278717453</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>-1.0789453416134906</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>-1.4647077185367168</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0.3008595864566051</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0.14302871889049285</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>-0.010341149879942585</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>-0.010280502904890472</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>-0.010186237444931814</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>-0.01014484302318339</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0.8285619814544253</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0.1955020402495838</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0.5680891247709275</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0.7393640662062063</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0.4865552380070391</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0.5288601699009153</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>108.73071853843709</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>113.81799660120052</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>0.361552715706963</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>0.422641141598642</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>0.6011389740214533</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>0.6494144405896527</v>
-      </c>
-      <c r="AS70" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" t="s">
-        <v>55</v>
-      </c>
-      <c r="G71" t="s">
-        <v>57</v>
-      </c>
-      <c r="H71" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K71" t="s">
-        <v>61</v>
-      </c>
-      <c r="L71" t="s">
-        <v>65</v>
-      </c>
-      <c r="M71" t="s">
-        <v>56</v>
-      </c>
-      <c r="N71" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>54.37</v>
-      </c>
-      <c r="R71" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="S71" t="s">
-        <v>66</v>
-      </c>
-      <c r="T71" t="s">
-        <v>68</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0.031227808435374746</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0.030483613016694954</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0.015396907792549841</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.015348062611707005</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>2.02674194524185</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1.995320281637818</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0.04666839193869839</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0.046032118322011976</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0.031181398871420095</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0.0312742179993294</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0.030437350682533112</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0.030529875350856796</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0.8285619814544253</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0.1955020402495838</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0.5680891247709275</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0.7393640662062063</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0.4865552380070391</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0.5288601699009153</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>108.73071853843709</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>113.81799660120052</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0.361552715706963</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>0.422641141598642</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>0.6011389740214533</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0.6494144405896527</v>
-      </c>
-      <c r="AS71" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" t="s">
-        <v>55</v>
-      </c>
-      <c r="G72" t="s">
-        <v>57</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K72" t="s">
-        <v>61</v>
-      </c>
-      <c r="L72" t="s">
-        <v>65</v>
-      </c>
-      <c r="M72" t="s">
-        <v>56</v>
-      </c>
-      <c r="N72" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>54.37</v>
-      </c>
-      <c r="R72" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="S72" t="s">
-        <v>66</v>
-      </c>
-      <c r="T72" t="s">
-        <v>69</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.03767241730417356</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0.03787974894363263</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0.013669972093216949</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0.013625686154591194</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>2.756031445433101</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>2.7720841528368725</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0.005965966062003287</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0.005579053104093117</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0.03763121309273927</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0.03771362151560785</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0.037838678219462706</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0.03792081966780255</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0.8285619814544253</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0.1955020402495838</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0.5680891247709275</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0.7393640662062063</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0.4865552380070391</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0.5288601699009153</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>108.73071853843709</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>113.81799660120052</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0.361552715706963</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0.422641141598642</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>0.6011389740214533</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0.6494144405896527</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" t="s">
-        <v>55</v>
-      </c>
-      <c r="G73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>61</v>
-      </c>
-      <c r="L73" t="s">
-        <v>65</v>
-      </c>
-      <c r="M73" t="s">
-        <v>56</v>
-      </c>
-      <c r="N73" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>11659.0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>54.37</v>
-      </c>
-      <c r="R73" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="S73" t="s">
-        <v>56</v>
-      </c>
-      <c r="T73" t="s">
-        <v>70</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0.02091698204295822</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0.020143901762865894</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0.019043926703224315</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0.014852177067307666</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>1.2085847484390309</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>1.5144208529293592</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0.2572216840034421</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0.1299473245248041</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0.02085957958616695</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0.02097438449974949</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0.020099134133497835</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0.020188669392233953</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0.8285619814544253</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0.1955020402495838</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0.5680891247709275</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0.7393640662062063</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0.4865552380070391</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0.5288601699009153</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>108.73071853843709</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>113.81799660120052</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>0.361552715706963</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>0.422641141598642</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>0.6011389740214533</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>0.6494144405896527</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" t="s">
-        <v>55</v>
-      </c>
-      <c r="G74" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>61</v>
-      </c>
-      <c r="L74" t="s">
-        <v>65</v>
-      </c>
-      <c r="M74" t="s">
-        <v>56</v>
-      </c>
-      <c r="N74" t="n">
-        <v>11529.0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>11504.0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="R74" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="S74" t="s">
-        <v>53</v>
-      </c>
-      <c r="T74" t="s">
-        <v>67</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0.003350273699731608</v>
-      </c>
-      <c r="V74" t="n">
-        <v>0.0030230401824217035</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0.008434619086378185</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.006987583189841391</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0.42175736393385</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>0.3825701771000648</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0.6819476423947116</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0.7020457966349447</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0.0033247484560391055</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0.0033757989434241107</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0.003001894027282299</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0.003044186337561108</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0.8168756512116474</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0.2115989485069856</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0.5777056058612534</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>0.6916739393678365</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0.516014741765388</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0.562349827141345</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>265.39891439306825</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>322.362497816</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0.4533740570456227</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>0.8985578965649031</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>0.6731375679834714</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>0.7770165662821114</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" t="s">
-        <v>55</v>
-      </c>
-      <c r="G75" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>61</v>
-      </c>
-      <c r="L75" t="s">
-        <v>65</v>
-      </c>
-      <c r="M75" t="s">
-        <v>56</v>
-      </c>
-      <c r="N75" t="n">
-        <v>11529.0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>11504.0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="R75" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="S75" t="s">
-        <v>66</v>
-      </c>
-      <c r="T75" t="s">
-        <v>68</v>
-      </c>
-      <c r="U75" t="n">
-        <v>-0.05616464763249477</v>
-      </c>
-      <c r="V75" t="n">
-        <v>-0.054807964671137</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0.04046716473851448</v>
-      </c>
-      <c r="X75" t="n">
-        <v>0.029445329882820184</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>-1.6525658249868311</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>-1.9352917142879282</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0.16307079477885147</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0.05297982668102119</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>-0.05628711128271027</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>-0.05604218398227927</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>-0.05489707352278377</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>-0.05471885581949023</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0.8168756512116474</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0.2115989485069856</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0.5777056058612534</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0.6916739393678365</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0.516014741765388</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0.562349827141345</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>265.39891439306825</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>322.362497816</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>0.4533740570456227</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>0.8985578965649031</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>0.6731375679834714</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>0.7770165662821114</v>
-      </c>
-      <c r="AS75" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s">
-        <v>60</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>61</v>
-      </c>
-      <c r="L76" t="s">
-        <v>65</v>
-      </c>
-      <c r="M76" t="s">
-        <v>56</v>
-      </c>
-      <c r="N76" t="n">
-        <v>11529.0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>11504.0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="R76" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="S76" t="s">
-        <v>66</v>
-      </c>
-      <c r="T76" t="s">
-        <v>69</v>
-      </c>
-      <c r="U76" t="n">
-        <v>-0.03614402541854042</v>
-      </c>
-      <c r="V76" t="n">
-        <v>-0.03803203370248757</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0.014628238162234143</v>
-      </c>
-      <c r="X76" t="n">
-        <v>0.014492084983398964</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>-2.4720394326853525</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>-2.6243314020069706</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0.01943884261975269</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0.008693790682248749</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>-0.036188294085573176</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>-0.036099756751507665</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>-0.03807589033632313</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>-0.037988177068652006</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0.8168756512116474</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0.2115989485069856</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0.5777056058612534</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0.6916739393678365</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0.516014741765388</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0.562349827141345</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>265.39891439306825</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>322.362497816</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0.4533740570456227</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0.8985578965649031</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>0.6731375679834714</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0.7770165662821114</v>
-      </c>
-      <c r="AS76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s">
-        <v>60</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>61</v>
-      </c>
-      <c r="L77" t="s">
-        <v>65</v>
-      </c>
-      <c r="M77" t="s">
-        <v>56</v>
-      </c>
-      <c r="N77" t="n">
-        <v>11529.0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>11504.0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="R77" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="S77" t="s">
-        <v>56</v>
-      </c>
-      <c r="T77" t="s">
-        <v>70</v>
-      </c>
-      <c r="U77" t="n">
-        <v>-0.052814373932763156</v>
-      </c>
-      <c r="V77" t="n">
-        <v>-0.04954976781341454</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0.029289208061990975</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0.024025754068989057</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>-1.8074339146071121</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>-2.0154011576408255</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0.07601311716957833</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0.043886641993063004</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>-0.052903010321162736</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>-0.05272573754436358</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>-0.04962247568809468</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>-0.0494770599387344</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0.8168756512116474</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0.2115989485069856</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0.5777056058612534</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0.6916739393678365</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0.516014741765388</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0.562349827141345</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>265.39891439306825</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>322.362497816</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>0.4533740570456227</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>0.8985578965649031</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>0.6731375679834714</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0.7770165662821114</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
